--- a/docs/LMER_Microglia_0.xlsx
+++ b/docs/LMER_Microglia_0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="305">
   <si>
     <t>logFC</t>
   </si>
@@ -126,12 +126,12 @@
     <t>Ctsb</t>
   </si>
   <si>
+    <t>C1qc</t>
+  </si>
+  <si>
     <t>Myl2</t>
   </si>
   <si>
-    <t>C1qc</t>
-  </si>
-  <si>
     <t>Cst7</t>
   </si>
   <si>
@@ -237,12 +237,12 @@
     <t>Gm10719</t>
   </si>
   <si>
+    <t>Rpl13a</t>
+  </si>
+  <si>
     <t>Lamp2</t>
   </si>
   <si>
-    <t>Rpl13a</t>
-  </si>
-  <si>
     <t>Rnaset2b</t>
   </si>
   <si>
@@ -264,12 +264,12 @@
     <t>Mt1</t>
   </si>
   <si>
+    <t>Acbd5</t>
+  </si>
+  <si>
     <t>Cry1</t>
   </si>
   <si>
-    <t>Acbd5</t>
-  </si>
-  <si>
     <t>Bicd1</t>
   </si>
   <si>
@@ -279,6 +279,27 @@
     <t>Cd9</t>
   </si>
   <si>
+    <t>Rps14</t>
+  </si>
+  <si>
+    <t>Rplp0</t>
+  </si>
+  <si>
+    <t>Ssr4</t>
+  </si>
+  <si>
+    <t>Erp29</t>
+  </si>
+  <si>
+    <t>Itgb5</t>
+  </si>
+  <si>
+    <t>Arhgef40</t>
+  </si>
+  <si>
+    <t>H2-K1</t>
+  </si>
+  <si>
     <t>query</t>
   </si>
   <si>
@@ -459,60 +480,87 @@
     <t>46</t>
   </si>
   <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
     <t>query_1</t>
   </si>
   <si>
     <t>TRUE</t>
   </si>
   <si>
+    <t>GO:0098883</t>
+  </si>
+  <si>
     <t>GO:0006955</t>
   </si>
   <si>
-    <t>GO:0098883</t>
+    <t>GO:0002705</t>
+  </si>
+  <si>
+    <t>GO:0098542</t>
+  </si>
+  <si>
+    <t>GO:0044419</t>
+  </si>
+  <si>
+    <t>GO:0055094</t>
+  </si>
+  <si>
+    <t>GO:0002443</t>
+  </si>
+  <si>
+    <t>GO:0002455</t>
+  </si>
+  <si>
+    <t>GO:0002460</t>
+  </si>
+  <si>
+    <t>GO:0006952</t>
+  </si>
+  <si>
+    <t>GO:0002682</t>
+  </si>
+  <si>
+    <t>GO:0048002</t>
+  </si>
+  <si>
+    <t>GO:0071402</t>
+  </si>
+  <si>
+    <t>GO:0001774</t>
+  </si>
+  <si>
+    <t>GO:0051707</t>
+  </si>
+  <si>
+    <t>GO:0043207</t>
+  </si>
+  <si>
+    <t>GO:0002824</t>
+  </si>
+  <si>
+    <t>GO:0042742</t>
+  </si>
+  <si>
+    <t>GO:0002250</t>
   </si>
   <si>
     <t>GO:0009605</t>
   </si>
   <si>
-    <t>GO:0006952</t>
-  </si>
-  <si>
-    <t>GO:0044419</t>
-  </si>
-  <si>
-    <t>GO:0002682</t>
-  </si>
-  <si>
-    <t>GO:0098542</t>
-  </si>
-  <si>
-    <t>GO:0002282</t>
-  </si>
-  <si>
-    <t>GO:0045087</t>
-  </si>
-  <si>
-    <t>GO:0001774</t>
-  </si>
-  <si>
-    <t>GO:0002684</t>
-  </si>
-  <si>
-    <t>GO:0051707</t>
-  </si>
-  <si>
-    <t>GO:0043207</t>
-  </si>
-  <si>
-    <t>GO:0150146</t>
-  </si>
-  <si>
-    <t>GO:0002376</t>
-  </si>
-  <si>
-    <t>GO:0009607</t>
-  </si>
-  <si>
     <t>GO:0005615</t>
   </si>
   <si>
@@ -528,37 +576,49 @@
     <t>GO:0005773</t>
   </si>
   <si>
+    <t>GO:0009986</t>
+  </si>
+  <si>
     <t>GO:0031982</t>
   </si>
   <si>
+    <t>GO:0033218</t>
+  </si>
+  <si>
+    <t>HP:0002725</t>
+  </si>
+  <si>
+    <t>HP:0005356</t>
+  </si>
+  <si>
+    <t>HP:0000099</t>
+  </si>
+  <si>
+    <t>HP:0000123</t>
+  </si>
+  <si>
+    <t>HP:0011970</t>
+  </si>
+  <si>
+    <t>HP:0002185</t>
+  </si>
+  <si>
+    <t>HP:0000793</t>
+  </si>
+  <si>
+    <t>HP:0031263</t>
+  </si>
+  <si>
+    <t>HP:0000095</t>
+  </si>
+  <si>
     <t>HP:0011034</t>
   </si>
   <si>
-    <t>HP:0000123</t>
-  </si>
-  <si>
-    <t>HP:0002725</t>
-  </si>
-  <si>
-    <t>HP:0005356</t>
-  </si>
-  <si>
-    <t>HP:0003216</t>
-  </si>
-  <si>
-    <t>HP:0011970</t>
-  </si>
-  <si>
-    <t>HP:0002185</t>
-  </si>
-  <si>
-    <t>HP:0000793</t>
-  </si>
-  <si>
-    <t>HP:0000099</t>
-  </si>
-  <si>
-    <t>HP:0000988</t>
+    <t>HP:0011035</t>
+  </si>
+  <si>
+    <t>HP:0000757</t>
   </si>
   <si>
     <t>HP:0001268</t>
@@ -567,280 +627,307 @@
     <t>HP:0000726</t>
   </si>
   <si>
-    <t>HP:0000757</t>
-  </si>
-  <si>
     <t>HP:0010524</t>
   </si>
   <si>
     <t>HP:0100256</t>
   </si>
   <si>
-    <t>HP:0002715</t>
+    <t>KEGG:04145</t>
+  </si>
+  <si>
+    <t>KEGG:04142</t>
+  </si>
+  <si>
+    <t>KEGG:05150</t>
+  </si>
+  <si>
+    <t>KEGG:05152</t>
+  </si>
+  <si>
+    <t>KEGG:04612</t>
+  </si>
+  <si>
+    <t>KEGG:00000</t>
+  </si>
+  <si>
+    <t>KEGG:04380</t>
+  </si>
+  <si>
+    <t>GO:BP</t>
+  </si>
+  <si>
+    <t>GO:CC</t>
+  </si>
+  <si>
+    <t>GO:MF</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>KEGG</t>
+  </si>
+  <si>
+    <t>synapse pruning</t>
+  </si>
+  <si>
+    <t>immune response</t>
+  </si>
+  <si>
+    <t>positive regulation of leukocyte mediated immunity</t>
+  </si>
+  <si>
+    <t>defense response to other organism</t>
+  </si>
+  <si>
+    <t>biological process involved in interspecies interaction between organisms</t>
+  </si>
+  <si>
+    <t>response to lipoprotein particle</t>
+  </si>
+  <si>
+    <t>leukocyte mediated immunity</t>
+  </si>
+  <si>
+    <t>humoral immune response mediated by circulating immunoglobulin</t>
+  </si>
+  <si>
+    <t>adaptive immune response based on somatic recombination of immune receptors built from immunoglobulin superfamily domains</t>
+  </si>
+  <si>
+    <t>defense response</t>
+  </si>
+  <si>
+    <t>regulation of immune system process</t>
+  </si>
+  <si>
+    <t>antigen processing and presentation of peptide antigen</t>
+  </si>
+  <si>
+    <t>cellular response to lipoprotein particle stimulus</t>
+  </si>
+  <si>
+    <t>microglial cell activation</t>
+  </si>
+  <si>
+    <t>response to other organism</t>
+  </si>
+  <si>
+    <t>response to external biotic stimulus</t>
+  </si>
+  <si>
+    <t>positive regulation of adaptive immune response based on somatic recombination of immune receptors built from immunoglobulin superfamily domains</t>
+  </si>
+  <si>
+    <t>defense response to bacterium</t>
+  </si>
+  <si>
+    <t>adaptive immune response</t>
+  </si>
+  <si>
+    <t>response to external stimulus</t>
+  </si>
+  <si>
+    <t>extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular region</t>
+  </si>
+  <si>
+    <t>lytic vacuole</t>
+  </si>
+  <si>
+    <t>lysosome</t>
+  </si>
+  <si>
+    <t>vacuole</t>
+  </si>
+  <si>
+    <t>cell surface</t>
+  </si>
+  <si>
+    <t>vesicle</t>
+  </si>
+  <si>
+    <t>amide binding</t>
+  </si>
+  <si>
+    <t>Systemic lupus erythematosus</t>
+  </si>
+  <si>
+    <t>Decreased serum complement factor I</t>
+  </si>
+  <si>
+    <t>Glomerulonephritis</t>
+  </si>
+  <si>
+    <t>Nephritis</t>
+  </si>
+  <si>
+    <t>Cerebral amyloid angiopathy</t>
+  </si>
+  <si>
+    <t>Neurofibrillary tangles</t>
+  </si>
+  <si>
+    <t>Membranoproliferative glomerulonephritis</t>
+  </si>
+  <si>
+    <t>Abnormal renal corpuscle morphology</t>
+  </si>
+  <si>
+    <t>Abnormal renal glomerulus morphology</t>
+  </si>
+  <si>
+    <t>Amyloidosis</t>
+  </si>
+  <si>
+    <t>Abnormal renal cortex morphology</t>
+  </si>
+  <si>
+    <t>Lack of insight</t>
+  </si>
+  <si>
+    <t>Mental deterioration</t>
+  </si>
+  <si>
+    <t>Dementia</t>
+  </si>
+  <si>
+    <t>Agnosia</t>
+  </si>
+  <si>
+    <t>Senile plaques</t>
+  </si>
+  <si>
+    <t>Phagosome</t>
+  </si>
+  <si>
+    <t>Lysosome</t>
+  </si>
+  <si>
+    <t>Staphylococcus aureus infection</t>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>Antigen processing and presentation</t>
+  </si>
+  <si>
+    <t>KEGG root term</t>
+  </si>
+  <si>
+    <t>Osteoclast differentiation</t>
+  </si>
+  <si>
+    <t>c("GO:0050808", "GO:0150146")</t>
+  </si>
+  <si>
+    <t>c("GO:0002376", "GO:0050896")</t>
+  </si>
+  <si>
+    <t>c("GO:0002443", "GO:0002699", "GO:0002703")</t>
+  </si>
+  <si>
+    <t>c("GO:0006952", "GO:0051707")</t>
+  </si>
+  <si>
+    <t>GO:0008150</t>
+  </si>
+  <si>
+    <t>c("GO:0009719", "GO:0010243")</t>
+  </si>
+  <si>
+    <t>GO:0002252</t>
+  </si>
+  <si>
+    <t>c("GO:0006959", "GO:0016064")</t>
+  </si>
+  <si>
+    <t>GO:0006950</t>
+  </si>
+  <si>
+    <t>c("GO:0002376", "GO:0050789")</t>
+  </si>
+  <si>
+    <t>GO:0019882</t>
+  </si>
+  <si>
+    <t>GO:0051716</t>
+  </si>
+  <si>
+    <t>GO:0042116</t>
+  </si>
+  <si>
+    <t>c("GO:0043207", "GO:0044419")</t>
+  </si>
+  <si>
+    <t>c("GO:0009605", "GO:0009607")</t>
+  </si>
+  <si>
+    <t>c("GO:0002460", "GO:0002821", "GO:0002822")</t>
+  </si>
+  <si>
+    <t>c("GO:0009617", "GO:0098542")</t>
+  </si>
+  <si>
+    <t>GO:0050896</t>
+  </si>
+  <si>
+    <t>c("GO:0005576", "GO:0110165")</t>
+  </si>
+  <si>
+    <t>GO:0110165</t>
+  </si>
+  <si>
+    <t>c("GO:0005737", "GO:0043231")</t>
+  </si>
+  <si>
+    <t>GO:0043227</t>
+  </si>
+  <si>
+    <t>GO:0005488</t>
+  </si>
+  <si>
+    <t>HP:0002960</t>
+  </si>
+  <si>
+    <t>HP:0004431</t>
+  </si>
+  <si>
+    <t>c("HP:0000095", "HP:0000123")</t>
+  </si>
+  <si>
+    <t>c("HP:0012211", "HP:0012649")</t>
   </si>
   <si>
     <t>HP:0100314</t>
   </si>
   <si>
-    <t>KEGG:04142</t>
-  </si>
-  <si>
-    <t>KEGG:04145</t>
-  </si>
-  <si>
-    <t>KEGG:05150</t>
-  </si>
-  <si>
-    <t>KEGG:05152</t>
-  </si>
-  <si>
-    <t>KEGG:04612</t>
-  </si>
-  <si>
-    <t>KEGG:04380</t>
-  </si>
-  <si>
-    <t>KEGG:04610</t>
-  </si>
-  <si>
-    <t>GO:BP</t>
-  </si>
-  <si>
-    <t>GO:CC</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>KEGG</t>
-  </si>
-  <si>
-    <t>immune response</t>
-  </si>
-  <si>
-    <t>synapse pruning</t>
-  </si>
-  <si>
-    <t>response to external stimulus</t>
-  </si>
-  <si>
-    <t>defense response</t>
-  </si>
-  <si>
-    <t>biological process involved in interspecies interaction between organisms</t>
-  </si>
-  <si>
-    <t>regulation of immune system process</t>
-  </si>
-  <si>
-    <t>defense response to other organism</t>
-  </si>
-  <si>
-    <t>microglial cell activation involved in immune response</t>
-  </si>
-  <si>
-    <t>innate immune response</t>
-  </si>
-  <si>
-    <t>microglial cell activation</t>
-  </si>
-  <si>
-    <t>positive regulation of immune system process</t>
-  </si>
-  <si>
-    <t>response to other organism</t>
-  </si>
-  <si>
-    <t>response to external biotic stimulus</t>
-  </si>
-  <si>
-    <t>cell junction disassembly</t>
-  </si>
-  <si>
-    <t>immune system process</t>
-  </si>
-  <si>
-    <t>response to biotic stimulus</t>
-  </si>
-  <si>
-    <t>extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular region</t>
-  </si>
-  <si>
-    <t>lytic vacuole</t>
-  </si>
-  <si>
-    <t>lysosome</t>
-  </si>
-  <si>
-    <t>vacuole</t>
-  </si>
-  <si>
-    <t>vesicle</t>
-  </si>
-  <si>
-    <t>Amyloidosis</t>
-  </si>
-  <si>
-    <t>Nephritis</t>
-  </si>
-  <si>
-    <t>Systemic lupus erythematosus</t>
-  </si>
-  <si>
-    <t>Decreased serum complement factor I</t>
-  </si>
-  <si>
-    <t>Generalized amyloid deposition</t>
-  </si>
-  <si>
-    <t>Cerebral amyloid angiopathy</t>
-  </si>
-  <si>
-    <t>Neurofibrillary tangles</t>
-  </si>
-  <si>
-    <t>Membranoproliferative glomerulonephritis</t>
-  </si>
-  <si>
-    <t>Glomerulonephritis</t>
-  </si>
-  <si>
-    <t>Skin rash</t>
-  </si>
-  <si>
-    <t>Mental deterioration</t>
-  </si>
-  <si>
-    <t>Dementia</t>
-  </si>
-  <si>
-    <t>Lack of insight</t>
-  </si>
-  <si>
-    <t>Agnosia</t>
-  </si>
-  <si>
-    <t>Senile plaques</t>
-  </si>
-  <si>
-    <t>Abnormality of the immune system</t>
-  </si>
-  <si>
-    <t>Cerebral inclusion bodies</t>
-  </si>
-  <si>
-    <t>Lysosome</t>
-  </si>
-  <si>
-    <t>Phagosome</t>
-  </si>
-  <si>
-    <t>Staphylococcus aureus infection</t>
-  </si>
-  <si>
-    <t>Tuberculosis</t>
-  </si>
-  <si>
-    <t>Antigen processing and presentation</t>
-  </si>
-  <si>
-    <t>Osteoclast differentiation</t>
-  </si>
-  <si>
-    <t>Complement and coagulation cascades</t>
-  </si>
-  <si>
-    <t>c("GO:0002376", "GO:0050896")</t>
-  </si>
-  <si>
-    <t>c("GO:0050808", "GO:0150146")</t>
-  </si>
-  <si>
-    <t>GO:0050896</t>
-  </si>
-  <si>
-    <t>GO:0006950</t>
-  </si>
-  <si>
-    <t>GO:0008150</t>
-  </si>
-  <si>
-    <t>c("GO:0002376", "GO:0050789")</t>
-  </si>
-  <si>
-    <t>c("GO:0006952", "GO:0006955", "GO:0051707")</t>
-  </si>
-  <si>
-    <t>c("GO:0001774", "GO:0002281")</t>
-  </si>
-  <si>
-    <t>GO:0042116</t>
-  </si>
-  <si>
-    <t>c("GO:0002376", "GO:0002682", "GO:0048518")</t>
-  </si>
-  <si>
-    <t>c("GO:0043207", "GO:0044419")</t>
-  </si>
-  <si>
-    <t>c("GO:0009605", "GO:0009607")</t>
-  </si>
-  <si>
-    <t>c("GO:0022411", "GO:0034330")</t>
-  </si>
-  <si>
-    <t>c("GO:0005576", "GO:0110165")</t>
-  </si>
-  <si>
-    <t>GO:0110165</t>
-  </si>
-  <si>
-    <t>c("GO:0005737", "GO:0043231")</t>
-  </si>
-  <si>
-    <t>GO:0043227</t>
+    <t>c("HP:0011035", "HP:0012575")</t>
   </si>
   <si>
     <t>HP:0001939</t>
   </si>
   <si>
-    <t>c("HP:0012211", "HP:0012649")</t>
-  </si>
-  <si>
-    <t>HP:0002960</t>
-  </si>
-  <si>
-    <t>HP:0004431</t>
-  </si>
-  <si>
-    <t>c("HP:0000095", "HP:0000123")</t>
-  </si>
-  <si>
-    <t>HP:0011123</t>
+    <t>HP:0012210</t>
+  </si>
+  <si>
+    <t>HP:0000708</t>
   </si>
   <si>
     <t>HP:0100543</t>
   </si>
   <si>
-    <t>HP:0000708</t>
-  </si>
-  <si>
     <t>HP:0011446</t>
   </si>
   <si>
     <t>HP:0007367</t>
   </si>
   <si>
-    <t>HP:0000118</t>
-  </si>
-  <si>
-    <t>HP:0002060</t>
-  </si>
-  <si>
-    <t>KEGG:00000</t>
+    <t>character(0)</t>
   </si>
 </sst>
 </file>
@@ -917,22 +1004,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>3.584956443529778</v>
+        <v>3.5866162939985813</v>
       </c>
       <c r="C2" t="n">
         <v>0.45423754537911476</v>
       </c>
       <c r="D2" t="n">
-        <v>12.28166217840612</v>
+        <v>12.324564584494357</v>
       </c>
       <c r="E2" t="n">
-        <v>1.011277086728615E-25</v>
+        <v>7.553899947262943E-26</v>
       </c>
       <c r="F2" t="n">
-        <v>1.380797734219251E-21</v>
+        <v>1.0314094987992822E-21</v>
       </c>
       <c r="G2" t="n">
-        <v>45.437923676031964</v>
+        <v>45.73077429959458</v>
       </c>
     </row>
     <row r="3">
@@ -940,22 +1027,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>2.0893996966924493</v>
+        <v>2.0895379876516214</v>
       </c>
       <c r="C3" t="n">
         <v>0.22280363912436962</v>
       </c>
       <c r="D3" t="n">
-        <v>11.03957354718391</v>
+        <v>11.07750515594147</v>
       </c>
       <c r="E3" t="n">
-        <v>4.46075647285534E-22</v>
+        <v>3.4594669797267483E-22</v>
       </c>
       <c r="F3" t="n">
-        <v>3.0453584440183405E-18</v>
+        <v>2.361778107059451E-18</v>
       </c>
       <c r="G3" t="n">
-        <v>37.79782860533343</v>
+        <v>38.05211363063772</v>
       </c>
     </row>
     <row r="4">
@@ -963,22 +1050,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>4.7755657450747835</v>
+        <v>4.775572803269444</v>
       </c>
       <c r="C4" t="n">
         <v>0.9320041674926198</v>
       </c>
       <c r="D4" t="n">
-        <v>10.655073221767081</v>
+        <v>10.690821120942688</v>
       </c>
       <c r="E4" t="n">
-        <v>5.81085393528328E-21</v>
+        <v>4.580830317514283E-21</v>
       </c>
       <c r="F4" t="n">
-        <v>2.644713321078597E-17</v>
+        <v>2.0848885718446672E-17</v>
       </c>
       <c r="G4" t="n">
-        <v>35.45142746681728</v>
+        <v>35.68940180714189</v>
       </c>
     </row>
     <row r="5">
@@ -986,22 +1073,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>-11.08074561482527</v>
+        <v>-11.088504037059835</v>
       </c>
       <c r="C5" t="n">
         <v>6.541098974142623</v>
       </c>
       <c r="D5" t="n">
-        <v>-9.19140632599735</v>
+        <v>-9.225275064832617</v>
       </c>
       <c r="E5" t="n">
-        <v>8.177919529792983E-17</v>
+        <v>6.588795123559127E-17</v>
       </c>
       <c r="F5" t="n">
-        <v>2.7915328314948346E-13</v>
+        <v>2.249085215426908E-13</v>
       </c>
       <c r="G5" t="n">
-        <v>26.688450575353755</v>
+        <v>26.901398334541092</v>
       </c>
     </row>
     <row r="6">
@@ -1009,22 +1096,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>2.4303427581788397</v>
+        <v>2.4303280977216453</v>
       </c>
       <c r="C6" t="n">
         <v>0.39430237814313496</v>
       </c>
       <c r="D6" t="n">
-        <v>8.392999905948177</v>
+        <v>8.421246154629666</v>
       </c>
       <c r="E6" t="n">
-        <v>1.2212336995599158E-14</v>
+        <v>1.026194443050367E-14</v>
       </c>
       <c r="F6" t="n">
-        <v>3.334944986758218E-11</v>
+        <v>2.8023317850819427E-11</v>
       </c>
       <c r="G6" t="n">
-        <v>22.08039709083998</v>
+        <v>22.2519234529816</v>
       </c>
     </row>
     <row r="7">
@@ -1032,22 +1119,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>2.181170967224976</v>
+        <v>2.1819579232551396</v>
       </c>
       <c r="C7" t="n">
         <v>0.34948685658984546</v>
       </c>
       <c r="D7" t="n">
-        <v>7.389037570794745</v>
+        <v>7.4153188664012335</v>
       </c>
       <c r="E7" t="n">
-        <v>4.975472065270217E-12</v>
+        <v>4.2713494054809186E-12</v>
       </c>
       <c r="F7" t="n">
-        <v>1.1322515929866591E-8</v>
+        <v>9.72016746373941E-9</v>
       </c>
       <c r="G7" t="n">
-        <v>16.54146894619188</v>
+        <v>16.689945058757154</v>
       </c>
     </row>
     <row r="8">
@@ -1055,22 +1142,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>3.690439343466408</v>
+        <v>3.6900650393701713</v>
       </c>
       <c r="C8" t="n">
         <v>0.8211189658039846</v>
       </c>
       <c r="D8" t="n">
-        <v>7.360817027434575</v>
+        <v>7.384845392949527</v>
       </c>
       <c r="E8" t="n">
-        <v>5.85950105882765E-12</v>
+        <v>5.097942575635272E-12</v>
       </c>
       <c r="F8" t="n">
-        <v>1.1429375351033247E-8</v>
+        <v>9.943901132532E-9</v>
       </c>
       <c r="G8" t="n">
-        <v>16.39071446857096</v>
+        <v>16.52677379530001</v>
       </c>
     </row>
     <row r="9">
@@ -1078,22 +1165,22 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>2.6818780119624943</v>
+        <v>2.6830533228331284</v>
       </c>
       <c r="C9" t="n">
         <v>0.9083095900801966</v>
       </c>
       <c r="D9" t="n">
-        <v>6.890039158096684</v>
+        <v>6.915753555663512</v>
       </c>
       <c r="E9" t="n">
-        <v>8.540003852466877E-11</v>
+        <v>7.395641740244541E-11</v>
       </c>
       <c r="F9" t="n">
-        <v>1.4575651575197842E-7</v>
+        <v>1.262251154016237E-7</v>
       </c>
       <c r="G9" t="n">
-        <v>13.921443513947427</v>
+        <v>14.060272271131215</v>
       </c>
     </row>
     <row r="10">
@@ -1101,22 +1188,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>4.00522072236555</v>
+        <v>4.006370296235559</v>
       </c>
       <c r="C10" t="n">
         <v>5.039020896844203</v>
       </c>
       <c r="D10" t="n">
-        <v>6.133545311305957</v>
+        <v>6.15616312259608</v>
       </c>
       <c r="E10" t="n">
-        <v>5.116493342841567E-9</v>
+        <v>4.545906904438909E-9</v>
       </c>
       <c r="F10" t="n">
-        <v>7.762288900350972E-6</v>
+        <v>6.896645874800985E-6</v>
       </c>
       <c r="G10" t="n">
-        <v>10.153835907350839</v>
+        <v>10.266665863979405</v>
       </c>
     </row>
     <row r="11">
@@ -1124,22 +1211,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>2.581912225762571</v>
+        <v>2.5838843482653435</v>
       </c>
       <c r="C11" t="n">
         <v>0.44378671698988575</v>
       </c>
       <c r="D11" t="n">
-        <v>6.078225714468831</v>
+        <v>6.102406277572604</v>
       </c>
       <c r="E11" t="n">
-        <v>6.824667588461135E-9</v>
+        <v>6.018412094663664E-9</v>
       </c>
       <c r="F11" t="n">
-        <v>9.318401125284834E-6</v>
+        <v>8.217539874053766E-6</v>
       </c>
       <c r="G11" t="n">
-        <v>9.889015278614764</v>
+        <v>10.00855063492983</v>
       </c>
     </row>
     <row r="12">
@@ -1147,22 +1234,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>2.1230113411102063</v>
+        <v>2.125016746254441</v>
       </c>
       <c r="C12" t="n">
         <v>0.7318866255192344</v>
       </c>
       <c r="D12" t="n">
-        <v>6.022167903557133</v>
+        <v>6.0473977614491625</v>
       </c>
       <c r="E12" t="n">
-        <v>9.123124083458325E-9</v>
+        <v>8.00750444497534E-9</v>
       </c>
       <c r="F12" t="n">
-        <v>1.1324285112321815E-5</v>
+        <v>9.939496881063027E-6</v>
       </c>
       <c r="G12" t="n">
-        <v>9.622242805372426</v>
+        <v>9.745935089485387</v>
       </c>
     </row>
     <row r="13">
@@ -1170,22 +1257,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>-11.355379223109502</v>
+        <v>-11.36525227188093</v>
       </c>
       <c r="C13" t="n">
         <v>7.560734437969068</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.776903411386869</v>
+        <v>-5.799166492247781</v>
       </c>
       <c r="E13" t="n">
-        <v>3.184345954190413E-8</v>
+        <v>2.8466575511789777E-8</v>
       </c>
       <c r="F13" t="n">
-        <v>3.6232549715429916E-5</v>
+        <v>3.23902185031648E-5</v>
       </c>
       <c r="G13" t="n">
-        <v>8.474254434560395</v>
+        <v>8.580328563968816</v>
       </c>
     </row>
     <row r="14">
@@ -1193,22 +1280,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.762274137655959</v>
+        <v>-5.768863413476141</v>
       </c>
       <c r="C14" t="n">
         <v>6.73323926447439</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.672582732377813</v>
+        <v>-5.694815551496354</v>
       </c>
       <c r="E14" t="n">
-        <v>5.3646586832817846E-8</v>
+        <v>4.8027485750997235E-8</v>
       </c>
       <c r="F14" t="n">
-        <v>5.6345422816561145E-5</v>
+        <v>5.0443637726470486E-5</v>
       </c>
       <c r="G14" t="n">
-        <v>7.995706524007112</v>
+        <v>8.100118428887829</v>
       </c>
     </row>
     <row r="15">
@@ -1216,22 +1303,22 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.5906239325484397</v>
+        <v>-2.590303226953327</v>
       </c>
       <c r="C15" t="n">
         <v>7.009061412051611</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.633026493063337</v>
+        <v>-5.650896175691765</v>
       </c>
       <c r="E15" t="n">
-        <v>6.527310980516124E-8</v>
+        <v>5.974434069790468E-8</v>
       </c>
       <c r="F15" t="n">
-        <v>6.365993151997655E-5</v>
+        <v>5.826780199208504E-5</v>
       </c>
       <c r="G15" t="n">
-        <v>7.815810190733703</v>
+        <v>7.899784940156366</v>
       </c>
     </row>
     <row r="16">
@@ -1239,22 +1326,22 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>-7.870303570499919</v>
+        <v>-7.876730178670224</v>
       </c>
       <c r="C16" t="n">
         <v>3.951623183776923</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.602695513422506</v>
+        <v>-5.624154451371467</v>
       </c>
       <c r="E16" t="n">
-        <v>7.58218991775197E-8</v>
+        <v>6.82007294668313E-8</v>
       </c>
       <c r="F16" t="n">
-        <v>6.901814742465694E-5</v>
+        <v>6.208085067600764E-5</v>
       </c>
       <c r="G16" t="n">
-        <v>7.678456384143548</v>
+        <v>7.778327317210181</v>
       </c>
     </row>
     <row r="17">
@@ -1262,22 +1349,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>-5.7249267846466285</v>
+        <v>-5.732485089741435</v>
       </c>
       <c r="C17" t="n">
         <v>8.946684710211544</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.549057107453151</v>
+        <v>-5.570405628817461</v>
       </c>
       <c r="E17" t="n">
-        <v>9.869293416881963E-8</v>
+        <v>8.888008580909603E-8</v>
       </c>
       <c r="F17" t="n">
-        <v>8.422208269631645E-5</v>
+        <v>7.584804322733731E-5</v>
       </c>
       <c r="G17" t="n">
-        <v>7.43681279390243</v>
+        <v>7.535411226906531</v>
       </c>
     </row>
     <row r="18">
@@ -1285,22 +1372,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>-5.664803649892615</v>
+        <v>-5.673807110460237</v>
       </c>
       <c r="C18" t="n">
         <v>6.858069171000785</v>
       </c>
       <c r="D18" t="n">
-        <v>-5.511003349101559</v>
+        <v>-5.535296061617153</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1886999543694046E-7</v>
+        <v>1.0557052256260409E-7</v>
       </c>
       <c r="F18" t="n">
-        <v>9.547358339388147E-5</v>
+        <v>8.4791759709988E-5</v>
       </c>
       <c r="G18" t="n">
-        <v>7.266360879101418</v>
+        <v>7.377609671657554</v>
       </c>
     </row>
     <row r="19">
@@ -1308,22 +1395,22 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>-6.140323237340968</v>
+        <v>-6.148410411480229</v>
       </c>
       <c r="C19" t="n">
         <v>9.512576050251964</v>
       </c>
       <c r="D19" t="n">
-        <v>-5.411122567263366</v>
+        <v>-5.432820317293545</v>
       </c>
       <c r="E19" t="n">
-        <v>1.9291193007306446E-7</v>
+        <v>1.737380351268095E-7</v>
       </c>
       <c r="F19" t="n">
-        <v>1.463344162898679E-4</v>
+        <v>1.317899517567476E-4</v>
       </c>
       <c r="G19" t="n">
-        <v>6.822895842371302</v>
+        <v>6.92103046984948</v>
       </c>
     </row>
     <row r="20">
@@ -1331,22 +1418,22 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>-5.698900303463953</v>
+        <v>-5.708527173136455</v>
       </c>
       <c r="C20" t="n">
         <v>7.941609267046615</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.381995580339147</v>
+        <v>-5.405609787570712</v>
       </c>
       <c r="E20" t="n">
-        <v>2.2192146605822882E-7</v>
+        <v>1.9810309940728303E-7</v>
       </c>
       <c r="F20" t="n">
-        <v>1.594797735557398E-4</v>
+        <v>1.423631431214233E-4</v>
       </c>
       <c r="G20" t="n">
-        <v>6.6946554027042176</v>
+        <v>6.8008065787806125</v>
       </c>
     </row>
     <row r="21">
@@ -1354,22 +1441,22 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>-4.526380493017827</v>
+        <v>-4.525792394226887</v>
       </c>
       <c r="C21" t="n">
         <v>3.604773175842532</v>
       </c>
       <c r="D21" t="n">
-        <v>-5.328207576810853</v>
+        <v>-5.345690834091608</v>
       </c>
       <c r="E21" t="n">
-        <v>2.870596417440827E-7</v>
+        <v>2.6407330036015763E-7</v>
       </c>
       <c r="F21" t="n">
-        <v>1.9597561741868528E-4</v>
+        <v>1.7920542429162542E-4</v>
       </c>
       <c r="G21" t="n">
-        <v>6.4591357890289185</v>
+        <v>6.537582772690524</v>
       </c>
     </row>
     <row r="22">
@@ -1377,22 +1464,22 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>2.329225092205229</v>
+        <v>2.330736130543488</v>
       </c>
       <c r="C22" t="n">
         <v>0.7801904318624306</v>
       </c>
       <c r="D22" t="n">
-        <v>5.315836820359057</v>
+        <v>5.336731140418476</v>
       </c>
       <c r="E22" t="n">
-        <v>3.044893118992282E-7</v>
+        <v>2.756198850244715E-7</v>
       </c>
       <c r="F22" t="n">
-        <v>1.9797605069866962E-4</v>
+        <v>1.7920542429162542E-4</v>
       </c>
       <c r="G22" t="n">
-        <v>6.405208077215125</v>
+        <v>6.498403036018502</v>
       </c>
     </row>
     <row r="23">
@@ -1400,22 +1487,22 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>-6.427360815206795</v>
+        <v>-6.436835596109729</v>
       </c>
       <c r="C23" t="n">
         <v>8.397480138656862</v>
       </c>
       <c r="D23" t="n">
-        <v>-5.301998858024031</v>
+        <v>-5.322918321104315</v>
       </c>
       <c r="E23" t="n">
-        <v>3.252075682374298E-7</v>
+        <v>2.9438986638709694E-7</v>
       </c>
       <c r="F23" t="n">
-        <v>2.01835642577903E-4</v>
+        <v>1.827090561658828E-4</v>
       </c>
       <c r="G23" t="n">
-        <v>6.344991117476756</v>
+        <v>6.438093424321622</v>
       </c>
     </row>
     <row r="24">
@@ -1423,22 +1510,22 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>2.8738993194177205</v>
+        <v>2.8759246310448576</v>
       </c>
       <c r="C24" t="n">
         <v>1.7886051570131756</v>
       </c>
       <c r="D24" t="n">
-        <v>5.275335472490387</v>
+        <v>5.296478045641909</v>
       </c>
       <c r="E24" t="n">
-        <v>3.6906596821278303E-7</v>
+        <v>3.338509611692837E-7</v>
       </c>
       <c r="F24" t="n">
-        <v>2.1909681434684086E-4</v>
+        <v>1.9819134886110433E-4</v>
       </c>
       <c r="G24" t="n">
-        <v>6.229282151923554</v>
+        <v>6.322962976039777</v>
       </c>
     </row>
     <row r="25">
@@ -1446,22 +1533,22 @@
         <v>29</v>
       </c>
       <c r="B25" t="n">
-        <v>-4.6282531470453145</v>
+        <v>-4.636012529959719</v>
       </c>
       <c r="C25" t="n">
         <v>10.637841563657895</v>
       </c>
       <c r="D25" t="n">
-        <v>-5.247424641724904</v>
+        <v>-5.270526118896821</v>
       </c>
       <c r="E25" t="n">
-        <v>4.2113070131531803E-7</v>
+        <v>3.7756751567929713E-7</v>
       </c>
       <c r="F25" t="n">
-        <v>2.3958827482330633E-4</v>
+        <v>2.148044524618801E-4</v>
       </c>
       <c r="G25" t="n">
-        <v>6.1086112939613955</v>
+        <v>6.210360748169128</v>
       </c>
     </row>
     <row r="26">
@@ -1469,22 +1556,22 @@
         <v>30</v>
       </c>
       <c r="B26" t="n">
-        <v>-6.015889555296049</v>
+        <v>-6.025625873862706</v>
       </c>
       <c r="C26" t="n">
         <v>8.093273252167927</v>
       </c>
       <c r="D26" t="n">
-        <v>-5.171493221164354</v>
+        <v>-5.192072293947992</v>
       </c>
       <c r="E26" t="n">
-        <v>6.01574088185149E-7</v>
+        <v>5.463458206100698E-7</v>
       </c>
       <c r="F26" t="n">
-        <v>3.2737214118176976E-4</v>
+        <v>2.983922333843957E-4</v>
       </c>
       <c r="G26" t="n">
-        <v>5.782681973605783</v>
+        <v>5.872398730757846</v>
       </c>
     </row>
     <row r="27">
@@ -1492,22 +1579,22 @@
         <v>31</v>
       </c>
       <c r="B27" t="n">
-        <v>-8.389393087161903</v>
+        <v>-8.392948726429426</v>
       </c>
       <c r="C27" t="n">
         <v>5.945182296338406</v>
       </c>
       <c r="D27" t="n">
-        <v>-5.163868721168205</v>
+        <v>-5.182892001542019</v>
       </c>
       <c r="E27" t="n">
-        <v>6.233833067764767E-7</v>
+        <v>5.703458082464752E-7</v>
       </c>
       <c r="F27" t="n">
-        <v>3.2737214118176976E-4</v>
+        <v>2.995192948383605E-4</v>
       </c>
       <c r="G27" t="n">
-        <v>5.750146043828575</v>
+        <v>5.8330932602164705</v>
       </c>
     </row>
     <row r="28">
@@ -1515,22 +1602,22 @@
         <v>32</v>
       </c>
       <c r="B28" t="n">
-        <v>-5.448361132245734</v>
+        <v>-5.45517354070097</v>
       </c>
       <c r="C28" t="n">
         <v>8.164722138304773</v>
       </c>
       <c r="D28" t="n">
-        <v>-5.106283930684307</v>
+        <v>-5.126176401415284</v>
       </c>
       <c r="E28" t="n">
-        <v>8.148140953708038E-7</v>
+        <v>7.429906458909389E-7</v>
       </c>
       <c r="F28" t="n">
-        <v>4.120545058589983E-4</v>
+        <v>3.757331214442548E-4</v>
       </c>
       <c r="G28" t="n">
-        <v>5.505554008715283</v>
+        <v>5.591395369502125</v>
       </c>
     </row>
     <row r="29">
@@ -1538,22 +1625,22 @@
         <v>33</v>
       </c>
       <c r="B29" t="n">
-        <v>-5.519735179363661</v>
+        <v>-5.530103949076794</v>
       </c>
       <c r="C29" t="n">
         <v>10.467737624992703</v>
       </c>
       <c r="D29" t="n">
-        <v>-5.093434499285552</v>
+        <v>-5.116212954974349</v>
       </c>
       <c r="E29" t="n">
-        <v>8.647450144894783E-7</v>
+        <v>7.781603820116827E-7</v>
       </c>
       <c r="F29" t="n">
-        <v>4.183451820664265E-4</v>
+        <v>3.7904037638245074E-4</v>
       </c>
       <c r="G29" t="n">
-        <v>5.451251632924599</v>
+        <v>5.5491371884658385</v>
       </c>
     </row>
     <row r="30">
@@ -1561,22 +1648,22 @@
         <v>34</v>
       </c>
       <c r="B30" t="n">
-        <v>2.6149886196072663</v>
+        <v>2.61739823262187</v>
       </c>
       <c r="C30" t="n">
         <v>1.6085122855804164</v>
       </c>
       <c r="D30" t="n">
-        <v>5.087564489688536</v>
+        <v>5.108885579899293</v>
       </c>
       <c r="E30" t="n">
-        <v>8.8853158634293E-7</v>
+        <v>8.050513340479765E-7</v>
       </c>
       <c r="F30" t="n">
-        <v>4.183451820664265E-4</v>
+        <v>3.7904037638245074E-4</v>
       </c>
       <c r="G30" t="n">
-        <v>5.426478287980897</v>
+        <v>5.518098087526122</v>
       </c>
     </row>
     <row r="31">
@@ -1584,22 +1671,22 @@
         <v>35</v>
       </c>
       <c r="B31" t="n">
-        <v>1.7547248147183387</v>
+        <v>1.756741525717012</v>
       </c>
       <c r="C31" t="n">
         <v>0.4622755078320947</v>
       </c>
       <c r="D31" t="n">
-        <v>5.047999923347549</v>
+        <v>5.070267461860041</v>
       </c>
       <c r="E31" t="n">
-        <v>1.0662504628880384E-6</v>
+        <v>9.623757283882938E-7</v>
       </c>
       <c r="F31" t="n">
-        <v>4.8528612734244256E-4</v>
+        <v>4.380092731804588E-4</v>
       </c>
       <c r="G31" t="n">
-        <v>5.260054929795665</v>
+        <v>5.355053036127835</v>
       </c>
     </row>
     <row r="32">
@@ -1607,22 +1694,22 @@
         <v>36</v>
       </c>
       <c r="B32" t="n">
-        <v>-5.7748098927694045</v>
+        <v>-5.783238136867946</v>
       </c>
       <c r="C32" t="n">
         <v>8.219750194991663</v>
       </c>
       <c r="D32" t="n">
-        <v>-4.989124638090655</v>
+        <v>-5.011120309129515</v>
       </c>
       <c r="E32" t="n">
-        <v>1.3960535980305314E-6</v>
+        <v>1.2626610350414267E-6</v>
       </c>
       <c r="F32" t="n">
-        <v>6.148940589518992E-4</v>
+        <v>5.561410894340528E-4</v>
       </c>
       <c r="G32" t="n">
-        <v>5.014193736699276</v>
+        <v>5.107115457200612</v>
       </c>
     </row>
     <row r="33">
@@ -1630,22 +1717,22 @@
         <v>37</v>
       </c>
       <c r="B33" t="n">
-        <v>1.6323035694280617</v>
+        <v>-5.531156300344081</v>
       </c>
       <c r="C33" t="n">
-        <v>0.20279624964973722</v>
+        <v>8.304417661942347</v>
       </c>
       <c r="D33" t="n">
-        <v>4.90738751596273</v>
+        <v>-4.922827949588106</v>
       </c>
       <c r="E33" t="n">
-        <v>2.0221217073557997E-6</v>
+        <v>1.8860539858496762E-6</v>
       </c>
       <c r="F33" t="n">
-        <v>8.528179471830142E-4</v>
+        <v>7.828910952901538E-4</v>
       </c>
       <c r="G33" t="n">
-        <v>4.676449193480931</v>
+        <v>4.7410564710155665</v>
       </c>
     </row>
     <row r="34">
@@ -1653,22 +1740,22 @@
         <v>38</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.523813535587198</v>
+        <v>1.631667524094971</v>
       </c>
       <c r="C34" t="n">
-        <v>8.304417661942347</v>
+        <v>0.20279624964973722</v>
       </c>
       <c r="D34" t="n">
-        <v>-4.903143922558437</v>
+        <v>4.9221135284242985</v>
       </c>
       <c r="E34" t="n">
-        <v>2.0611536734319223E-6</v>
+        <v>1.8921492708785026E-6</v>
       </c>
       <c r="F34" t="n">
-        <v>8.528179471830142E-4</v>
+        <v>7.828910952901538E-4</v>
       </c>
       <c r="G34" t="n">
-        <v>4.659029119725073</v>
+        <v>4.73811444823297</v>
       </c>
     </row>
     <row r="35">
@@ -1676,22 +1763,22 @@
         <v>39</v>
       </c>
       <c r="B35" t="n">
-        <v>-7.4975182633792965</v>
+        <v>-7.498958905521076</v>
       </c>
       <c r="C35" t="n">
         <v>3.3386371238876107</v>
       </c>
       <c r="D35" t="n">
-        <v>-4.821106380055694</v>
+        <v>-4.838481152843095</v>
       </c>
       <c r="E35" t="n">
-        <v>2.976008454740612E-6</v>
+        <v>2.75427145450959E-6</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0011951299835596563</v>
+        <v>0.0011060830129374687</v>
       </c>
       <c r="G35" t="n">
-        <v>4.324510779072726</v>
+        <v>4.3959475994316275</v>
       </c>
     </row>
     <row r="36">
@@ -1699,22 +1786,22 @@
         <v>40</v>
       </c>
       <c r="B36" t="n">
-        <v>-5.002514638664704</v>
+        <v>-5.0094595463254254</v>
       </c>
       <c r="C36" t="n">
         <v>6.426828373841614</v>
       </c>
       <c r="D36" t="n">
-        <v>-4.6917593971664076</v>
+        <v>-4.712957896992414</v>
       </c>
       <c r="E36" t="n">
-        <v>5.263565521923923E-6</v>
+        <v>4.7975716173983175E-6</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0020533921038956926</v>
+        <v>0.001871601224684475</v>
       </c>
       <c r="G36" t="n">
-        <v>3.8058700020759098</v>
+        <v>3.8908088408008137</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1809,22 @@
         <v>41</v>
       </c>
       <c r="B37" t="n">
-        <v>1.7182933167282675</v>
+        <v>1.7163299456575578</v>
       </c>
       <c r="C37" t="n">
         <v>0.16593042847026887</v>
       </c>
       <c r="D37" t="n">
-        <v>4.630850552779134</v>
+        <v>4.640678020501302</v>
       </c>
       <c r="E37" t="n">
-        <v>6.858561709068895E-6</v>
+        <v>6.572922156019557E-6</v>
       </c>
       <c r="F37" t="n">
-        <v>0.002601300043767408</v>
+        <v>0.0024929633088414172</v>
       </c>
       <c r="G37" t="n">
-        <v>3.5654243987017438</v>
+        <v>3.604589778581829</v>
       </c>
     </row>
     <row r="38">
@@ -1745,22 +1832,22 @@
         <v>42</v>
       </c>
       <c r="B38" t="n">
-        <v>-4.862379925814212</v>
+        <v>-4.872495073122785</v>
       </c>
       <c r="C38" t="n">
         <v>9.413990993193083</v>
       </c>
       <c r="D38" t="n">
-        <v>-4.602470191610394</v>
+        <v>-4.623838353222469</v>
       </c>
       <c r="E38" t="n">
-        <v>7.752255070655284E-6</v>
+        <v>7.069657620573696E-6</v>
       </c>
       <c r="F38" t="n">
-        <v>0.002860791641479115</v>
+        <v>0.0026088947338192767</v>
       </c>
       <c r="G38" t="n">
-        <v>3.454225416706457</v>
+        <v>3.5384010220174904</v>
       </c>
     </row>
     <row r="39">
@@ -1768,22 +1855,22 @@
         <v>43</v>
       </c>
       <c r="B39" t="n">
-        <v>-5.2383884233512035</v>
+        <v>-5.246683696797074</v>
       </c>
       <c r="C39" t="n">
         <v>7.90709663968516</v>
       </c>
       <c r="D39" t="n">
-        <v>-4.580101917829848</v>
+        <v>-4.600753158381522</v>
       </c>
       <c r="E39" t="n">
-        <v>8.534713539206944E-6</v>
+        <v>7.80978435671927E-6</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003066657333271885</v>
+        <v>0.0028061788317538133</v>
       </c>
       <c r="G39" t="n">
-        <v>3.366959578524183</v>
+        <v>3.447969346024152</v>
       </c>
     </row>
     <row r="40">
@@ -1791,22 +1878,22 @@
         <v>44</v>
       </c>
       <c r="B40" t="n">
-        <v>-2.5707920378424807</v>
+        <v>-2.568790532605811</v>
       </c>
       <c r="C40" t="n">
         <v>2.2644694757892525</v>
       </c>
       <c r="D40" t="n">
-        <v>-4.573264510412771</v>
+        <v>-4.58505534197002</v>
       </c>
       <c r="E40" t="n">
-        <v>8.788707898236652E-6</v>
+        <v>8.355141484219869E-6</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0030769491703211086</v>
+        <v>0.002925156457065079</v>
       </c>
       <c r="G40" t="n">
-        <v>3.3403511319266617</v>
+        <v>3.3866785083592834</v>
       </c>
     </row>
     <row r="41">
@@ -1814,22 +1901,22 @@
         <v>45</v>
       </c>
       <c r="B41" t="n">
-        <v>-5.506308389223028</v>
+        <v>-5.510397768389689</v>
       </c>
       <c r="C41" t="n">
         <v>6.097122758257684</v>
       </c>
       <c r="D41" t="n">
-        <v>-4.558733566835764</v>
+        <v>-4.576679176267651</v>
       </c>
       <c r="E41" t="n">
-        <v>9.352904321665716E-6</v>
+        <v>8.660967022819247E-6</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0031926138902005925</v>
+        <v>0.00295642109323935</v>
       </c>
       <c r="G41" t="n">
-        <v>3.283906136907902</v>
+        <v>3.3540416084759173</v>
       </c>
     </row>
     <row r="42">
@@ -1837,22 +1924,22 @@
         <v>46</v>
       </c>
       <c r="B42" t="n">
-        <v>-5.180181049149462</v>
+        <v>-5.186231596943515</v>
       </c>
       <c r="C42" t="n">
         <v>3.497176870608888</v>
       </c>
       <c r="D42" t="n">
-        <v>-4.550583417863218</v>
+        <v>-4.570781911994467</v>
       </c>
       <c r="E42" t="n">
-        <v>9.684457018024503E-6</v>
+        <v>8.882723924253072E-6</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0032251603932708915</v>
+        <v>0.0029581637185793035</v>
       </c>
       <c r="G42" t="n">
-        <v>3.2523089148314686</v>
+        <v>3.331091577814721</v>
       </c>
     </row>
     <row r="43">
@@ -1860,22 +1947,22 @@
         <v>47</v>
       </c>
       <c r="B43" t="n">
-        <v>-2.87066486764962</v>
+        <v>-2.872406633292891</v>
       </c>
       <c r="C43" t="n">
         <v>2.8892527033325535</v>
       </c>
       <c r="D43" t="n">
-        <v>-4.519552226899758</v>
+        <v>-4.537276688852607</v>
       </c>
       <c r="E43" t="n">
-        <v>1.1053471348307465E-5</v>
+        <v>1.025024584392049E-5</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0035934308997569078</v>
+        <v>0.003332306113164056</v>
       </c>
       <c r="G43" t="n">
-        <v>3.132411885430324</v>
+        <v>3.2011427311893854</v>
       </c>
     </row>
     <row r="44">
@@ -1883,22 +1970,22 @@
         <v>48</v>
       </c>
       <c r="B44" t="n">
-        <v>1.4584912761836577</v>
+        <v>1.4599921295932865</v>
       </c>
       <c r="C44" t="n">
         <v>0.49814000897277144</v>
       </c>
       <c r="D44" t="n">
-        <v>4.501534941663682</v>
+        <v>4.520669106287557</v>
       </c>
       <c r="E44" t="n">
-        <v>1.1931903181157806E-5</v>
+        <v>1.1001121710576996E-5</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0037887954891983413</v>
+        <v>0.0034932399031678673</v>
       </c>
       <c r="G44" t="n">
-        <v>3.063094468418713</v>
+        <v>3.1370098807824647</v>
       </c>
     </row>
     <row r="45">
@@ -1906,22 +1993,22 @@
         <v>49</v>
       </c>
       <c r="B45" t="n">
-        <v>-3.426006655879932</v>
+        <v>-3.426881228762002</v>
       </c>
       <c r="C45" t="n">
         <v>6.505264525932285</v>
       </c>
       <c r="D45" t="n">
-        <v>-4.490686609588525</v>
+        <v>-4.507110080999375</v>
       </c>
       <c r="E45" t="n">
-        <v>1.2492809046433656E-5</v>
+        <v>1.1653155020281054E-5</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0038623007770400195</v>
+        <v>0.0035719912496341016</v>
       </c>
       <c r="G45" t="n">
-        <v>3.0214635448064477</v>
+        <v>3.0847871360071952</v>
       </c>
     </row>
     <row r="46">
@@ -1929,22 +2016,22 @@
         <v>50</v>
       </c>
       <c r="B46" t="n">
-        <v>-4.7791434443321466</v>
+        <v>-4.78357113984107</v>
       </c>
       <c r="C46" t="n">
         <v>5.244802324211332</v>
       </c>
       <c r="D46" t="n">
-        <v>-4.4862556752816225</v>
+        <v>-4.50471069581536</v>
       </c>
       <c r="E46" t="n">
-        <v>1.2729129556672102E-5</v>
+        <v>1.1772345556872315E-5</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0038623007770400195</v>
+        <v>0.0035719912496341016</v>
       </c>
       <c r="G46" t="n">
-        <v>3.004482514454166</v>
+        <v>3.0755587795487003</v>
       </c>
     </row>
     <row r="47">
@@ -1952,22 +2039,22 @@
         <v>51</v>
       </c>
       <c r="B47" t="n">
-        <v>1.2229279707425995</v>
+        <v>1.2209534833505726</v>
       </c>
       <c r="C47" t="n">
         <v>0.09542250522774545</v>
       </c>
       <c r="D47" t="n">
-        <v>4.380078910554373</v>
+        <v>4.387225210233834</v>
       </c>
       <c r="E47" t="n">
-        <v>1.9864437565117055E-5</v>
+        <v>1.9282943924544535E-5</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0058962832720458325</v>
+        <v>0.005723680790124589</v>
       </c>
       <c r="G47" t="n">
-        <v>2.601563233103821</v>
+        <v>2.6284727079285197</v>
       </c>
     </row>
     <row r="48">
@@ -1975,22 +2062,22 @@
         <v>52</v>
       </c>
       <c r="B48" t="n">
-        <v>1.9504084121627403</v>
+        <v>1.9515950536610691</v>
       </c>
       <c r="C48" t="n">
         <v>0.6071322379896419</v>
       </c>
       <c r="D48" t="n">
-        <v>4.339904188426584</v>
+        <v>4.356810926472996</v>
       </c>
       <c r="E48" t="n">
-        <v>2.346003921557193E-5</v>
+        <v>2.187670905920375E-5</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0068153909670089175</v>
+        <v>0.006355416712646127</v>
       </c>
       <c r="G48" t="n">
-        <v>2.4511213854483422</v>
+        <v>2.514270246313414</v>
       </c>
     </row>
     <row r="49">
@@ -1998,22 +2085,22 @@
         <v>53</v>
       </c>
       <c r="B49" t="n">
-        <v>2.1690783218372607</v>
+        <v>2.1681842969054705</v>
       </c>
       <c r="C49" t="n">
         <v>0.4204135267547167</v>
       </c>
       <c r="D49" t="n">
-        <v>4.322172669207503</v>
+        <v>4.3348306011152005</v>
       </c>
       <c r="E49" t="n">
-        <v>2.523849811008059E-5</v>
+        <v>2.3956256198548015E-5</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0071793011082300065</v>
+        <v>0.0068145567111453035</v>
       </c>
       <c r="G49" t="n">
-        <v>2.385076777652724</v>
+        <v>2.432133474890451</v>
       </c>
     </row>
     <row r="50">
@@ -2021,22 +2108,22 @@
         <v>54</v>
       </c>
       <c r="B50" t="n">
-        <v>-5.28831551028089</v>
+        <v>-5.290525566872536</v>
       </c>
       <c r="C50" t="n">
         <v>2.16370624140571</v>
       </c>
       <c r="D50" t="n">
-        <v>-4.3022520267722575</v>
+        <v>-4.318041248955968</v>
       </c>
       <c r="E50" t="n">
-        <v>2.7390688744513936E-5</v>
+        <v>2.56710816758559E-5</v>
       </c>
       <c r="F50" t="n">
-        <v>0.007559313072465796</v>
+        <v>0.006953907402841268</v>
       </c>
       <c r="G50" t="n">
-        <v>2.3111382381907966</v>
+        <v>2.36961968012392</v>
       </c>
     </row>
     <row r="51">
@@ -2044,22 +2131,22 @@
         <v>55</v>
       </c>
       <c r="B51" t="n">
-        <v>-5.145864717066409</v>
+        <v>-5.15244378078306</v>
       </c>
       <c r="C51" t="n">
         <v>4.285061978627885</v>
       </c>
       <c r="D51" t="n">
-        <v>-4.297500309645013</v>
+        <v>-4.316589343443357</v>
       </c>
       <c r="E51" t="n">
-        <v>2.792945888035033E-5</v>
+        <v>2.5824783113218517E-5</v>
       </c>
       <c r="F51" t="n">
-        <v>0.007559313072465796</v>
+        <v>0.006953907402841268</v>
       </c>
       <c r="G51" t="n">
-        <v>2.293542213824864</v>
+        <v>2.3642228078197842</v>
       </c>
     </row>
     <row r="52">
@@ -2067,22 +2154,22 @@
         <v>56</v>
       </c>
       <c r="B52" t="n">
-        <v>-4.811060308555736</v>
+        <v>-4.819534950051663</v>
       </c>
       <c r="C52" t="n">
         <v>7.5550024166513845</v>
       </c>
       <c r="D52" t="n">
-        <v>-4.294841755591369</v>
+        <v>-4.3151875118108585</v>
       </c>
       <c r="E52" t="n">
-        <v>2.82353132192585E-5</v>
+        <v>2.597402061995786E-5</v>
       </c>
       <c r="F52" t="n">
-        <v>0.007559313072465796</v>
+        <v>0.006953907402841268</v>
       </c>
       <c r="G52" t="n">
-        <v>2.283704205168581</v>
+        <v>2.3590134529660425</v>
       </c>
     </row>
     <row r="53">
@@ -2090,22 +2177,22 @@
         <v>57</v>
       </c>
       <c r="B53" t="n">
-        <v>-5.237838114301014</v>
+        <v>-5.243991408170942</v>
       </c>
       <c r="C53" t="n">
         <v>6.57843124470044</v>
       </c>
       <c r="D53" t="n">
-        <v>-4.277420468830213</v>
+        <v>-4.294835878439284</v>
       </c>
       <c r="E53" t="n">
-        <v>3.0320436566128996E-5</v>
+        <v>2.8236001493191535E-5</v>
       </c>
       <c r="F53" t="n">
-        <v>0.007961446939883179</v>
+        <v>0.007414122392077639</v>
       </c>
       <c r="G53" t="n">
-        <v>2.2193583152146292</v>
+        <v>2.283538410300128</v>
       </c>
     </row>
     <row r="54">
@@ -2113,22 +2200,22 @@
         <v>58</v>
       </c>
       <c r="B54" t="n">
-        <v>-3.6944839684712223</v>
+        <v>-3.698157448735208</v>
       </c>
       <c r="C54" t="n">
         <v>2.85639883127718</v>
       </c>
       <c r="D54" t="n">
-        <v>-4.270282194607849</v>
+        <v>-4.287959611630091</v>
       </c>
       <c r="E54" t="n">
-        <v>3.121673616689551E-5</v>
+        <v>2.9042063564712454E-5</v>
       </c>
       <c r="F54" t="n">
-        <v>0.008042138030618703</v>
+        <v>0.00748189313042611</v>
       </c>
       <c r="G54" t="n">
-        <v>2.193054057593022</v>
+        <v>2.25810255940843</v>
       </c>
     </row>
     <row r="55">
@@ -2136,22 +2223,22 @@
         <v>59</v>
       </c>
       <c r="B55" t="n">
-        <v>-5.151310887255437</v>
+        <v>-5.159414798773112</v>
       </c>
       <c r="C55" t="n">
         <v>7.455793422383382</v>
       </c>
       <c r="D55" t="n">
-        <v>-4.248913588494228</v>
+        <v>-4.267021222605451</v>
       </c>
       <c r="E55" t="n">
-        <v>3.405407382423513E-5</v>
+        <v>3.163459600107644E-5</v>
       </c>
       <c r="F55" t="n">
-        <v>0.008610635629557528</v>
+        <v>0.007998866181457365</v>
       </c>
       <c r="G55" t="n">
-        <v>2.1145243958618494</v>
+        <v>2.180852872815798</v>
       </c>
     </row>
     <row r="56">
@@ -2159,22 +2246,22 @@
         <v>60</v>
       </c>
       <c r="B56" t="n">
-        <v>-4.344208543700827</v>
+        <v>-4.3507317595112</v>
       </c>
       <c r="C56" t="n">
         <v>7.35829223437057</v>
       </c>
       <c r="D56" t="n">
-        <v>-4.2311746151079985</v>
+        <v>-4.250625896840869</v>
       </c>
       <c r="E56" t="n">
-        <v>3.659547984647655E-5</v>
+        <v>3.381791377380094E-5</v>
       </c>
       <c r="F56" t="n">
-        <v>0.009084994214978015</v>
+        <v>0.008395450812135965</v>
       </c>
       <c r="G56" t="n">
-        <v>2.0495765331762463</v>
+        <v>2.1205781488299653</v>
       </c>
     </row>
     <row r="57">
@@ -2182,22 +2269,22 @@
         <v>61</v>
       </c>
       <c r="B57" t="n">
-        <v>3.2439043726020014</v>
+        <v>3.244035384588255</v>
       </c>
       <c r="C57" t="n">
         <v>1.0149938604568476</v>
       </c>
       <c r="D57" t="n">
-        <v>4.209699111020542</v>
+        <v>4.222652337234656</v>
       </c>
       <c r="E57" t="n">
-        <v>3.991548853367574E-5</v>
+        <v>3.788006937883891E-5</v>
       </c>
       <c r="F57" t="n">
-        <v>0.009732251436407297</v>
+        <v>0.009235972630333331</v>
       </c>
       <c r="G57" t="n">
-        <v>1.971243796756097</v>
+        <v>2.01817298904621</v>
       </c>
     </row>
     <row r="58">
@@ -2205,22 +2292,22 @@
         <v>62</v>
       </c>
       <c r="B58" t="n">
-        <v>-5.0760505167335115</v>
+        <v>-5.0796012012273755</v>
       </c>
       <c r="C58" t="n">
         <v>4.998079489427877</v>
       </c>
       <c r="D58" t="n">
-        <v>-4.199638392991503</v>
+        <v>-4.215940847498695</v>
       </c>
       <c r="E58" t="n">
-        <v>4.15681723861605E-5</v>
+        <v>3.8921964116583764E-5</v>
       </c>
       <c r="F58" t="n">
-        <v>0.009957400451940972</v>
+        <v>0.009323517509611134</v>
       </c>
       <c r="G58" t="n">
-        <v>1.9346586108262223</v>
+        <v>1.9936854703696412</v>
       </c>
     </row>
     <row r="59">
@@ -2228,22 +2315,22 @@
         <v>63</v>
       </c>
       <c r="B59" t="n">
-        <v>-5.540563049050318</v>
+        <v>-5.542569668720657</v>
       </c>
       <c r="C59" t="n">
         <v>2.7619383474463612</v>
       </c>
       <c r="D59" t="n">
-        <v>-4.164502318927286</v>
+        <v>-4.1801302804202844</v>
       </c>
       <c r="E59" t="n">
-        <v>4.786869457668666E-5</v>
+        <v>4.4961152865457724E-5</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01126895096120827</v>
+        <v>0.010584475538361376</v>
       </c>
       <c r="G59" t="n">
-        <v>1.8074491578315541</v>
+        <v>1.8635640127647655</v>
       </c>
     </row>
     <row r="60">
@@ -2251,22 +2338,22 @@
         <v>64</v>
       </c>
       <c r="B60" t="n">
-        <v>-3.533741033462177</v>
+        <v>-3.5343288124145857</v>
       </c>
       <c r="C60" t="n">
         <v>9.133915678053006</v>
       </c>
       <c r="D60" t="n">
-        <v>-4.159908244816136</v>
+        <v>-4.174584181682925</v>
       </c>
       <c r="E60" t="n">
-        <v>4.8757040088142306E-5</v>
+        <v>4.597311355690825E-5</v>
       </c>
       <c r="F60" t="n">
-        <v>0.011283536023110087</v>
+        <v>0.010639269364508904</v>
       </c>
       <c r="G60" t="n">
-        <v>1.7908810052880373</v>
+        <v>1.843492731381219</v>
       </c>
     </row>
     <row r="61">
@@ -2274,22 +2361,22 @@
         <v>65</v>
       </c>
       <c r="B61" t="n">
-        <v>-5.025267445068255</v>
+        <v>-5.034194589292567</v>
       </c>
       <c r="C61" t="n">
         <v>6.800932082574817</v>
       </c>
       <c r="D61" t="n">
-        <v>-4.097825786461454</v>
+        <v>-4.116372581506451</v>
       </c>
       <c r="E61" t="n">
-        <v>6.241868104127466E-5</v>
+        <v>5.7995069054070306E-5</v>
       </c>
       <c r="F61" t="n">
-        <v>0.014204411182292735</v>
+        <v>0.013197744547737932</v>
       </c>
       <c r="G61" t="n">
-        <v>1.5684578250206904</v>
+        <v>1.6341431615245199</v>
       </c>
     </row>
     <row r="62">
@@ -2297,22 +2384,22 @@
         <v>66</v>
       </c>
       <c r="B62" t="n">
-        <v>1.5070728948673229</v>
+        <v>1.505791901204861</v>
       </c>
       <c r="C62" t="n">
         <v>0.7651742004786756</v>
       </c>
       <c r="D62" t="n">
-        <v>4.0904848506766</v>
+        <v>4.1007829005157</v>
       </c>
       <c r="E62" t="n">
-        <v>6.425703634888964E-5</v>
+        <v>6.169243588590116E-5</v>
       </c>
       <c r="F62" t="n">
-        <v>0.014383042201766217</v>
+        <v>0.013751664025347986</v>
       </c>
       <c r="G62" t="n">
-        <v>1.5423392840319545</v>
+        <v>1.5784871417845752</v>
       </c>
     </row>
     <row r="63">
@@ -2320,22 +2407,22 @@
         <v>67</v>
       </c>
       <c r="B63" t="n">
-        <v>-3.6977000152371025</v>
+        <v>-3.704688049516925</v>
       </c>
       <c r="C63" t="n">
         <v>6.432572097258127</v>
       </c>
       <c r="D63" t="n">
-        <v>-4.079127630450838</v>
+        <v>-4.097725490025404</v>
       </c>
       <c r="E63" t="n">
-        <v>6.720331882861271E-5</v>
+        <v>6.244347221118904E-5</v>
       </c>
       <c r="F63" t="n">
-        <v>0.014799905085256094</v>
+        <v>0.013751664025347986</v>
       </c>
       <c r="G63" t="n">
-        <v>1.5020071508614494</v>
+        <v>1.5675924076473322</v>
       </c>
     </row>
     <row r="64">
@@ -2343,22 +2430,22 @@
         <v>68</v>
       </c>
       <c r="B64" t="n">
-        <v>-4.585427372489858</v>
+        <v>-4.593494109818955</v>
       </c>
       <c r="C64" t="n">
         <v>7.534868729509415</v>
       </c>
       <c r="D64" t="n">
-        <v>-4.0688018524359135</v>
+        <v>-4.088112576585859</v>
       </c>
       <c r="E64" t="n">
-        <v>6.99935006825107E-5</v>
+        <v>6.486209543831954E-5</v>
       </c>
       <c r="F64" t="n">
-        <v>0.015169702513000018</v>
+        <v>0.014057572239917698</v>
       </c>
       <c r="G64" t="n">
-        <v>1.4654182184885043</v>
+        <v>1.5333815025358426</v>
       </c>
     </row>
     <row r="65">
@@ -2366,22 +2453,22 @@
         <v>69</v>
       </c>
       <c r="B65" t="n">
-        <v>-4.245345639357367</v>
+        <v>-4.2532266017737905</v>
       </c>
       <c r="C65" t="n">
         <v>7.279443520829554</v>
       </c>
       <c r="D65" t="n">
-        <v>-4.031699153716943</v>
+        <v>-4.0491356666233616</v>
       </c>
       <c r="E65" t="n">
-        <v>8.095893773718591E-5</v>
+        <v>7.561606115496132E-5</v>
       </c>
       <c r="F65" t="n">
-        <v>0.017272083372867758</v>
+        <v>0.01613221404702878</v>
       </c>
       <c r="G65" t="n">
-        <v>1.3345793820296343</v>
+        <v>1.3953484154359979</v>
       </c>
     </row>
     <row r="66">
@@ -2389,22 +2476,22 @@
         <v>70</v>
       </c>
       <c r="B66" t="n">
-        <v>-3.697226324256792</v>
+        <v>-3.6942431437490675</v>
       </c>
       <c r="C66" t="n">
         <v>2.003738262533463</v>
       </c>
       <c r="D66" t="n">
-        <v>-4.021922537236219</v>
+        <v>-4.03177216320088</v>
       </c>
       <c r="E66" t="n">
-        <v>8.411014978119814E-5</v>
+        <v>8.093585365333604E-5</v>
       </c>
       <c r="F66" t="n">
-        <v>0.017668307463268914</v>
+        <v>0.0170015099351177</v>
       </c>
       <c r="G66" t="n">
-        <v>1.3002684302482974</v>
+        <v>1.334209423724399</v>
       </c>
     </row>
     <row r="67">
@@ -2412,22 +2499,22 @@
         <v>71</v>
       </c>
       <c r="B67" t="n">
-        <v>-2.8394039236364956</v>
+        <v>-2.843821512085075</v>
       </c>
       <c r="C67" t="n">
         <v>2.263584762061462</v>
       </c>
       <c r="D67" t="n">
-        <v>-3.9976511021953374</v>
+        <v>-4.016446698533378</v>
       </c>
       <c r="E67" t="n">
-        <v>9.244629501449957E-5</v>
+        <v>8.59258520673926E-5</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0191251774564845</v>
+        <v>0.01777623612315422</v>
       </c>
       <c r="G67" t="n">
-        <v>1.215387016355061</v>
+        <v>1.2804275862439622</v>
       </c>
     </row>
     <row r="68">
@@ -2435,22 +2522,22 @@
         <v>72</v>
       </c>
       <c r="B68" t="n">
-        <v>-3.1514572941011565</v>
+        <v>-3.1520045887444827</v>
       </c>
       <c r="C68" t="n">
         <v>4.1462796871206775</v>
       </c>
       <c r="D68" t="n">
-        <v>-3.96945251544151</v>
+        <v>-3.9835418902653856</v>
       </c>
       <c r="E68" t="n">
-        <v>1.0311906597741704E-4</v>
+        <v>9.764775578451735E-5</v>
       </c>
       <c r="F68" t="n">
-        <v>0.021014742191875407</v>
+        <v>0.019899738171370147</v>
       </c>
       <c r="G68" t="n">
-        <v>1.1173084813873482</v>
+        <v>1.165529359559189</v>
       </c>
     </row>
     <row r="69">
@@ -2458,22 +2545,22 @@
         <v>73</v>
       </c>
       <c r="B69" t="n">
-        <v>-3.1571843020002226</v>
+        <v>-3.1567202962719634</v>
       </c>
       <c r="C69" t="n">
         <v>6.711181763745031</v>
       </c>
       <c r="D69" t="n">
-        <v>-3.9404692683733433</v>
+        <v>-3.9532052122677594</v>
       </c>
       <c r="E69" t="n">
-        <v>1.1530495034787142E-4</v>
+        <v>1.0979046932357842E-4</v>
       </c>
       <c r="F69" t="n">
-        <v>0.02315255576543877</v>
+        <v>0.022045280413884406</v>
       </c>
       <c r="G69" t="n">
-        <v>1.0171042988397945</v>
+        <v>1.0602962363947555</v>
       </c>
     </row>
     <row r="70">
@@ -2481,22 +2568,22 @@
         <v>74</v>
       </c>
       <c r="B70" t="n">
-        <v>-4.701984197786209</v>
+        <v>-4.194943387446474</v>
       </c>
       <c r="C70" t="n">
-        <v>4.178383669818642</v>
+        <v>4.834590352139486</v>
       </c>
       <c r="D70" t="n">
-        <v>-3.927646376838851</v>
+        <v>-3.9445159256292364</v>
       </c>
       <c r="E70" t="n">
-        <v>1.2112252743535622E-4</v>
+        <v>1.1352489542292124E-4</v>
       </c>
       <c r="F70" t="n">
-        <v>0.023710359230724464</v>
+        <v>0.02222518638997848</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9729673628178661</v>
+        <v>1.030278184584077</v>
       </c>
     </row>
     <row r="71">
@@ -2504,22 +2591,22 @@
         <v>75</v>
       </c>
       <c r="B71" t="n">
-        <v>-4.189522219735682</v>
+        <v>-4.707336364880686</v>
       </c>
       <c r="C71" t="n">
-        <v>4.834590352139486</v>
+        <v>4.178383669818642</v>
       </c>
       <c r="D71" t="n">
-        <v>-3.9267145903538925</v>
+        <v>-3.943562507809439</v>
       </c>
       <c r="E71" t="n">
-        <v>1.2155596500298174E-4</v>
+        <v>1.1394192524523904E-4</v>
       </c>
       <c r="F71" t="n">
-        <v>0.023710359230724464</v>
+        <v>0.02222518638997848</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9697648049528693</v>
+        <v>1.026987862524721</v>
       </c>
     </row>
     <row r="72">
@@ -2527,22 +2614,22 @@
         <v>76</v>
       </c>
       <c r="B72" t="n">
-        <v>-4.084394468472527</v>
+        <v>-4.092077781149355</v>
       </c>
       <c r="C72" t="n">
         <v>6.400497352547793</v>
       </c>
       <c r="D72" t="n">
-        <v>-3.91652311475537</v>
+        <v>-3.935770344987575</v>
       </c>
       <c r="E72" t="n">
-        <v>1.2639396796466785E-4</v>
+        <v>1.1740528016441316E-4</v>
       </c>
       <c r="F72" t="n">
-        <v>0.024099121692948765</v>
+        <v>0.02257819289246334</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9347781528546744</v>
+        <v>1.0001214016760525</v>
       </c>
     </row>
     <row r="73">
@@ -2550,22 +2637,22 @@
         <v>77</v>
       </c>
       <c r="B73" t="n">
-        <v>-4.8937087968979345</v>
+        <v>-4.898316415695568</v>
       </c>
       <c r="C73" t="n">
         <v>4.773004901122188</v>
       </c>
       <c r="D73" t="n">
-        <v>-3.915110107916026</v>
+        <v>-3.9314578039950856</v>
       </c>
       <c r="E73" t="n">
-        <v>1.2707900702301972E-4</v>
+        <v>1.1936484496646082E-4</v>
       </c>
       <c r="F73" t="n">
-        <v>0.024099121692948765</v>
+        <v>0.022636216571834112</v>
       </c>
       <c r="G73" t="n">
-        <v>0.929933406145425</v>
+        <v>0.9852713708052043</v>
       </c>
     </row>
     <row r="74">
@@ -2573,22 +2660,22 @@
         <v>78</v>
       </c>
       <c r="B74" t="n">
-        <v>-4.3149272724083385</v>
+        <v>-4.321080252683708</v>
       </c>
       <c r="C74" t="n">
         <v>6.027545255956727</v>
       </c>
       <c r="D74" t="n">
-        <v>-3.861462787511478</v>
+        <v>-3.878834895448214</v>
       </c>
       <c r="E74" t="n">
-        <v>1.5585869012550718E-4</v>
+        <v>1.459224652584072E-4</v>
       </c>
       <c r="F74" t="n">
-        <v>0.029151980205118836</v>
+        <v>0.027293497816962903</v>
       </c>
       <c r="G74" t="n">
-        <v>0.7470799406948974</v>
+        <v>0.8051664531238707</v>
       </c>
     </row>
     <row r="75">
@@ -2596,22 +2683,22 @@
         <v>79</v>
       </c>
       <c r="B75" t="n">
-        <v>1.4353163603161145</v>
+        <v>1.4368288443031618</v>
       </c>
       <c r="C75" t="n">
         <v>0.7264943059206148</v>
       </c>
       <c r="D75" t="n">
-        <v>3.8575201302858018</v>
+        <v>3.874444999600809</v>
       </c>
       <c r="E75" t="n">
-        <v>1.582014815254415E-4</v>
+        <v>1.4837497039769853E-4</v>
       </c>
       <c r="F75" t="n">
-        <v>0.029190311199302408</v>
+        <v>0.027377187105542915</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7337253395992072</v>
+        <v>0.7902338861267388</v>
       </c>
     </row>
     <row r="76">
@@ -2619,22 +2706,22 @@
         <v>80</v>
       </c>
       <c r="B76" t="n">
-        <v>-2.808042048297932</v>
+        <v>-2.8103210121154665</v>
       </c>
       <c r="C76" t="n">
         <v>3.206039947714101</v>
       </c>
       <c r="D76" t="n">
-        <v>-3.8466115214542014</v>
+        <v>-3.8621517730030726</v>
       </c>
       <c r="E76" t="n">
-        <v>1.6485889764572775E-4</v>
+        <v>1.5545270997181315E-4</v>
       </c>
       <c r="F76" t="n">
-        <v>0.030013111846063558</v>
+        <v>0.02830068402606849</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6968355056035191</v>
+        <v>0.7484932374369668</v>
       </c>
     </row>
     <row r="77">
@@ -2642,22 +2729,22 @@
         <v>81</v>
       </c>
       <c r="B77" t="n">
-        <v>1.3525049437172916</v>
+        <v>1.3523485652149456</v>
       </c>
       <c r="C77" t="n">
         <v>0.3165608407387364</v>
       </c>
       <c r="D77" t="n">
-        <v>3.8391708304579506</v>
+        <v>3.851657888024677</v>
       </c>
       <c r="E77" t="n">
-        <v>1.6955139060070046E-4</v>
+        <v>1.6174681198222022E-4</v>
       </c>
       <c r="F77" t="n">
-        <v>0.030461245885025842</v>
+        <v>0.029059091721121512</v>
       </c>
       <c r="G77" t="n">
-        <v>0.6717237167574428</v>
+        <v>0.7129504783773832</v>
       </c>
     </row>
     <row r="78">
@@ -2665,22 +2752,22 @@
         <v>82</v>
       </c>
       <c r="B78" t="n">
-        <v>-3.8131034615295816</v>
+        <v>-3.8185367696194947</v>
       </c>
       <c r="C78" t="n">
         <v>2.285569640313896</v>
       </c>
       <c r="D78" t="n">
-        <v>-3.8283501978619685</v>
+        <v>-3.8456241334228842</v>
       </c>
       <c r="E78" t="n">
-        <v>1.766020069790493E-4</v>
+        <v>1.6547446520720057E-4</v>
       </c>
       <c r="F78" t="n">
-        <v>0.031315893549245966</v>
+        <v>0.029342705817391124</v>
       </c>
       <c r="G78" t="n">
-        <v>0.6352780907132969</v>
+        <v>0.692551069066158</v>
       </c>
     </row>
     <row r="79">
@@ -2688,22 +2775,22 @@
         <v>83</v>
       </c>
       <c r="B79" t="n">
-        <v>1.1878313007861745</v>
+        <v>-2.5548725668165178</v>
       </c>
       <c r="C79" t="n">
-        <v>0.12093446770723251</v>
+        <v>1.9535238960655967</v>
       </c>
       <c r="D79" t="n">
-        <v>3.795283763293305</v>
+        <v>-3.800298660977322</v>
       </c>
       <c r="E79" t="n">
-        <v>1.9991023010106602E-4</v>
+        <v>1.9619696075280022E-4</v>
       </c>
       <c r="F79" t="n">
-        <v>0.034994542074358405</v>
+        <v>0.03404911466600734</v>
       </c>
       <c r="G79" t="n">
-        <v>0.5244439623176911</v>
+        <v>0.5401747222977074</v>
       </c>
     </row>
     <row r="80">
@@ -2711,22 +2798,22 @@
         <v>84</v>
       </c>
       <c r="B80" t="n">
-        <v>-2.553995940345129</v>
+        <v>1.1852517391907538</v>
       </c>
       <c r="C80" t="n">
-        <v>1.9535238960655967</v>
+        <v>0.12093446770723251</v>
       </c>
       <c r="D80" t="n">
-        <v>-3.786333438805566</v>
+        <v>3.799202385541601</v>
       </c>
       <c r="E80" t="n">
-        <v>2.0670351930623888E-4</v>
+        <v>1.9700308031452907E-4</v>
       </c>
       <c r="F80" t="n">
-        <v>0.035725694336802345</v>
+        <v>0.03404911466600734</v>
       </c>
       <c r="G80" t="n">
-        <v>0.49458368657529395</v>
+        <v>0.5365081600017954</v>
       </c>
     </row>
     <row r="81">
@@ -2734,22 +2821,22 @@
         <v>85</v>
       </c>
       <c r="B81" t="n">
-        <v>-2.197906938937102</v>
+        <v>-2.1986294618904756</v>
       </c>
       <c r="C81" t="n">
         <v>2.660741255416903</v>
       </c>
       <c r="D81" t="n">
-        <v>-3.7666010761911104</v>
+        <v>-3.780450087737302</v>
       </c>
       <c r="E81" t="n">
-        <v>2.224604627135877E-4</v>
+        <v>2.112874697599835E-4</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0379551148905782</v>
+        <v>0.03566050925475563</v>
       </c>
       <c r="G81" t="n">
-        <v>0.42896335730895707</v>
+        <v>0.4739287197902904</v>
       </c>
     </row>
     <row r="82">
@@ -2757,22 +2844,22 @@
         <v>86</v>
       </c>
       <c r="B82" t="n">
-        <v>-4.127011784042463</v>
+        <v>-4.133972838672674</v>
       </c>
       <c r="C82" t="n">
         <v>7.603618654744359</v>
       </c>
       <c r="D82" t="n">
-        <v>-3.7633512503990443</v>
+        <v>-3.7801170334287697</v>
       </c>
       <c r="E82" t="n">
-        <v>2.2516217270666722E-4</v>
+        <v>2.115498205386851E-4</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0379551148905782</v>
+        <v>0.03566050925475563</v>
       </c>
       <c r="G82" t="n">
-        <v>0.4181839150636373</v>
+        <v>0.47281963636363145</v>
       </c>
     </row>
     <row r="83">
@@ -2780,22 +2867,183 @@
         <v>87</v>
       </c>
       <c r="B83" t="n">
-        <v>-4.192939823448873</v>
+        <v>-4.196438354434217</v>
       </c>
       <c r="C83" t="n">
         <v>6.254894680423377</v>
       </c>
       <c r="D83" t="n">
-        <v>-3.724460518750565</v>
+        <v>-3.738248407049953</v>
       </c>
       <c r="E83" t="n">
-        <v>2.599978684053658E-4</v>
+        <v>2.471022412738327E-4</v>
       </c>
       <c r="F83" t="n">
-        <v>0.04329281579520566</v>
+        <v>0.0411455366140599</v>
       </c>
       <c r="G83" t="n">
-        <v>0.2898002047757995</v>
+        <v>0.3340567373724337</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-4.029608939660801</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4.7816402214683835</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-3.6968899117459775</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.8771583829547196E-4</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.04733098862754668</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.19827721841229007</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-4.638308693316341</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5.462415987565584</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-3.6911241783951994</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.9385490823829926E-4</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.04776541567959212</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.17945079608389758</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-4.073586109580233</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.953406086973802</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-3.681891208455016</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3.039440186057887E-4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0483858235986858</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.1493553883151293</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-4.109257812392009</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3.530326951114646</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-3.681157973392314</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.047591057189819E-4</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0483858235986858</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.1469681285416442</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-3.786231887407058</v>
+      </c>
+      <c r="C88" t="n">
+        <v>5.576372915421731</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-3.676576817928785</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3.0989856873093113E-4</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.048636265028185445</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.13206205674039762</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2.8056136877979556</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.679986891393164</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3.670320201908592</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3.1704995459069823E-4</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.04919318272706129</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.11173007086981368</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-5.043515555887981</v>
+      </c>
+      <c r="C90" t="n">
+        <v>5.3153579088716425</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-3.6650321643863393</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.2321540228527287E-4</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.04958632699778782</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.09456877597566393</v>
       </c>
     </row>
   </sheetData>
@@ -2814,2208 +3062,2443 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="N1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D2" t="n">
-        <v>2.608465988957088E-4</v>
+        <v>0.00272644622141468</v>
       </c>
       <c r="E2" t="n">
-        <v>914.0</v>
+        <v>7.0</v>
       </c>
       <c r="F2" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G2" t="n">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.29333333333333333</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="I2" t="n">
-        <v>0.024070021881838075</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="J2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="K2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L2" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="M2" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N2" t="n">
-        <v>2901.0</v>
+        <v>22161.0</v>
       </c>
       <c r="O2" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D3" t="n">
-        <v>7.733640196934246E-4</v>
+        <v>0.00559219189831961</v>
       </c>
       <c r="E3" t="n">
-        <v>6.0</v>
+        <v>883.0</v>
       </c>
       <c r="F3" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.0</v>
+        <v>21.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.25301204819277107</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.02378255945639864</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="K3" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L3" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="M3" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N3" t="n">
-        <v>22200.0</v>
+        <v>2890.0</v>
       </c>
       <c r="O3" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D4" t="n">
-        <v>9.846363173964944E-4</v>
+        <v>0.007928338096022088</v>
       </c>
       <c r="E4" t="n">
-        <v>1470.0</v>
+        <v>95.0</v>
       </c>
       <c r="F4" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.0</v>
+        <v>8.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.36</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="I4" t="n">
-        <v>0.018367346938775512</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="J4" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="K4" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L4" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="M4" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N4" t="n">
-        <v>3990.0</v>
+        <v>1346.0</v>
       </c>
       <c r="O4" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002273595419851674</v>
+        <v>0.00848686011739389</v>
       </c>
       <c r="E5" t="n">
-        <v>850.0</v>
+        <v>593.0</v>
       </c>
       <c r="F5" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G5" t="n">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.26666666666666666</v>
+        <v>0.20481927710843373</v>
       </c>
       <c r="I5" t="n">
-        <v>0.023529411764705882</v>
+        <v>0.02866779089376054</v>
       </c>
       <c r="J5" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="K5" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L5" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="M5" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N5" t="n">
-        <v>2898.0</v>
+        <v>22010.0</v>
       </c>
       <c r="O5" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005035361440006741</v>
+        <v>0.009826677618429926</v>
       </c>
       <c r="E6" t="n">
-        <v>892.0</v>
+        <v>913.0</v>
       </c>
       <c r="F6" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G6" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.26666666666666666</v>
+        <v>0.25301204819277107</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02242152466367713</v>
+        <v>0.023001095290251915</v>
       </c>
       <c r="J6" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="K6" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L6" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="M6" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N6" t="n">
-        <v>12824.0</v>
+        <v>12795.0</v>
       </c>
       <c r="O6" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
-        <v>0.006439927669160223</v>
+        <v>0.01168289424084264</v>
       </c>
       <c r="E7" t="n">
-        <v>817.0</v>
+        <v>22.0</v>
       </c>
       <c r="F7" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G7" t="n">
-        <v>19.0</v>
+        <v>5.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.25333333333333335</v>
+        <v>0.060240963855421686</v>
       </c>
       <c r="I7" t="n">
-        <v>0.023255813953488372</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="J7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="K7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L7" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="M7" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N7" t="n">
-        <v>1332.0</v>
+        <v>16811.0</v>
       </c>
       <c r="O7" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
-        <v>0.006985578911433982</v>
+        <v>0.012742912548931088</v>
       </c>
       <c r="E8" t="n">
-        <v>575.0</v>
+        <v>232.0</v>
       </c>
       <c r="F8" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G8" t="n">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.21333333333333335</v>
+        <v>0.13253012048192772</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02782608695652174</v>
+        <v>0.04741379310344827</v>
       </c>
       <c r="J8" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K8" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L8" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="M8" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N8" t="n">
-        <v>22049.0</v>
+        <v>1089.0</v>
       </c>
       <c r="O8" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00934721728837496</v>
+        <v>0.018667608348321877</v>
       </c>
       <c r="E9" t="n">
-        <v>3.0</v>
+        <v>24.0</v>
       </c>
       <c r="F9" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04</v>
+        <v>0.060240963855421686</v>
       </c>
       <c r="I9" t="n">
-        <v>1.0</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="J9" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="K9" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L9" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="M9" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N9" t="n">
-        <v>946.0</v>
+        <v>1101.0</v>
       </c>
       <c r="O9" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01241249943858559</v>
+        <v>0.01873166516948096</v>
       </c>
       <c r="E10" t="n">
-        <v>450.0</v>
+        <v>191.0</v>
       </c>
       <c r="F10" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G10" t="n">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.18666666666666668</v>
+        <v>0.12048192771084337</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03111111111111111</v>
+        <v>0.05235602094240838</v>
       </c>
       <c r="J10" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="K10" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L10" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="M10" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N10" t="n">
-        <v>13159.0</v>
+        <v>1106.0</v>
       </c>
       <c r="O10" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D11" t="n">
-        <v>0.013855289408403967</v>
+        <v>0.02039169794041668</v>
       </c>
       <c r="E11" t="n">
-        <v>25.0</v>
+        <v>869.0</v>
       </c>
       <c r="F11" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.24096385542168675</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2</v>
+        <v>0.023014959723820484</v>
       </c>
       <c r="J11" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="K11" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L11" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="M11" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N11" t="n">
-        <v>560.0</v>
+        <v>2887.0</v>
       </c>
       <c r="O11" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D12" t="n">
-        <v>0.014046268993871925</v>
+        <v>0.021153172421283697</v>
       </c>
       <c r="E12" t="n">
-        <v>528.0</v>
+        <v>871.0</v>
       </c>
       <c r="F12" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G12" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2</v>
+        <v>0.24096385542168675</v>
       </c>
       <c r="I12" t="n">
-        <v>0.028409090909090908</v>
+        <v>0.022962112514351322</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="K12" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L12" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M12" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N12" t="n">
-        <v>1334.0</v>
+        <v>1323.0</v>
       </c>
       <c r="O12" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02168045417251668</v>
+        <v>0.022272410118827864</v>
       </c>
       <c r="E13" t="n">
-        <v>794.0</v>
+        <v>46.0</v>
       </c>
       <c r="F13" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G13" t="n">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.24</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="I13" t="n">
-        <v>0.022670025188916875</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="J13" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="K13" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L13" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="M13" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N13" t="n">
-        <v>16102.0</v>
+        <v>14497.0</v>
       </c>
       <c r="O13" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02168045417251668</v>
+        <v>0.023217293639529832</v>
       </c>
       <c r="E14" t="n">
-        <v>794.0</v>
+        <v>25.0</v>
       </c>
       <c r="F14" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G14" t="n">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.24</v>
+        <v>0.060240963855421686</v>
       </c>
       <c r="I14" t="n">
-        <v>0.022670025188916875</v>
+        <v>0.2</v>
       </c>
       <c r="J14" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="K14" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L14" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="M14" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N14" t="n">
-        <v>12235.0</v>
+        <v>19449.0</v>
       </c>
       <c r="O14" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D15" t="n">
-        <v>0.024856453237819466</v>
+        <v>0.023217293639529832</v>
       </c>
       <c r="E15" t="n">
-        <v>12.0</v>
+        <v>25.0</v>
       </c>
       <c r="F15" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G15" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.060240963855421686</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L15" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="M15" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N15" t="n">
-        <v>23290.0</v>
+        <v>551.0</v>
       </c>
       <c r="O15" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D16" t="n">
-        <v>0.029660752545279966</v>
+        <v>0.03361147265912348</v>
       </c>
       <c r="E16" t="n">
-        <v>1508.0</v>
+        <v>813.0</v>
       </c>
       <c r="F16" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G16" t="n">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2289156626506024</v>
       </c>
       <c r="I16" t="n">
-        <v>0.016578249336870028</v>
+        <v>0.023370233702337023</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="K16" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L16" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="M16" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N16" t="n">
-        <v>1038.0</v>
+        <v>16071.0</v>
       </c>
       <c r="O16" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03414490974795492</v>
+        <v>0.03361147265912348</v>
       </c>
       <c r="E17" t="n">
-        <v>819.0</v>
+        <v>813.0</v>
       </c>
       <c r="F17" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G17" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.24</v>
+        <v>0.2289156626506024</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02197802197802198</v>
+        <v>0.023370233702337023</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L17" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="M17" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N17" t="n">
-        <v>3992.0</v>
+        <v>12207.0</v>
       </c>
       <c r="O17" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D18" t="n">
-        <v>9.303676920441624E-13</v>
+        <v>0.03791277177044468</v>
       </c>
       <c r="E18" t="n">
-        <v>443.0</v>
+        <v>80.0</v>
       </c>
       <c r="F18" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G18" t="n">
-        <v>24.0</v>
+        <v>7.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.32</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05417607223476298</v>
+        <v>0.0875</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="K18" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="L18" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="M18" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N18" t="n">
-        <v>278.0</v>
+        <v>1458.0</v>
       </c>
       <c r="O18" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D19" t="n">
-        <v>1.930522815495651E-11</v>
+        <v>0.0423601616914311</v>
       </c>
       <c r="E19" t="n">
-        <v>688.0</v>
+        <v>118.0</v>
       </c>
       <c r="F19" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.0</v>
+        <v>8.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.36</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03924418604651163</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="M19" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N19" t="n">
-        <v>241.0</v>
+        <v>11931.0</v>
       </c>
       <c r="O19" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
-        <v>6.110021970328681E-5</v>
+        <v>0.046093948110119035</v>
       </c>
       <c r="E20" t="n">
-        <v>351.0</v>
+        <v>264.0</v>
       </c>
       <c r="F20" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G20" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2</v>
+        <v>0.13253012048192772</v>
       </c>
       <c r="I20" t="n">
-        <v>0.042735042735042736</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="M20" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N20" t="n">
-        <v>67.0</v>
+        <v>905.0</v>
       </c>
       <c r="O20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D21" t="n">
-        <v>6.110021970328681E-5</v>
+        <v>0.048607317081557695</v>
       </c>
       <c r="E21" t="n">
-        <v>351.0</v>
+        <v>1479.0</v>
       </c>
       <c r="F21" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G21" t="n">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="I21" t="n">
-        <v>0.042735042735042736</v>
+        <v>0.01757944557133198</v>
       </c>
       <c r="J21" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="M21" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N21" t="n">
-        <v>409.0</v>
+        <v>3979.0</v>
       </c>
       <c r="O21" t="s">
-        <v>168</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D22" t="n">
-        <v>7.436234127543513E-4</v>
+        <v>1.600906266964729E-12</v>
       </c>
       <c r="E22" t="n">
-        <v>422.0</v>
+        <v>451.0</v>
       </c>
       <c r="F22" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G22" t="n">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2</v>
+        <v>0.30120481927710846</v>
       </c>
       <c r="I22" t="n">
-        <v>0.035545023696682464</v>
+        <v>0.05543237250554324</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="M22" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N22" t="n">
-        <v>417.0</v>
+        <v>277.0</v>
       </c>
       <c r="O22" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02352818571494722</v>
+        <v>4.7895282024004795E-11</v>
       </c>
       <c r="E23" t="n">
-        <v>1278.0</v>
+        <v>693.0</v>
       </c>
       <c r="F23" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G23" t="n">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.30666666666666664</v>
+        <v>0.3373493975903614</v>
       </c>
       <c r="I23" t="n">
-        <v>0.017996870109546165</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="J23" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="K23" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="M23" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N23" t="n">
-        <v>1453.0</v>
+        <v>240.0</v>
       </c>
       <c r="O23" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D24" t="n">
-        <v>6.782672834812894E-5</v>
+        <v>5.695072386916975E-6</v>
       </c>
       <c r="E24" t="n">
-        <v>18.0</v>
+        <v>364.0</v>
       </c>
       <c r="F24" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G24" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.20481927710843373</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.046703296703296704</v>
       </c>
       <c r="J24" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="M24" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N24" t="n">
-        <v>7491.0</v>
+        <v>66.0</v>
       </c>
       <c r="O24" t="s">
-        <v>263</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D25" t="n">
-        <v>7.711783247341202E-5</v>
+        <v>5.695072386916975E-6</v>
       </c>
       <c r="E25" t="n">
-        <v>36.0</v>
+        <v>364.0</v>
       </c>
       <c r="F25" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G25" t="n">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08</v>
+        <v>0.20481927710843373</v>
       </c>
       <c r="I25" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.046703296703296704</v>
       </c>
       <c r="J25" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="K25" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="M25" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N25" t="n">
-        <v>106.0</v>
+        <v>408.0</v>
       </c>
       <c r="O25" t="s">
-        <v>264</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D26" t="n">
-        <v>1.5892117312754785E-4</v>
+        <v>1.0494775036683858E-4</v>
       </c>
       <c r="E26" t="n">
-        <v>21.0</v>
+        <v>440.0</v>
       </c>
       <c r="F26" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.20481927710843373</v>
       </c>
       <c r="I26" t="n">
-        <v>0.23809523809523808</v>
+        <v>0.038636363636363635</v>
       </c>
       <c r="J26" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="K26" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="M26" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N26" t="n">
-        <v>1989.0</v>
+        <v>416.0</v>
       </c>
       <c r="O26" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D27" t="n">
-        <v>2.7491815554044E-4</v>
+        <v>0.0025515044523440633</v>
       </c>
       <c r="E27" t="n">
-        <v>3.0</v>
+        <v>415.0</v>
       </c>
       <c r="F27" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G27" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04</v>
+        <v>0.18072289156626506</v>
       </c>
       <c r="I27" t="n">
-        <v>1.0</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="J27" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="K27" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="M27" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N27" t="n">
-        <v>3659.0</v>
+        <v>790.0</v>
       </c>
       <c r="O27" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0010950832163655834</v>
+        <v>0.014020133409868876</v>
       </c>
       <c r="E28" t="n">
-        <v>4.0</v>
+        <v>1292.0</v>
       </c>
       <c r="F28" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.0</v>
+        <v>25.0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.04</v>
+        <v>0.30120481927710846</v>
       </c>
       <c r="I28" t="n">
-        <v>0.75</v>
+        <v>0.01934984520123839</v>
       </c>
       <c r="J28" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="K28" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="M28" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N28" t="n">
-        <v>2334.0</v>
+        <v>1451.0</v>
       </c>
       <c r="O28" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0027262848970853676</v>
+        <v>0.006192512285519019</v>
       </c>
       <c r="E29" t="n">
-        <v>5.0</v>
+        <v>216.0</v>
       </c>
       <c r="F29" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.13253012048192772</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="J29" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="K29" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="M29" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N29" t="n">
-        <v>8406.0</v>
+        <v>5459.0</v>
       </c>
       <c r="O29" t="s">
-        <v>172</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D30" t="n">
-        <v>0.004401757028236627</v>
+        <v>2.849486400205522E-4</v>
       </c>
       <c r="E30" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="F30" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G30" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.060240963855421686</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="J30" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="K30" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L30" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="M30" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N30" t="n">
-        <v>1614.0</v>
+        <v>1988.0</v>
       </c>
       <c r="O30" t="s">
-        <v>188</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D31" t="n">
-        <v>0.005429823793591499</v>
+        <v>3.11438476207265E-4</v>
       </c>
       <c r="E31" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F31" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G31" t="n">
         <v>3.0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="J31" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="K31" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L31" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="M31" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N31" t="n">
-        <v>618.0</v>
+        <v>3658.0</v>
       </c>
       <c r="O31" t="s">
-        <v>180</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00690849566908589</v>
+        <v>5.432295150933625E-4</v>
       </c>
       <c r="E32" t="n">
-        <v>20.0</v>
+        <v>46.0</v>
       </c>
       <c r="F32" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="J32" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K32" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L32" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="M32" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N32" t="n">
         <v>89.0</v>
       </c>
       <c r="O32" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D33" t="n">
-        <v>0.00839150797105192</v>
+        <v>0.002982521030913713</v>
       </c>
       <c r="E33" t="n">
-        <v>78.0</v>
+        <v>61.0</v>
       </c>
       <c r="F33" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G33" t="n">
         <v>6.0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.08</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="I33" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="J33" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="K33" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L33" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="M33" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N33" t="n">
-        <v>774.0</v>
+        <v>106.0</v>
       </c>
       <c r="O33" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D34" t="n">
-        <v>0.010081956207547113</v>
+        <v>0.0030855337966582542</v>
       </c>
       <c r="E34" t="n">
-        <v>230.0</v>
+        <v>5.0</v>
       </c>
       <c r="F34" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G34" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.12</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.6</v>
       </c>
       <c r="J34" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K34" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L34" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="M34" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N34" t="n">
-        <v>968.0</v>
+        <v>8399.0</v>
       </c>
       <c r="O34" t="s">
-        <v>269</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D35" t="n">
-        <v>0.015270022143620518</v>
+        <v>0.005508951923969823</v>
       </c>
       <c r="E35" t="n">
-        <v>131.0</v>
+        <v>18.0</v>
       </c>
       <c r="F35" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="I35" t="n">
-        <v>0.05343511450381679</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="J35" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="K35" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L35" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="M35" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N35" t="n">
-        <v>567.0</v>
+        <v>1613.0</v>
       </c>
       <c r="O35" t="s">
-        <v>182</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D36" t="n">
-        <v>0.022521168612426905</v>
+        <v>0.006142428111614697</v>
       </c>
       <c r="E36" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="F36" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G36" t="n">
         <v>3.0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.04</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="J36" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K36" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L36" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="M36" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N36" t="n">
-        <v>593.0</v>
+        <v>618.0</v>
       </c>
       <c r="O36" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D37" t="n">
-        <v>0.028187939703888786</v>
+        <v>0.008426759192948552</v>
       </c>
       <c r="E37" t="n">
-        <v>28.0</v>
+        <v>111.0</v>
       </c>
       <c r="F37" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G37" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="I37" t="n">
-        <v>0.14285714285714285</v>
+        <v>0.06306306306306306</v>
       </c>
       <c r="J37" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="K37" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L37" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="M37" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N37" t="n">
-        <v>7014.0</v>
+        <v>11287.0</v>
       </c>
       <c r="O37" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D38" t="n">
-        <v>0.032039001897760565</v>
+        <v>0.008426759192948552</v>
       </c>
       <c r="E38" t="n">
-        <v>10.0</v>
+        <v>111.0</v>
       </c>
       <c r="F38" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="I38" t="n">
-        <v>0.3</v>
+        <v>0.06306306306306306</v>
       </c>
       <c r="J38" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="K38" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L38" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="M38" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N38" t="n">
-        <v>14455.0</v>
+        <v>85.0</v>
       </c>
       <c r="O38" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03844189609593717</v>
+        <v>0.008637562892862584</v>
       </c>
       <c r="E39" t="n">
-        <v>1062.0</v>
+        <v>20.0</v>
       </c>
       <c r="F39" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G39" t="n">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.24</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01694915254237288</v>
+        <v>0.2</v>
       </c>
       <c r="J39" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="K39" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L39" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="M39" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N39" t="n">
-        <v>1979.0</v>
+        <v>7484.0</v>
       </c>
       <c r="O39" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D40" t="n">
-        <v>0.04275158579054826</v>
+        <v>0.024979385028657725</v>
       </c>
       <c r="E40" t="n">
-        <v>31.0</v>
+        <v>131.0</v>
       </c>
       <c r="F40" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G40" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="I40" t="n">
-        <v>0.12903225806451613</v>
+        <v>0.05343511450381679</v>
       </c>
       <c r="J40" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="K40" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L40" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="M40" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N40" t="n">
-        <v>14510.0</v>
+        <v>7485.0</v>
       </c>
       <c r="O40" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D41" t="n">
-        <v>1.4360155738352826E-6</v>
+        <v>0.0254408578847348</v>
       </c>
       <c r="E41" t="n">
-        <v>115.0</v>
+        <v>9.0</v>
       </c>
       <c r="F41" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G41" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.12</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0782608695652174</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J41" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="K41" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="L41" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="M41" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N41" t="n">
-        <v>260.0</v>
+        <v>593.0</v>
       </c>
       <c r="O41" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D42" t="n">
-        <v>2.1675081253286917E-5</v>
+        <v>0.026513918235373565</v>
       </c>
       <c r="E42" t="n">
-        <v>114.0</v>
+        <v>239.0</v>
       </c>
       <c r="F42" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G42" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.10843373493975904</v>
       </c>
       <c r="I42" t="n">
-        <v>0.07017543859649122</v>
+        <v>0.03765690376569038</v>
       </c>
       <c r="J42" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="K42" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="L42" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="M42" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N42" t="n">
-        <v>262.0</v>
+        <v>968.0</v>
       </c>
       <c r="O42" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D43" t="n">
-        <v>5.390756218009855E-5</v>
+        <v>0.03498121021833124</v>
       </c>
       <c r="E43" t="n">
-        <v>30.0</v>
+        <v>138.0</v>
       </c>
       <c r="F43" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G43" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="I43" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.050724637681159424</v>
       </c>
       <c r="J43" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="K43" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="L43" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="M43" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N43" t="n">
-        <v>417.0</v>
+        <v>567.0</v>
       </c>
       <c r="O43" t="s">
-        <v>275</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D44" t="n">
-        <v>5.601263060792419E-5</v>
+        <v>0.03510211481619057</v>
       </c>
       <c r="E44" t="n">
-        <v>129.0</v>
+        <v>28.0</v>
       </c>
       <c r="F44" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G44" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="I44" t="n">
-        <v>0.06201550387596899</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="J44" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="K44" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="L44" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="M44" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N44" t="n">
-        <v>418.0</v>
+        <v>7008.0</v>
       </c>
       <c r="O44" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D45" t="n">
-        <v>8.903046557915515E-4</v>
+        <v>0.03617558158084958</v>
       </c>
       <c r="E45" t="n">
-        <v>52.0</v>
+        <v>10.0</v>
       </c>
       <c r="F45" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G45" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="I45" t="n">
-        <v>0.09615384615384616</v>
+        <v>0.3</v>
       </c>
       <c r="J45" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="K45" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="L45" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="M45" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N45" t="n">
-        <v>302.0</v>
+        <v>14764.0</v>
       </c>
       <c r="O45" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D46" t="n">
-        <v>0.018031620286493615</v>
+        <v>3.3133129001137683E-6</v>
       </c>
       <c r="E46" t="n">
-        <v>97.0</v>
+        <v>113.0</v>
       </c>
       <c r="F46" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G46" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.10843373493975904</v>
       </c>
       <c r="I46" t="n">
-        <v>0.05154639175257732</v>
+        <v>0.07964601769911504</v>
       </c>
       <c r="J46" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="K46" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="L46" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="M46" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N46" t="n">
-        <v>289.0</v>
+        <v>262.0</v>
       </c>
       <c r="O46" t="s">
-        <v>275</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D47" t="n">
-        <v>0.04546715653849427</v>
+        <v>4.835236524504403E-6</v>
       </c>
       <c r="E47" t="n">
-        <v>29.0</v>
+        <v>118.0</v>
       </c>
       <c r="F47" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G47" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04</v>
+        <v>0.10843373493975904</v>
       </c>
       <c r="I47" t="n">
-        <v>0.10344827586206896</v>
+        <v>0.07627118644067797</v>
       </c>
       <c r="J47" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="K47" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="L47" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="M47" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N47" t="n">
-        <v>300.0</v>
+        <v>260.0</v>
       </c>
       <c r="O47" t="s">
-        <v>275</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9.716103122109739E-5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.060240963855421686</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J48" t="s">
+        <v>208</v>
+      </c>
+      <c r="K48" t="s">
+        <v>217</v>
+      </c>
+      <c r="L48" t="s">
+        <v>264</v>
+      </c>
+      <c r="M48" t="n">
+        <v>12925.0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>418.0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.2578283768767163E-4</v>
+      </c>
+      <c r="E49" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0963855421686747</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="J49" t="s">
+        <v>209</v>
+      </c>
+      <c r="K49" t="s">
+        <v>217</v>
+      </c>
+      <c r="L49" t="s">
+        <v>265</v>
+      </c>
+      <c r="M49" t="n">
+        <v>12925.0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>419.0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0014410716106615813</v>
+      </c>
+      <c r="E50" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.060240963855421686</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.09803921568627451</v>
+      </c>
+      <c r="J50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K50" t="s">
+        <v>217</v>
+      </c>
+      <c r="L50" t="s">
+        <v>266</v>
+      </c>
+      <c r="M50" t="n">
+        <v>12925.0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>302.0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.021185608055421995</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4679.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.5542168674698795</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.009831160504381278</v>
+      </c>
+      <c r="J51" t="s">
+        <v>211</v>
+      </c>
+      <c r="K51" t="s">
+        <v>217</v>
+      </c>
+      <c r="L51" t="s">
+        <v>267</v>
+      </c>
+      <c r="M51" t="n">
+        <v>12925.0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.031391744679496854</v>
+      </c>
+      <c r="E52" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.060240963855421686</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.05154639175257732</v>
+      </c>
+      <c r="J52" t="s">
+        <v>212</v>
+      </c>
+      <c r="K52" t="s">
+        <v>217</v>
+      </c>
+      <c r="L52" t="s">
+        <v>268</v>
+      </c>
+      <c r="M52" t="n">
+        <v>12925.0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>289.0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/docs/LMER_Microglia_0.xlsx
+++ b/docs/LMER_Microglia_0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="318">
   <si>
     <t>logFC</t>
   </si>
@@ -33,214 +33,247 @@
     <t>Tbata</t>
   </si>
   <si>
-    <t>AC099934.1</t>
-  </si>
-  <si>
     <t>Rn7s1</t>
   </si>
   <si>
     <t>AY036118</t>
   </si>
   <si>
-    <t>Prrx1</t>
-  </si>
-  <si>
     <t>Rn7s2</t>
   </si>
   <si>
     <t>Tmem170</t>
   </si>
   <si>
+    <t>Dock10</t>
+  </si>
+  <si>
     <t>Mgmt</t>
   </si>
   <si>
+    <t>Apoe</t>
+  </si>
+  <si>
+    <t>Trem2</t>
+  </si>
+  <si>
+    <t>D10Wsu102e</t>
+  </si>
+  <si>
     <t>Lgals3bp</t>
   </si>
   <si>
-    <t>Olfr907</t>
-  </si>
-  <si>
-    <t>Dock10</t>
+    <t>Hexb</t>
+  </si>
+  <si>
+    <t>Fcer1g</t>
+  </si>
+  <si>
+    <t>Ctsd</t>
+  </si>
+  <si>
+    <t>B2m</t>
+  </si>
+  <si>
+    <t>Gm44215</t>
+  </si>
+  <si>
+    <t>C1qb</t>
+  </si>
+  <si>
+    <t>Gnaz</t>
+  </si>
+  <si>
+    <t>Lipe</t>
+  </si>
+  <si>
+    <t>CT010467.1</t>
+  </si>
+  <si>
+    <t>C1qa</t>
+  </si>
+  <si>
+    <t>Lyz2</t>
+  </si>
+  <si>
+    <t>Itm2b</t>
+  </si>
+  <si>
+    <t>Cst3</t>
+  </si>
+  <si>
+    <t>Gm37144</t>
+  </si>
+  <si>
+    <t>Ctsb</t>
+  </si>
+  <si>
+    <t>C1qc</t>
   </si>
   <si>
     <t>Myl2</t>
   </si>
   <si>
+    <t>Cst7</t>
+  </si>
+  <si>
+    <t>Grn</t>
+  </si>
+  <si>
+    <t>Ctss</t>
+  </si>
+  <si>
+    <t>Ctsz</t>
+  </si>
+  <si>
+    <t>Hexa</t>
+  </si>
+  <si>
+    <t>Pola2</t>
+  </si>
+  <si>
     <t>Cd52</t>
   </si>
   <si>
-    <t>Xist</t>
+    <t>AC127302.3</t>
+  </si>
+  <si>
+    <t>Cyba</t>
+  </si>
+  <si>
+    <t>Gm26905</t>
+  </si>
+  <si>
+    <t>Fhl3</t>
+  </si>
+  <si>
+    <t>Col6a3</t>
+  </si>
+  <si>
+    <t>Axl</t>
+  </si>
+  <si>
+    <t>Gm15500</t>
+  </si>
+  <si>
+    <t>Fth1</t>
+  </si>
+  <si>
+    <t>H2-D1</t>
+  </si>
+  <si>
+    <t>Gm10076</t>
+  </si>
+  <si>
+    <t>Cd81</t>
+  </si>
+  <si>
+    <t>Tyrobp</t>
+  </si>
+  <si>
+    <t>Upk1b</t>
+  </si>
+  <si>
+    <t>Atp6v0c</t>
+  </si>
+  <si>
+    <t>Clec7a</t>
   </si>
   <si>
     <t>Gm26870</t>
   </si>
   <si>
-    <t>Fhl3</t>
-  </si>
-  <si>
-    <t>Gm10076</t>
-  </si>
-  <si>
-    <t>Pola2</t>
-  </si>
-  <si>
-    <t>Lyz2</t>
+    <t>Selenop</t>
+  </si>
+  <si>
+    <t>Serinc3</t>
+  </si>
+  <si>
+    <t>Eef1a1</t>
+  </si>
+  <si>
+    <t>Gm15564</t>
+  </si>
+  <si>
+    <t>Fcgr3</t>
+  </si>
+  <si>
+    <t>Soat1</t>
+  </si>
+  <si>
+    <t>Gm14303</t>
+  </si>
+  <si>
+    <t>Ppp2r5a</t>
   </si>
   <si>
     <t>Gm10719</t>
   </si>
   <si>
-    <t>Upk1b</t>
-  </si>
-  <si>
-    <t>Gm15564</t>
-  </si>
-  <si>
-    <t>Col6a3</t>
-  </si>
-  <si>
-    <t>Apoe</t>
-  </si>
-  <si>
-    <t>Gnaz</t>
-  </si>
-  <si>
-    <t>D10Wsu102e</t>
-  </si>
-  <si>
-    <t>Gm26905</t>
-  </si>
-  <si>
-    <t>Gm44215</t>
-  </si>
-  <si>
-    <t>CT010467.1</t>
-  </si>
-  <si>
-    <t>Gm11168</t>
-  </si>
-  <si>
-    <t>Gm10722</t>
-  </si>
-  <si>
-    <t>Gm10800</t>
-  </si>
-  <si>
-    <t>Gm10717</t>
-  </si>
-  <si>
-    <t>Traf2</t>
-  </si>
-  <si>
-    <t>Gm37144</t>
-  </si>
-  <si>
-    <t>Gm10801</t>
-  </si>
-  <si>
-    <t>Soat1</t>
-  </si>
-  <si>
-    <t>Cst7</t>
-  </si>
-  <si>
-    <t>Gm20425</t>
-  </si>
-  <si>
-    <t>Slc25a5</t>
-  </si>
-  <si>
-    <t>Gm15500</t>
-  </si>
-  <si>
-    <t>Gm14303</t>
-  </si>
-  <si>
-    <t>Taf5l</t>
-  </si>
-  <si>
-    <t>Lipe</t>
-  </si>
-  <si>
-    <t>AW822252</t>
-  </si>
-  <si>
-    <t>Nckap5l</t>
-  </si>
-  <si>
-    <t>Rbm15</t>
+    <t>Rpl13a</t>
+  </si>
+  <si>
+    <t>Lamp2</t>
+  </si>
+  <si>
+    <t>Rnaset2b</t>
+  </si>
+  <si>
+    <t>Fcgr2b</t>
+  </si>
+  <si>
+    <t>Mpeg1</t>
+  </si>
+  <si>
+    <t>Rab3gap1</t>
+  </si>
+  <si>
+    <t>Mt1</t>
+  </si>
+  <si>
+    <t>Thy1</t>
+  </si>
+  <si>
+    <t>Acbd5</t>
+  </si>
+  <si>
+    <t>Lgmn</t>
+  </si>
+  <si>
+    <t>Bicd1</t>
+  </si>
+  <si>
+    <t>Cry1</t>
+  </si>
+  <si>
+    <t>Cd9</t>
+  </si>
+  <si>
+    <t>Rps14</t>
+  </si>
+  <si>
+    <t>Rplp0</t>
   </si>
   <si>
     <t>Ssr4</t>
   </si>
   <si>
-    <t>Cyba</t>
-  </si>
-  <si>
-    <t>Gm43652</t>
-  </si>
-  <si>
-    <t>Clec7a</t>
-  </si>
-  <si>
-    <t>Fmo1</t>
-  </si>
-  <si>
-    <t>Fcer1g</t>
-  </si>
-  <si>
-    <t>Gm45220</t>
-  </si>
-  <si>
-    <t>Tmem106c</t>
-  </si>
-  <si>
-    <t>Axl</t>
-  </si>
-  <si>
-    <t>Gm10443</t>
-  </si>
-  <si>
-    <t>Polr3gl</t>
-  </si>
-  <si>
-    <t>Rpl13a</t>
-  </si>
-  <si>
-    <t>Ifi27l2a</t>
-  </si>
-  <si>
-    <t>B2m</t>
-  </si>
-  <si>
-    <t>Rps8</t>
-  </si>
-  <si>
-    <t>Mzt2</t>
+    <t>Erp29</t>
+  </si>
+  <si>
+    <t>Itgb5</t>
+  </si>
+  <si>
+    <t>Arhgef40</t>
   </si>
   <si>
     <t>H2-K1</t>
   </si>
   <si>
-    <t>Dnajc3</t>
-  </si>
-  <si>
-    <t>Gm44645</t>
-  </si>
-  <si>
-    <t>Lamp2</t>
-  </si>
-  <si>
-    <t>Mtmr3</t>
-  </si>
-  <si>
-    <t>Tsix</t>
-  </si>
-  <si>
-    <t>Eng</t>
-  </si>
-  <si>
-    <t>Rps21</t>
+    <t>Ccl3</t>
+  </si>
+  <si>
+    <t>Gm37086</t>
   </si>
   <si>
     <t>query</t>
@@ -300,55 +333,640 @@
     <t>5</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>query_1</t>
   </si>
   <si>
     <t>TRUE</t>
   </si>
   <si>
-    <t>TF:M00285_1</t>
-  </si>
-  <si>
-    <t>TF:M00935_1</t>
-  </si>
-  <si>
-    <t>TF:M00621_1</t>
-  </si>
-  <si>
-    <t>TF:M07466_1</t>
-  </si>
-  <si>
-    <t>TF:M00935</t>
-  </si>
-  <si>
-    <t>TF</t>
-  </si>
-  <si>
-    <t>Factor: TCF11; motif: GTCATNNWNNNNN; match class: 1</t>
-  </si>
-  <si>
-    <t>Factor: NFAT; motif: NWGGAAANWN; match class: 1</t>
-  </si>
-  <si>
-    <t>Factor: C/EBPdelta; motif: MATTKCNTMAYY; match class: 1</t>
-  </si>
-  <si>
-    <t>Factor: Six-1; motif: CTCARRTTWCN; match class: 1</t>
-  </si>
-  <si>
-    <t>Factor: NFAT; motif: NWGGAAANWN</t>
-  </si>
-  <si>
-    <t>TF:M00285</t>
-  </si>
-  <si>
-    <t>TF:M00621</t>
-  </si>
-  <si>
-    <t>TF:M07466</t>
-  </si>
-  <si>
-    <t>TF:M00000</t>
+    <t>GO:0006955</t>
+  </si>
+  <si>
+    <t>GO:0002443</t>
+  </si>
+  <si>
+    <t>GO:0098883</t>
+  </si>
+  <si>
+    <t>GO:0002455</t>
+  </si>
+  <si>
+    <t>GO:0002705</t>
+  </si>
+  <si>
+    <t>GO:0098542</t>
+  </si>
+  <si>
+    <t>GO:0044419</t>
+  </si>
+  <si>
+    <t>GO:0045087</t>
+  </si>
+  <si>
+    <t>GO:0055094</t>
+  </si>
+  <si>
+    <t>GO:0002252</t>
+  </si>
+  <si>
+    <t>GO:0002460</t>
+  </si>
+  <si>
+    <t>GO:0006952</t>
+  </si>
+  <si>
+    <t>GO:0002682</t>
+  </si>
+  <si>
+    <t>GO:0071402</t>
+  </si>
+  <si>
+    <t>GO:0001774</t>
+  </si>
+  <si>
+    <t>GO:0048002</t>
+  </si>
+  <si>
+    <t>GO:0051707</t>
+  </si>
+  <si>
+    <t>GO:0043207</t>
+  </si>
+  <si>
+    <t>GO:0009605</t>
+  </si>
+  <si>
+    <t>GO:0006958</t>
+  </si>
+  <si>
+    <t>GO:0002824</t>
+  </si>
+  <si>
+    <t>GO:0050776</t>
+  </si>
+  <si>
+    <t>GO:0050778</t>
+  </si>
+  <si>
+    <t>GO:0002250</t>
+  </si>
+  <si>
+    <t>GO:0009607</t>
+  </si>
+  <si>
+    <t>GO:0005615</t>
+  </si>
+  <si>
+    <t>GO:0005576</t>
+  </si>
+  <si>
+    <t>GO:0000323</t>
+  </si>
+  <si>
+    <t>GO:0005764</t>
+  </si>
+  <si>
+    <t>GO:0005773</t>
+  </si>
+  <si>
+    <t>GO:0009986</t>
+  </si>
+  <si>
+    <t>GO:0031982</t>
+  </si>
+  <si>
+    <t>GO:0033218</t>
+  </si>
+  <si>
+    <t>HP:0002725</t>
+  </si>
+  <si>
+    <t>HP:0000099</t>
+  </si>
+  <si>
+    <t>HP:0005356</t>
+  </si>
+  <si>
+    <t>HP:0000123</t>
+  </si>
+  <si>
+    <t>HP:0011970</t>
+  </si>
+  <si>
+    <t>HP:0002185</t>
+  </si>
+  <si>
+    <t>HP:0000793</t>
+  </si>
+  <si>
+    <t>HP:0000095</t>
+  </si>
+  <si>
+    <t>HP:0031263</t>
+  </si>
+  <si>
+    <t>HP:0011034</t>
+  </si>
+  <si>
+    <t>HP:0011035</t>
+  </si>
+  <si>
+    <t>HP:0000757</t>
+  </si>
+  <si>
+    <t>HP:0001268</t>
+  </si>
+  <si>
+    <t>HP:0010524</t>
+  </si>
+  <si>
+    <t>HP:0100256</t>
+  </si>
+  <si>
+    <t>HP:0000726</t>
+  </si>
+  <si>
+    <t>KEGG:04145</t>
+  </si>
+  <si>
+    <t>KEGG:04142</t>
+  </si>
+  <si>
+    <t>KEGG:05150</t>
+  </si>
+  <si>
+    <t>KEGG:05152</t>
+  </si>
+  <si>
+    <t>KEGG:04612</t>
+  </si>
+  <si>
+    <t>KEGG:00000</t>
+  </si>
+  <si>
+    <t>KEGG:04610</t>
+  </si>
+  <si>
+    <t>KEGG:04380</t>
+  </si>
+  <si>
+    <t>GO:BP</t>
+  </si>
+  <si>
+    <t>GO:CC</t>
+  </si>
+  <si>
+    <t>GO:MF</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>KEGG</t>
+  </si>
+  <si>
+    <t>immune response</t>
+  </si>
+  <si>
+    <t>leukocyte mediated immunity</t>
+  </si>
+  <si>
+    <t>synapse pruning</t>
+  </si>
+  <si>
+    <t>humoral immune response mediated by circulating immunoglobulin</t>
+  </si>
+  <si>
+    <t>positive regulation of leukocyte mediated immunity</t>
+  </si>
+  <si>
+    <t>defense response to other organism</t>
+  </si>
+  <si>
+    <t>biological process involved in interspecies interaction between organisms</t>
+  </si>
+  <si>
+    <t>innate immune response</t>
+  </si>
+  <si>
+    <t>response to lipoprotein particle</t>
+  </si>
+  <si>
+    <t>immune effector process</t>
+  </si>
+  <si>
+    <t>adaptive immune response based on somatic recombination of immune receptors built from immunoglobulin superfamily domains</t>
+  </si>
+  <si>
+    <t>defense response</t>
+  </si>
+  <si>
+    <t>regulation of immune system process</t>
+  </si>
+  <si>
+    <t>cellular response to lipoprotein particle stimulus</t>
+  </si>
+  <si>
+    <t>microglial cell activation</t>
+  </si>
+  <si>
+    <t>antigen processing and presentation of peptide antigen</t>
+  </si>
+  <si>
+    <t>response to other organism</t>
+  </si>
+  <si>
+    <t>response to external biotic stimulus</t>
+  </si>
+  <si>
+    <t>response to external stimulus</t>
+  </si>
+  <si>
+    <t>complement activation, classical pathway</t>
+  </si>
+  <si>
+    <t>positive regulation of adaptive immune response based on somatic recombination of immune receptors built from immunoglobulin superfamily domains</t>
+  </si>
+  <si>
+    <t>regulation of immune response</t>
+  </si>
+  <si>
+    <t>positive regulation of immune response</t>
+  </si>
+  <si>
+    <t>adaptive immune response</t>
+  </si>
+  <si>
+    <t>response to biotic stimulus</t>
+  </si>
+  <si>
+    <t>extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular region</t>
+  </si>
+  <si>
+    <t>lytic vacuole</t>
+  </si>
+  <si>
+    <t>lysosome</t>
+  </si>
+  <si>
+    <t>vacuole</t>
+  </si>
+  <si>
+    <t>cell surface</t>
+  </si>
+  <si>
+    <t>vesicle</t>
+  </si>
+  <si>
+    <t>amide binding</t>
+  </si>
+  <si>
+    <t>Systemic lupus erythematosus</t>
+  </si>
+  <si>
+    <t>Glomerulonephritis</t>
+  </si>
+  <si>
+    <t>Decreased serum complement factor I</t>
+  </si>
+  <si>
+    <t>Nephritis</t>
+  </si>
+  <si>
+    <t>Cerebral amyloid angiopathy</t>
+  </si>
+  <si>
+    <t>Neurofibrillary tangles</t>
+  </si>
+  <si>
+    <t>Membranoproliferative glomerulonephritis</t>
+  </si>
+  <si>
+    <t>Abnormal renal glomerulus morphology</t>
+  </si>
+  <si>
+    <t>Abnormal renal corpuscle morphology</t>
+  </si>
+  <si>
+    <t>Amyloidosis</t>
+  </si>
+  <si>
+    <t>Abnormal renal cortex morphology</t>
+  </si>
+  <si>
+    <t>Lack of insight</t>
+  </si>
+  <si>
+    <t>Mental deterioration</t>
+  </si>
+  <si>
+    <t>Agnosia</t>
+  </si>
+  <si>
+    <t>Senile plaques</t>
+  </si>
+  <si>
+    <t>Dementia</t>
+  </si>
+  <si>
+    <t>Phagosome</t>
+  </si>
+  <si>
+    <t>Lysosome</t>
+  </si>
+  <si>
+    <t>Staphylococcus aureus infection</t>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>Antigen processing and presentation</t>
+  </si>
+  <si>
+    <t>KEGG root term</t>
+  </si>
+  <si>
+    <t>Complement and coagulation cascades</t>
+  </si>
+  <si>
+    <t>Osteoclast differentiation</t>
+  </si>
+  <si>
+    <t>c("GO:0002376", "GO:0050896")</t>
+  </si>
+  <si>
+    <t>c("GO:0050808", "GO:0150146")</t>
+  </si>
+  <si>
+    <t>c("GO:0006959", "GO:0016064")</t>
+  </si>
+  <si>
+    <t>c("GO:0002443", "GO:0002699", "GO:0002703")</t>
+  </si>
+  <si>
+    <t>c("GO:0006952", "GO:0051707")</t>
+  </si>
+  <si>
+    <t>GO:0008150</t>
+  </si>
+  <si>
+    <t>c("GO:0006955", "GO:0098542")</t>
+  </si>
+  <si>
+    <t>c("GO:0009719", "GO:0010243")</t>
+  </si>
+  <si>
+    <t>GO:0002376</t>
+  </si>
+  <si>
+    <t>GO:0006950</t>
+  </si>
+  <si>
+    <t>c("GO:0002376", "GO:0050789")</t>
+  </si>
+  <si>
+    <t>GO:0051716</t>
+  </si>
+  <si>
+    <t>GO:0042116</t>
+  </si>
+  <si>
+    <t>GO:0019882</t>
+  </si>
+  <si>
+    <t>c("GO:0043207", "GO:0044419")</t>
+  </si>
+  <si>
+    <t>c("GO:0009605", "GO:0009607")</t>
+  </si>
+  <si>
+    <t>GO:0050896</t>
+  </si>
+  <si>
+    <t>c("GO:0002455", "GO:0006956")</t>
+  </si>
+  <si>
+    <t>c("GO:0002460", "GO:0002821", "GO:0002822")</t>
+  </si>
+  <si>
+    <t>c("GO:0002682", "GO:0006955", "GO:0048583")</t>
+  </si>
+  <si>
+    <t>c("GO:0002684", "GO:0006955", "GO:0048584", "GO:0050776")</t>
+  </si>
+  <si>
+    <t>c("GO:0005576", "GO:0110165")</t>
+  </si>
+  <si>
+    <t>GO:0110165</t>
+  </si>
+  <si>
+    <t>c("GO:0005737", "GO:0043231")</t>
+  </si>
+  <si>
+    <t>GO:0043227</t>
+  </si>
+  <si>
+    <t>GO:0005488</t>
+  </si>
+  <si>
+    <t>HP:0002960</t>
+  </si>
+  <si>
+    <t>c("HP:0000095", "HP:0000123")</t>
+  </si>
+  <si>
+    <t>HP:0004431</t>
+  </si>
+  <si>
+    <t>c("HP:0012211", "HP:0012649")</t>
+  </si>
+  <si>
+    <t>HP:0100314</t>
+  </si>
+  <si>
+    <t>c("HP:0011035", "HP:0012575")</t>
+  </si>
+  <si>
+    <t>HP:0001939</t>
+  </si>
+  <si>
+    <t>HP:0012210</t>
+  </si>
+  <si>
+    <t>HP:0000708</t>
+  </si>
+  <si>
+    <t>HP:0100543</t>
+  </si>
+  <si>
+    <t>HP:0011446</t>
+  </si>
+  <si>
+    <t>HP:0007367</t>
+  </si>
+  <si>
+    <t>character(0)</t>
   </si>
 </sst>
 </file>
@@ -422,19 +1040,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>3.522226562453756</v>
+        <v>3.5866162939985813</v>
       </c>
       <c r="C2" t="n">
-        <v>14.822010683170413</v>
+        <v>12.199870863536718</v>
       </c>
       <c r="D2" t="n">
-        <v>2.7067009121340456E-33</v>
+        <v>1.690299114031384E-25</v>
       </c>
       <c r="E2" t="n">
-        <v>3.695729425427826E-29</v>
+        <v>1.9646346602386775E-21</v>
       </c>
       <c r="F2" t="n">
-        <v>60.87133801820984</v>
+        <v>44.960956715894454</v>
       </c>
     </row>
     <row r="3">
@@ -442,19 +1060,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>2.089537987651614</v>
+        <v>4.775572803269444</v>
       </c>
       <c r="C3" t="n">
-        <v>13.57198372858045</v>
+        <v>10.653950558797211</v>
       </c>
       <c r="D3" t="n">
-        <v>1.3864463339184852E-29</v>
+        <v>5.687951496446803E-21</v>
       </c>
       <c r="E3" t="n">
-        <v>9.465269121661498E-26</v>
+        <v>3.3055530121600596E-17</v>
       </c>
       <c r="F3" t="n">
-        <v>53.258536198128056</v>
+        <v>35.46255498010578</v>
       </c>
     </row>
     <row r="4">
@@ -462,19 +1080,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>4.867527356957171</v>
+        <v>-11.088504037059835</v>
       </c>
       <c r="C4" t="n">
-        <v>13.344760664729497</v>
+        <v>-9.233209946166006</v>
       </c>
       <c r="D4" t="n">
-        <v>6.565855441404008E-29</v>
+        <v>6.146774404716801E-17</v>
       </c>
       <c r="E4" t="n">
-        <v>2.988339673231011E-25</v>
+        <v>2.3814652968674463E-13</v>
       </c>
       <c r="F4" t="n">
-        <v>51.86513298783592</v>
+        <v>26.944691651012675</v>
       </c>
     </row>
     <row r="5">
@@ -482,19 +1100,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>-9.974426267804915</v>
+        <v>3.6900650393701713</v>
       </c>
       <c r="C5" t="n">
-        <v>-10.09513892966011</v>
+        <v>7.366754106897623</v>
       </c>
       <c r="D5" t="n">
-        <v>2.2536066722050465E-19</v>
+        <v>5.61014803534131E-12</v>
       </c>
       <c r="E5" t="n">
-        <v>7.692686375571926E-16</v>
+        <v>1.5037922444078152E-8</v>
       </c>
       <c r="F5" t="n">
-        <v>31.986460734648876</v>
+        <v>16.42715306770338</v>
       </c>
     </row>
     <row r="6">
@@ -502,19 +1120,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>2.3313953693520153</v>
+        <v>2.1819579232551396</v>
       </c>
       <c r="C6" t="n">
-        <v>9.887500961140805</v>
+        <v>7.3421558267865725</v>
       </c>
       <c r="D6" t="n">
-        <v>8.794128241456257E-19</v>
+        <v>6.469036584392219E-12</v>
       </c>
       <c r="E6" t="n">
-        <v>2.401500540176875E-15</v>
+        <v>1.5037922444078152E-8</v>
       </c>
       <c r="F6" t="n">
-        <v>30.743050663416117</v>
+        <v>16.295877316607232</v>
       </c>
     </row>
     <row r="7">
@@ -522,19 +1140,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>3.7820195930578997</v>
+        <v>4.006370296235559</v>
       </c>
       <c r="C7" t="n">
-        <v>9.269938312646605</v>
+        <v>6.151167956353297</v>
       </c>
       <c r="D7" t="n">
-        <v>4.792373783244534E-17</v>
+        <v>4.6432411793083025E-9</v>
       </c>
       <c r="E7" t="n">
-        <v>1.090584527273681E-13</v>
+        <v>8.994732037850067E-6</v>
       </c>
       <c r="F7" t="n">
-        <v>27.086386247150234</v>
+        <v>10.240987567692345</v>
       </c>
     </row>
     <row r="8">
@@ -542,19 +1160,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>2.198986880843304</v>
+        <v>2.5838843482653435</v>
       </c>
       <c r="C8" t="n">
-        <v>9.155278263494031</v>
+        <v>6.0779387191958545</v>
       </c>
       <c r="D8" t="n">
-        <v>9.972948990300636E-17</v>
+        <v>6.802454132019388E-9</v>
       </c>
       <c r="E8" t="n">
-        <v>1.9452949359080698E-13</v>
+        <v>1.1294989196637336E-5</v>
       </c>
       <c r="F8" t="n">
-        <v>26.415319853806242</v>
+        <v>9.890016120067243</v>
       </c>
     </row>
     <row r="9">
@@ -562,19 +1180,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2.5838843482653386</v>
+        <v>-11.36525227188093</v>
       </c>
       <c r="C9" t="n">
-        <v>7.47600999790174</v>
+        <v>-5.806670444723033</v>
       </c>
       <c r="D9" t="n">
-        <v>2.9503150564492448E-12</v>
+        <v>2.7298355830240054E-8</v>
       </c>
       <c r="E9" t="n">
-        <v>5.035450222594748E-9</v>
+        <v>3.966109872686002E-5</v>
       </c>
       <c r="F9" t="n">
-        <v>16.970500075434582</v>
+        <v>8.613934281787962</v>
       </c>
     </row>
     <row r="10">
@@ -582,19 +1200,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>-7.6960901694565145</v>
+        <v>-5.768863413476141</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.731060442155419</v>
+        <v>-5.698100174836306</v>
       </c>
       <c r="D10" t="n">
-        <v>2.0407924058887482E-10</v>
+        <v>4.7068502299559776E-8</v>
       </c>
       <c r="E10" t="n">
-        <v>3.0961088344449965E-7</v>
+        <v>6.078635580308702E-5</v>
       </c>
       <c r="F10" t="n">
-        <v>13.080841969998858</v>
+        <v>8.11414988765812</v>
       </c>
     </row>
     <row r="11">
@@ -602,19 +1220,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>2.068922133049847</v>
+        <v>-2.590303226953327</v>
       </c>
       <c r="C11" t="n">
-        <v>6.402702298786954</v>
+        <v>-5.6328212243361016</v>
       </c>
       <c r="D11" t="n">
-        <v>1.2195287363146084E-9</v>
+        <v>6.510145594510943E-8</v>
       </c>
       <c r="E11" t="n">
-        <v>1.6651445365639665E-6</v>
+        <v>6.974820749925428E-5</v>
       </c>
       <c r="F11" t="n">
-        <v>11.440876917724225</v>
+        <v>7.81675158654757</v>
       </c>
     </row>
     <row r="12">
@@ -622,19 +1240,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>3.24477699434864</v>
+        <v>-7.876730178670224</v>
       </c>
       <c r="C12" t="n">
-        <v>6.0405426621415295</v>
+        <v>-5.6300218974867215</v>
       </c>
       <c r="D12" t="n">
-        <v>8.229982208313073E-9</v>
+        <v>6.60096603709711E-8</v>
       </c>
       <c r="E12" t="n">
-        <v>9.883613697340294E-6</v>
+        <v>6.974820749925428E-5</v>
       </c>
       <c r="F12" t="n">
-        <v>9.691189885966716</v>
+        <v>7.804051085863003</v>
       </c>
     </row>
     <row r="13">
@@ -642,19 +1260,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>1.6316675240949707</v>
+        <v>-5.732485089741435</v>
       </c>
       <c r="C13" t="n">
-        <v>6.030113421044927</v>
+        <v>-5.573787501525474</v>
       </c>
       <c r="D13" t="n">
-        <v>8.686345713203717E-9</v>
+        <v>8.710864338851518E-8</v>
       </c>
       <c r="E13" t="n">
-        <v>9.883613697340294E-6</v>
+        <v>8.437198017539267E-5</v>
       </c>
       <c r="F13" t="n">
-        <v>9.641769798908651</v>
+        <v>7.549841796275288</v>
       </c>
     </row>
     <row r="14">
@@ -662,19 +1280,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.506943158708474</v>
+        <v>-5.673807110460237</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.94191093754428</v>
+        <v>-5.5386148590210125</v>
       </c>
       <c r="D14" t="n">
-        <v>1.3678671943605515E-8</v>
+        <v>1.0351346633835234E-7</v>
       </c>
       <c r="E14" t="n">
-        <v>1.4366814362922286E-5</v>
+        <v>9.254900148082071E-5</v>
       </c>
       <c r="F14" t="n">
-        <v>9.2260471634677</v>
+        <v>7.391744288454824</v>
       </c>
     </row>
     <row r="15">
@@ -682,19 +1300,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>3.0059333017108556</v>
+        <v>-6.148410411480229</v>
       </c>
       <c r="C15" t="n">
-        <v>5.743531391390546</v>
+        <v>-5.437009959429387</v>
       </c>
       <c r="D15" t="n">
-        <v>3.7396567420050036E-8</v>
+        <v>1.697077083016413E-7</v>
       </c>
       <c r="E15" t="n">
-        <v>3.6472337968097375E-5</v>
+        <v>1.4089376382785547E-4</v>
       </c>
       <c r="F15" t="n">
-        <v>8.305931797862668</v>
+        <v>6.93898512737851</v>
       </c>
     </row>
     <row r="16">
@@ -702,19 +1320,19 @@
         <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.9032247719463444</v>
+        <v>-5.708527173136455</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.6391834323035965</v>
+        <v>-5.409149589682686</v>
       </c>
       <c r="D16" t="n">
-        <v>6.291290576883278E-8</v>
+        <v>1.941385846043729E-7</v>
       </c>
       <c r="E16" t="n">
-        <v>5.726752102450951E-5</v>
+        <v>1.5043151792377507E-4</v>
       </c>
       <c r="F16" t="n">
-        <v>7.830449829803843</v>
+        <v>6.815871628283656</v>
       </c>
     </row>
     <row r="17">
@@ -722,19 +1340,19 @@
         <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>1.9997327855978746</v>
+        <v>-4.525792394226887</v>
       </c>
       <c r="C17" t="n">
-        <v>5.4686189931411455</v>
+        <v>-5.346519641137995</v>
       </c>
       <c r="D17" t="n">
-        <v>1.4525805319412407E-7</v>
+        <v>2.622307610137796E-7</v>
       </c>
       <c r="E17" t="n">
-        <v>1.2395959114453562E-4</v>
+        <v>1.9049425845394752E-4</v>
       </c>
       <c r="F17" t="n">
-        <v>7.0662528557421815</v>
+        <v>6.54075797611252</v>
       </c>
     </row>
     <row r="18">
@@ -742,19 +1360,19 @@
         <v>21</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.8308691495498737</v>
+        <v>-6.436835596109729</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.440524504962602</v>
+        <v>-5.327541209352366</v>
       </c>
       <c r="D18" t="n">
-        <v>1.6645154043345237E-7</v>
+        <v>2.8710998017532297E-7</v>
       </c>
       <c r="E18" t="n">
-        <v>1.336899607693152E-4</v>
+        <v>1.948519430946869E-4</v>
       </c>
       <c r="F18" t="n">
-        <v>6.94195741624754</v>
+        <v>6.457844210590602</v>
       </c>
     </row>
     <row r="19">
@@ -762,19 +1380,19 @@
         <v>22</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.4450069339582936</v>
+        <v>2.330736130543488</v>
       </c>
       <c r="C19" t="n">
-        <v>-5.344255102662326</v>
+        <v>5.3171028912323814</v>
       </c>
       <c r="D19" t="n">
-        <v>2.6449476850080536E-7</v>
+        <v>3.01758149849812E-7</v>
       </c>
       <c r="E19" t="n">
-        <v>2.0063397606166647E-4</v>
+        <v>1.948519430946869E-4</v>
       </c>
       <c r="F19" t="n">
-        <v>6.519493353903663</v>
+        <v>6.4123310684457095</v>
       </c>
     </row>
     <row r="20">
@@ -782,19 +1400,19 @@
         <v>23</v>
       </c>
       <c r="B20" t="n">
-        <v>-6.938254430910706</v>
+        <v>2.8759246310448576</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.214454088908302</v>
+        <v>5.286735566239179</v>
       </c>
       <c r="D20" t="n">
-        <v>4.895038360419713E-7</v>
+        <v>3.486313636243433E-7</v>
       </c>
       <c r="E20" t="n">
-        <v>3.348802028696533E-4</v>
+        <v>2.1327064944240748E-4</v>
       </c>
       <c r="F20" t="n">
-        <v>5.958470320105398</v>
+        <v>6.280288893437598</v>
       </c>
     </row>
     <row r="21">
@@ -802,19 +1420,19 @@
         <v>24</v>
       </c>
       <c r="B21" t="n">
-        <v>-3.401182437530451</v>
+        <v>-4.636012529959719</v>
       </c>
       <c r="C21" t="n">
-        <v>-5.21401171618876</v>
+        <v>-5.2718855695036915</v>
       </c>
       <c r="D21" t="n">
-        <v>4.905232208432009E-7</v>
+        <v>3.74061218729076E-7</v>
       </c>
       <c r="E21" t="n">
-        <v>3.348802028696533E-4</v>
+        <v>2.1738567726440253E-4</v>
       </c>
       <c r="F21" t="n">
-        <v>5.956575404045234</v>
+        <v>6.215917309007521</v>
       </c>
     </row>
     <row r="22">
@@ -822,19 +1440,19 @@
         <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>3.2440353845882632</v>
+        <v>-6.025625873862706</v>
       </c>
       <c r="C22" t="n">
-        <v>5.173071247586593</v>
+        <v>-5.196275933573566</v>
       </c>
       <c r="D22" t="n">
-        <v>5.943562552700471E-7</v>
+        <v>5.342152533220295E-7</v>
       </c>
       <c r="E22" t="n">
-        <v>3.864447766408201E-4</v>
+        <v>2.920720683376816E-4</v>
       </c>
       <c r="F22" t="n">
-        <v>5.781713658493237</v>
+        <v>5.890203926464666</v>
       </c>
     </row>
     <row r="23">
@@ -842,19 +1460,19 @@
         <v>26</v>
       </c>
       <c r="B23" t="n">
-        <v>1.5298931531717415</v>
+        <v>-8.392948726429426</v>
       </c>
       <c r="C23" t="n">
-        <v>5.104097582747103</v>
+        <v>-5.18896821826293</v>
       </c>
       <c r="D23" t="n">
-        <v>8.19429399711595E-7</v>
+        <v>5.528336490948115E-7</v>
       </c>
       <c r="E23" t="n">
-        <v>5.085676828937326E-4</v>
+        <v>2.920720683376816E-4</v>
       </c>
       <c r="F23" t="n">
-        <v>5.489406289088544</v>
+        <v>5.8589051738333495</v>
       </c>
     </row>
     <row r="24">
@@ -862,19 +1480,19 @@
         <v>27</v>
       </c>
       <c r="B24" t="n">
-        <v>2.05176373381148</v>
+        <v>-5.45517354070097</v>
       </c>
       <c r="C24" t="n">
-        <v>5.023154573188459</v>
+        <v>-5.129603532013122</v>
       </c>
       <c r="D24" t="n">
-        <v>1.189950764911007E-6</v>
+        <v>7.293345946551908E-7</v>
       </c>
       <c r="E24" t="n">
-        <v>7.064168584389082E-4</v>
+        <v>3.6856765189901224E-4</v>
       </c>
       <c r="F24" t="n">
-        <v>5.150075973178975</v>
+        <v>5.605844239120906</v>
       </c>
     </row>
     <row r="25">
@@ -882,19 +1500,19 @@
         <v>28</v>
       </c>
       <c r="B25" t="n">
-        <v>-8.084918650527595</v>
+        <v>-5.530103949076794</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.941409369601012</v>
+        <v>-5.119772582359572</v>
       </c>
       <c r="D25" t="n">
-        <v>1.7271238542577319E-6</v>
+        <v>7.634181044098575E-7</v>
       </c>
       <c r="E25" t="n">
-        <v>9.825895460847946E-4</v>
+        <v>3.6971702614815725E-4</v>
       </c>
       <c r="F25" t="n">
-        <v>4.811495005269446</v>
+        <v>5.564143235627899</v>
       </c>
     </row>
     <row r="26">
@@ -902,19 +1520,19 @@
         <v>29</v>
       </c>
       <c r="B26" t="n">
-        <v>1.7773488958400183</v>
+        <v>2.61739823262187</v>
       </c>
       <c r="C26" t="n">
-        <v>4.921176931496752</v>
+        <v>5.097361703743847</v>
       </c>
       <c r="D26" t="n">
-        <v>1.8927023819194587E-6</v>
+        <v>8.469980315930986E-7</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0010337183329091316</v>
+        <v>3.937863248482634E-4</v>
       </c>
       <c r="F26" t="n">
-        <v>4.7283388004856395</v>
+        <v>5.469301166423188</v>
       </c>
     </row>
     <row r="27">
@@ -922,19 +1540,19 @@
         <v>30</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.8534978245695108</v>
+        <v>-5.783238136867946</v>
       </c>
       <c r="C27" t="n">
-        <v>-4.851749218502959</v>
+        <v>-5.015135496410435</v>
       </c>
       <c r="D27" t="n">
-        <v>2.5860925188493715E-6</v>
+        <v>1.2366779779226514E-6</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0013580964327834354</v>
+        <v>5.528426206690375E-4</v>
       </c>
       <c r="F27" t="n">
-        <v>4.444951581146926</v>
+        <v>5.123966683013229</v>
       </c>
     </row>
     <row r="28">
@@ -942,19 +1560,19 @@
         <v>31</v>
       </c>
       <c r="B28" t="n">
-        <v>-3.00252825661325</v>
+        <v>-5.531156300344081</v>
       </c>
       <c r="C28" t="n">
-        <v>-4.8254838816765435</v>
+        <v>-4.926568172656836</v>
       </c>
       <c r="D28" t="n">
-        <v>2.907870485728903E-6</v>
+        <v>1.8502313536195548E-6</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001470520874523794</v>
+        <v>7.964903341896327E-4</v>
       </c>
       <c r="F28" t="n">
-        <v>4.338540794033701</v>
+        <v>4.756700906693853</v>
       </c>
     </row>
     <row r="29">
@@ -962,19 +1580,19 @@
         <v>32</v>
       </c>
       <c r="B29" t="n">
-        <v>-3.3685125604268125</v>
+        <v>1.631667524094971</v>
       </c>
       <c r="C29" t="n">
-        <v>-4.801134307655711</v>
+        <v>4.885313338099066</v>
       </c>
       <c r="D29" t="n">
-        <v>3.2405357596585503E-6</v>
+        <v>2.2283457308380273E-6</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0015802241165134945</v>
+        <v>9.250022296260854E-4</v>
       </c>
       <c r="F29" t="n">
-        <v>4.2402853759252555</v>
+        <v>4.5873119909212505</v>
       </c>
     </row>
     <row r="30">
@@ -982,19 +1600,19 @@
         <v>33</v>
       </c>
       <c r="B30" t="n">
-        <v>-3.4328254722290876</v>
+        <v>-7.498958905521076</v>
       </c>
       <c r="C30" t="n">
-        <v>-4.709216236194344</v>
+        <v>-4.843983572040622</v>
       </c>
       <c r="D30" t="n">
-        <v>4.860422225697197E-6</v>
+        <v>2.681682302596214E-6</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002288420864471363</v>
+        <v>0.001074799772519855</v>
       </c>
       <c r="F30" t="n">
-        <v>3.8728197267461812</v>
+        <v>4.418699032816409</v>
       </c>
     </row>
     <row r="31">
@@ -1002,19 +1620,19 @@
         <v>34</v>
       </c>
       <c r="B31" t="n">
-        <v>-2.787089596704105</v>
+        <v>-5.0094595463254254</v>
       </c>
       <c r="C31" t="n">
-        <v>-4.545191335472328</v>
+        <v>-4.716098799957163</v>
       </c>
       <c r="D31" t="n">
-        <v>9.880622134870815E-6</v>
+        <v>4.722780681596275E-6</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004490607127454147</v>
+        <v>0.001829762662073117</v>
       </c>
       <c r="F31" t="n">
-        <v>3.2308153548783807</v>
+        <v>3.9039179684747705</v>
       </c>
     </row>
     <row r="32">
@@ -1022,19 +1640,19 @@
         <v>35</v>
       </c>
       <c r="B32" t="n">
-        <v>-2.869987244322871</v>
+        <v>-4.872495073122785</v>
       </c>
       <c r="C32" t="n">
-        <v>-4.53784133379943</v>
+        <v>-4.6268483529769036</v>
       </c>
       <c r="D32" t="n">
-        <v>1.0195460740521353E-5</v>
+        <v>6.965573437934963E-6</v>
       </c>
       <c r="E32" t="n">
-        <v>0.004490607127454147</v>
+        <v>0.0026116406473909058</v>
       </c>
       <c r="F32" t="n">
-        <v>3.202464558650517</v>
+        <v>3.5509653232008684</v>
       </c>
     </row>
     <row r="33">
@@ -1042,19 +1660,19 @@
         <v>36</v>
       </c>
       <c r="B33" t="n">
-        <v>-3.5808336209199316</v>
+        <v>-5.246683696797074</v>
       </c>
       <c r="C33" t="n">
-        <v>-4.508971782827445</v>
+        <v>-4.604355818638011</v>
       </c>
       <c r="D33" t="n">
-        <v>1.1528157848324864E-5</v>
+        <v>7.675782610528891E-6</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004918920851907115</v>
+        <v>0.0027879881650680408</v>
       </c>
       <c r="F33" t="n">
-        <v>3.091457749117584</v>
+        <v>3.462844709684317</v>
       </c>
     </row>
     <row r="34">
@@ -1062,19 +1680,19 @@
         <v>37</v>
       </c>
       <c r="B34" t="n">
-        <v>-2.8388708519818984</v>
+        <v>-5.510397768389689</v>
       </c>
       <c r="C34" t="n">
-        <v>-4.471480748454632</v>
+        <v>-4.580626492318685</v>
       </c>
       <c r="D34" t="n">
-        <v>1.3510716704254575E-5</v>
+        <v>8.500551786522549E-6</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0055391215106074</v>
+        <v>0.002900279383648764</v>
       </c>
       <c r="F34" t="n">
-        <v>2.948136893919525</v>
+        <v>3.37024300460798</v>
       </c>
     </row>
     <row r="35">
@@ -1082,19 +1700,19 @@
         <v>38</v>
       </c>
       <c r="B35" t="n">
-        <v>2.131663875618038</v>
+        <v>-2.568790532605811</v>
       </c>
       <c r="C35" t="n">
-        <v>4.466578117473005</v>
+        <v>-4.577561634049742</v>
       </c>
       <c r="D35" t="n">
-        <v>1.3793037304866825E-5</v>
+        <v>8.61311061984053E-6</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0055391215106074</v>
+        <v>0.002900279383648764</v>
       </c>
       <c r="F35" t="n">
-        <v>2.9294652400594945</v>
+        <v>3.358310003954468</v>
       </c>
     </row>
     <row r="36">
@@ -1102,19 +1720,19 @@
         <v>39</v>
       </c>
       <c r="B36" t="n">
-        <v>1.8936417339107297</v>
+        <v>-5.186231596943515</v>
       </c>
       <c r="C36" t="n">
-        <v>4.455681873256487</v>
+        <v>-4.574325266957354</v>
       </c>
       <c r="D36" t="n">
-        <v>1.4440958970653875E-5</v>
+        <v>8.73352649296281E-6</v>
       </c>
       <c r="E36" t="n">
-        <v>0.005633624393865943</v>
+        <v>0.002900279383648764</v>
       </c>
       <c r="F36" t="n">
-        <v>2.888025182726059</v>
+        <v>3.345716037950977</v>
       </c>
     </row>
     <row r="37">
@@ -1122,19 +1740,19 @@
         <v>40</v>
       </c>
       <c r="B37" t="n">
-        <v>-3.025501593352077</v>
+        <v>-2.872406633292891</v>
       </c>
       <c r="C37" t="n">
-        <v>-4.421479603074945</v>
+        <v>-4.532987623647585</v>
       </c>
       <c r="D37" t="n">
-        <v>1.667031949569817E-5</v>
+        <v>1.0421612326675281E-5</v>
       </c>
       <c r="E37" t="n">
-        <v>0.006322681733173966</v>
+        <v>0.003364733335359633</v>
       </c>
       <c r="F37" t="n">
-        <v>2.7584720697068157</v>
+        <v>3.1854713302118682</v>
       </c>
     </row>
     <row r="38">
@@ -1142,19 +1760,19 @@
         <v>41</v>
       </c>
       <c r="B38" t="n">
-        <v>-3.2634373948206505</v>
+        <v>-4.78357113984107</v>
       </c>
       <c r="C38" t="n">
-        <v>-4.355328676943149</v>
+        <v>-4.507705216269747</v>
       </c>
       <c r="D38" t="n">
-        <v>2.1955246296976228E-5</v>
+        <v>1.1604466718190556E-5</v>
       </c>
       <c r="E38" t="n">
-        <v>0.008102079268619281</v>
+        <v>0.003570692676640953</v>
       </c>
       <c r="F38" t="n">
-        <v>2.510166836038472</v>
+        <v>3.0880297657266915</v>
       </c>
     </row>
     <row r="39">
@@ -1162,19 +1780,19 @@
         <v>42</v>
       </c>
       <c r="B39" t="n">
-        <v>-5.554602769883088</v>
+        <v>-3.426881228762002</v>
       </c>
       <c r="C39" t="n">
-        <v>-4.334894218798177</v>
+        <v>-4.506298321150865</v>
       </c>
       <c r="D39" t="n">
-        <v>2.3889977658738076E-5</v>
+        <v>1.1673950074193945E-5</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00858404618295815</v>
+        <v>0.003570692676640953</v>
       </c>
       <c r="F39" t="n">
-        <v>2.43407093063548</v>
+        <v>3.082620061732193</v>
       </c>
     </row>
     <row r="40">
@@ -1182,19 +1800,19 @@
         <v>43</v>
       </c>
       <c r="B40" t="n">
-        <v>1.4820777709113042</v>
+        <v>1.9515950536610691</v>
       </c>
       <c r="C40" t="n">
-        <v>4.297568512103029</v>
+        <v>4.341905054415615</v>
       </c>
       <c r="D40" t="n">
-        <v>2.7853840940888213E-5</v>
+        <v>2.3233264655398504E-5</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00953356042124822</v>
+        <v>0.006918141024941621</v>
       </c>
       <c r="F40" t="n">
-        <v>2.295818117887551</v>
+        <v>2.4597744135744577</v>
       </c>
     </row>
     <row r="41">
@@ -1202,19 +1820,19 @@
         <v>44</v>
       </c>
       <c r="B41" t="n">
-        <v>-4.3476240095093575</v>
+        <v>2.1681842969054705</v>
       </c>
       <c r="C41" t="n">
-        <v>-4.296911284784301</v>
+        <v>4.3242454562247925</v>
       </c>
       <c r="D41" t="n">
-        <v>2.7928989076455894E-5</v>
+        <v>2.4988273802916553E-5</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00953356042124822</v>
+        <v>0.006918141024941621</v>
       </c>
       <c r="F41" t="n">
-        <v>2.293392420566743</v>
+        <v>2.3939699156700733</v>
       </c>
     </row>
     <row r="42">
@@ -1222,19 +1840,19 @@
         <v>45</v>
       </c>
       <c r="B42" t="n">
-        <v>-4.19331472386184</v>
+        <v>-5.290525566872536</v>
       </c>
       <c r="C42" t="n">
-        <v>-4.2810977463163695</v>
+        <v>-4.32186809026756</v>
       </c>
       <c r="D42" t="n">
-        <v>2.9796827606035983E-5</v>
+        <v>2.5234029752544994E-5</v>
       </c>
       <c r="E42" t="n">
-        <v>0.009757848806112109</v>
+        <v>0.006918141024941621</v>
       </c>
       <c r="F42" t="n">
-        <v>2.235118176865038</v>
+        <v>2.385127697053438</v>
       </c>
     </row>
     <row r="43">
@@ -1242,19 +1860,19 @@
         <v>46</v>
       </c>
       <c r="B43" t="n">
-        <v>-2.478662588964534</v>
+        <v>-5.15244378078306</v>
       </c>
       <c r="C43" t="n">
-        <v>-4.279310110178516</v>
+        <v>-4.320260117398116</v>
       </c>
       <c r="D43" t="n">
-        <v>3.0015354464384693E-5</v>
+        <v>2.5401563188367262E-5</v>
       </c>
       <c r="E43" t="n">
-        <v>0.009757848806112109</v>
+        <v>0.006918141024941621</v>
       </c>
       <c r="F43" t="n">
-        <v>2.2285415184714594</v>
+        <v>2.379149330286067</v>
       </c>
     </row>
     <row r="44">
@@ -1262,19 +1880,19 @@
         <v>47</v>
       </c>
       <c r="B44" t="n">
-        <v>1.117003077578252</v>
+        <v>-4.819534950051663</v>
       </c>
       <c r="C44" t="n">
-        <v>4.2611851166437225</v>
+        <v>-4.31842480630361</v>
       </c>
       <c r="D44" t="n">
-        <v>3.231948353672909E-5</v>
+        <v>2.5594086214616683E-5</v>
       </c>
       <c r="E44" t="n">
-        <v>0.010262563446755791</v>
+        <v>0.006918141024941621</v>
       </c>
       <c r="F44" t="n">
-        <v>2.1619858598506063</v>
+        <v>2.3723279224134988</v>
       </c>
     </row>
     <row r="45">
@@ -1282,19 +1900,19 @@
         <v>48</v>
       </c>
       <c r="B45" t="n">
-        <v>1.9322469425721556</v>
+        <v>-5.243991408170942</v>
       </c>
       <c r="C45" t="n">
-        <v>4.255203299491565</v>
+        <v>-4.298622285282524</v>
       </c>
       <c r="D45" t="n">
-        <v>3.311641852230654E-5</v>
+        <v>2.77623557277178E-5</v>
       </c>
       <c r="E45" t="n">
-        <v>0.010276626784172125</v>
+        <v>0.007333678650528728</v>
       </c>
       <c r="F45" t="n">
-        <v>2.140070661989162</v>
+        <v>2.2988755046735445</v>
       </c>
     </row>
     <row r="46">
@@ -1302,19 +1920,19 @@
         <v>49</v>
       </c>
       <c r="B46" t="n">
-        <v>1.2658629816298637</v>
+        <v>-3.698157448735208</v>
       </c>
       <c r="C46" t="n">
-        <v>4.211333080576168</v>
+        <v>-4.28884241708876</v>
       </c>
       <c r="D46" t="n">
-        <v>3.956348644704614E-5</v>
+        <v>2.889710370891631E-5</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0118271072427821</v>
+        <v>0.007463800809082984</v>
       </c>
       <c r="F46" t="n">
-        <v>1.9801109249544186</v>
+        <v>2.2627001716358155</v>
       </c>
     </row>
     <row r="47">
@@ -1322,19 +1940,19 @@
         <v>50</v>
       </c>
       <c r="B47" t="n">
-        <v>2.1398611278004047</v>
+        <v>-5.159414798773112</v>
       </c>
       <c r="C47" t="n">
-        <v>4.2095759228029515</v>
+        <v>-4.270726443524124</v>
       </c>
       <c r="D47" t="n">
-        <v>3.9845241919435814E-5</v>
+        <v>3.111753505682217E-5</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0118271072427821</v>
+        <v>0.007862589347074872</v>
       </c>
       <c r="F47" t="n">
-        <v>1.9737320752744374</v>
+        <v>2.195866060791179</v>
       </c>
     </row>
     <row r="48">
@@ -1342,19 +1960,19 @@
         <v>51</v>
       </c>
       <c r="B48" t="n">
-        <v>2.276133756200538</v>
+        <v>-4.3507317595112</v>
       </c>
       <c r="C48" t="n">
-        <v>4.190701728878009</v>
+        <v>-4.253162758711971</v>
       </c>
       <c r="D48" t="n">
-        <v>4.299525365961677E-5</v>
+        <v>3.342570433382183E-5</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0124905785844342</v>
+        <v>0.00826610556323428</v>
       </c>
       <c r="F48" t="n">
-        <v>1.9053517327389624</v>
+        <v>2.1312883694499547</v>
       </c>
     </row>
     <row r="49">
@@ -1362,19 +1980,19 @@
         <v>52</v>
       </c>
       <c r="B49" t="n">
-        <v>-3.7663524406071973</v>
+        <v>3.244035384588255</v>
       </c>
       <c r="C49" t="n">
-        <v>-4.167752516005167</v>
+        <v>4.22204175032559</v>
       </c>
       <c r="D49" t="n">
-        <v>4.714670759611068E-5</v>
+        <v>3.7923793897662985E-5</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01341127386494365</v>
+        <v>0.009085663671576953</v>
       </c>
       <c r="F49" t="n">
-        <v>1.8225459771405585</v>
+        <v>2.01739440815075</v>
       </c>
     </row>
     <row r="50">
@@ -1382,19 +2000,19 @@
         <v>53</v>
       </c>
       <c r="B50" t="n">
-        <v>-3.637392353938854</v>
+        <v>-5.0796012012273755</v>
       </c>
       <c r="C50" t="n">
-        <v>-4.156707688460947</v>
+        <v>-4.21958109898142</v>
       </c>
       <c r="D50" t="n">
-        <v>4.927870520652758E-5</v>
+        <v>3.830315064159603E-5</v>
       </c>
       <c r="E50" t="n">
-        <v>0.013731662058978114</v>
+        <v>0.009085663671576953</v>
       </c>
       <c r="F50" t="n">
-        <v>1.7828264607251691</v>
+        <v>2.0084181581338303</v>
       </c>
     </row>
     <row r="51">
@@ -1402,19 +2020,19 @@
         <v>54</v>
       </c>
       <c r="B51" t="n">
-        <v>1.2444027623855067</v>
+        <v>-5.542569668720657</v>
       </c>
       <c r="C51" t="n">
-        <v>4.101834391438891</v>
+        <v>-4.184243617172287</v>
       </c>
       <c r="D51" t="n">
-        <v>6.130976181543401E-5</v>
+        <v>4.4168077580500293E-5</v>
       </c>
       <c r="E51" t="n">
-        <v>0.016662233572220183</v>
+        <v>0.0102673113143631</v>
       </c>
       <c r="F51" t="n">
-        <v>1.586773633872813</v>
+        <v>1.8799807414486116</v>
       </c>
     </row>
     <row r="52">
@@ -1422,19 +2040,19 @@
         <v>55</v>
       </c>
       <c r="B52" t="n">
-        <v>-4.45967841260911</v>
+        <v>-3.5343288124145857</v>
       </c>
       <c r="C52" t="n">
-        <v>-4.098046833417416</v>
+        <v>-4.1752314968573785</v>
       </c>
       <c r="D52" t="n">
-        <v>6.223626132878491E-5</v>
+        <v>4.579592715791081E-5</v>
       </c>
       <c r="E52" t="n">
-        <v>0.016662233572220183</v>
+        <v>0.010436981595223478</v>
       </c>
       <c r="F52" t="n">
-        <v>1.573320410707007</v>
+        <v>1.8473665186524144</v>
       </c>
     </row>
     <row r="53">
@@ -1442,19 +2060,19 @@
         <v>56</v>
       </c>
       <c r="B53" t="n">
-        <v>1.4878380450456996</v>
+        <v>-5.034194589292567</v>
       </c>
       <c r="C53" t="n">
-        <v>4.06019618392426</v>
+        <v>-4.120010573962577</v>
       </c>
       <c r="D53" t="n">
-        <v>7.225936209143133E-5</v>
+        <v>5.709431424647853E-5</v>
       </c>
       <c r="E53" t="n">
-        <v>0.018973640961469296</v>
+        <v>0.012761677201669614</v>
       </c>
       <c r="F53" t="n">
-        <v>1.4394401188763748</v>
+        <v>1.6487847339727804</v>
       </c>
     </row>
     <row r="54">
@@ -1462,19 +2080,19 @@
         <v>57</v>
       </c>
       <c r="B54" t="n">
-        <v>-3.5011679422904294</v>
+        <v>-3.704688049516925</v>
       </c>
       <c r="C54" t="n">
-        <v>-4.038091717850812</v>
+        <v>-4.099065948626348</v>
       </c>
       <c r="D54" t="n">
-        <v>7.880607535252949E-5</v>
+        <v>6.203960488346927E-5</v>
       </c>
       <c r="E54" t="n">
-        <v>0.020096163052931302</v>
+        <v>0.013605402406803082</v>
       </c>
       <c r="F54" t="n">
-        <v>1.3617302792991088</v>
+        <v>1.5740334862131151</v>
       </c>
     </row>
     <row r="55">
@@ -1482,19 +2100,19 @@
         <v>58</v>
       </c>
       <c r="B55" t="n">
-        <v>2.413867018339301</v>
+        <v>-4.593494109818955</v>
       </c>
       <c r="C55" t="n">
-        <v>4.035922951454972</v>
+        <v>-4.0912188919810815</v>
       </c>
       <c r="D55" t="n">
-        <v>7.947801412467338E-5</v>
+        <v>6.39956074116813E-5</v>
       </c>
       <c r="E55" t="n">
-        <v>0.020096163052931302</v>
+        <v>0.01377446194344392</v>
       </c>
       <c r="F55" t="n">
-        <v>1.3541247527672127</v>
+        <v>1.5461082032989797</v>
       </c>
     </row>
     <row r="56">
@@ -1502,19 +2120,19 @@
         <v>59</v>
       </c>
       <c r="B56" t="n">
-        <v>2.2621133599161345</v>
+        <v>1.505791901204861</v>
       </c>
       <c r="C56" t="n">
-        <v>4.011535563093767</v>
+        <v>4.076899772327981</v>
       </c>
       <c r="D56" t="n">
-        <v>8.741957904297385E-5</v>
+        <v>6.771749749229137E-5</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02156232101015702</v>
+        <v>0.014310554060961864</v>
       </c>
       <c r="F56" t="n">
-        <v>1.2688353473769451</v>
+        <v>1.4952645846322143</v>
       </c>
     </row>
     <row r="57">
@@ -1522,19 +2140,19 @@
         <v>60</v>
       </c>
       <c r="B57" t="n">
-        <v>-4.043035551387284</v>
+        <v>-4.2532266017737905</v>
       </c>
       <c r="C57" t="n">
-        <v>-4.008571205734607</v>
+        <v>-4.051748009739511</v>
       </c>
       <c r="D57" t="n">
-        <v>8.843488915839996E-5</v>
+        <v>7.476013769572423E-5</v>
       </c>
       <c r="E57" t="n">
-        <v>0.02156232101015702</v>
+        <v>0.015516733579239333</v>
       </c>
       <c r="F57" t="n">
-        <v>1.258497430653927</v>
+        <v>1.406313563082902</v>
       </c>
     </row>
     <row r="58">
@@ -1542,19 +2160,19 @@
         <v>61</v>
       </c>
       <c r="B58" t="n">
-        <v>-2.5278852963643605</v>
+        <v>-3.6942431437490675</v>
       </c>
       <c r="C58" t="n">
-        <v>-4.002575015232297</v>
+        <v>-4.033221838677574</v>
       </c>
       <c r="D58" t="n">
-        <v>9.052305554266408E-5</v>
+        <v>8.038849264254517E-5</v>
       </c>
       <c r="E58" t="n">
-        <v>0.021684242111921673</v>
+        <v>0.016392200876917586</v>
       </c>
       <c r="F58" t="n">
-        <v>1.237605698345507</v>
+        <v>1.3410858640393872</v>
       </c>
     </row>
     <row r="59">
@@ -1562,19 +2180,19 @@
         <v>62</v>
       </c>
       <c r="B59" t="n">
-        <v>2.1000517637386973</v>
+        <v>-2.843821512085075</v>
       </c>
       <c r="C59" t="n">
-        <v>3.9720833654693393</v>
+        <v>-4.0146587872738655</v>
       </c>
       <c r="D59" t="n">
-        <v>1.0188856247324167E-4</v>
+        <v>8.643164033979107E-5</v>
       </c>
       <c r="E59" t="n">
-        <v>0.02398597296568348</v>
+        <v>0.017320602683955025</v>
       </c>
       <c r="F59" t="n">
-        <v>1.1317704611351935</v>
+        <v>1.2759769916425263</v>
       </c>
     </row>
     <row r="60">
@@ -1582,19 +2200,19 @@
         <v>63</v>
       </c>
       <c r="B60" t="n">
-        <v>-3.45139648489698</v>
+        <v>-3.1520045887444827</v>
       </c>
       <c r="C60" t="n">
-        <v>-3.959928637662194</v>
+        <v>-3.9833531973086624</v>
       </c>
       <c r="D60" t="n">
-        <v>1.067873164660685E-4</v>
+        <v>9.761473915538194E-5</v>
       </c>
       <c r="E60" t="n">
-        <v>0.024713118966571176</v>
+        <v>0.01923010361361024</v>
       </c>
       <c r="F60" t="n">
-        <v>1.0897699800814706</v>
+        <v>1.1667400086191257</v>
       </c>
     </row>
     <row r="61">
@@ -1602,19 +2220,19 @@
         <v>64</v>
       </c>
       <c r="B61" t="n">
-        <v>-3.173842514383391</v>
+        <v>-3.1567202962719634</v>
       </c>
       <c r="C61" t="n">
-        <v>-3.9500985015213472</v>
+        <v>-3.9531324831919266</v>
       </c>
       <c r="D61" t="n">
-        <v>1.10912225807947E-4</v>
+        <v>1.0970701887326318E-4</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02523992551969514</v>
+        <v>0.02106482652233135</v>
       </c>
       <c r="F61" t="n">
-        <v>1.0558806863817178</v>
+        <v>1.0619646865866663</v>
       </c>
     </row>
     <row r="62">
@@ -1622,19 +2240,19 @@
         <v>65</v>
       </c>
       <c r="B62" t="n">
-        <v>-3.4687051487338936</v>
+        <v>-4.194943387446474</v>
       </c>
       <c r="C62" t="n">
-        <v>-3.882984015156503</v>
+        <v>-3.9471484990169987</v>
       </c>
       <c r="D62" t="n">
-        <v>1.4339691652337773E-4</v>
+        <v>1.1226466902235723E-4</v>
       </c>
       <c r="E62" t="n">
-        <v>0.032097401610003275</v>
+        <v>0.02106482652233135</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8263897179611801</v>
+        <v>1.0412972113120027</v>
       </c>
     </row>
     <row r="63">
@@ -1642,19 +2260,19 @@
         <v>66</v>
       </c>
       <c r="B63" t="n">
-        <v>-3.1388889437620398</v>
+        <v>-4.707336364880686</v>
       </c>
       <c r="C63" t="n">
-        <v>-3.8771271955435918</v>
+        <v>-3.946916243227919</v>
       </c>
       <c r="D63" t="n">
-        <v>1.4662479511250208E-4</v>
+        <v>1.1236507307790964E-4</v>
       </c>
       <c r="E63" t="n">
-        <v>0.03229056374945328</v>
+        <v>0.02106482652233135</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8065195559067888</v>
+        <v>1.0404955740727528</v>
       </c>
     </row>
     <row r="64">
@@ -1662,19 +2280,19 @@
         <v>67</v>
       </c>
       <c r="B64" t="n">
-        <v>1.954505883140522</v>
+        <v>-4.092077781149355</v>
       </c>
       <c r="C64" t="n">
-        <v>3.795678671540763</v>
+        <v>-3.938235577503037</v>
       </c>
       <c r="D64" t="n">
-        <v>1.9930412456466154E-4</v>
+        <v>1.1617955281471367E-4</v>
       </c>
       <c r="E64" t="n">
-        <v>0.04319521455247442</v>
+        <v>0.02136082083924472</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5328165093169783</v>
+        <v>1.0105623020050585</v>
       </c>
     </row>
     <row r="65">
@@ -1682,19 +2300,19 @@
         <v>68</v>
       </c>
       <c r="B65" t="n">
-        <v>-4.2660738687963295</v>
+        <v>-4.898316415695568</v>
       </c>
       <c r="C65" t="n">
-        <v>-3.787899741182778</v>
+        <v>-3.935028759021351</v>
       </c>
       <c r="D65" t="n">
-        <v>2.0518099434041357E-4</v>
+        <v>1.1761959336760407E-4</v>
       </c>
       <c r="E65" t="n">
-        <v>0.04377408276131261</v>
+        <v>0.02136082083924472</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5069330136246455</v>
+        <v>0.9995182721325575</v>
       </c>
     </row>
     <row r="66">
@@ -1702,19 +2320,19 @@
         <v>69</v>
       </c>
       <c r="B66" t="n">
-        <v>-3.408956899431164</v>
+        <v>-4.321080252683708</v>
       </c>
       <c r="C66" t="n">
-        <v>-3.7796162096186947</v>
+        <v>-3.8817287751687752</v>
       </c>
       <c r="D66" t="n">
-        <v>2.1161930565029034E-4</v>
+        <v>1.4418619131986133E-4</v>
       </c>
       <c r="E66" t="n">
-        <v>0.04445307691306253</v>
+        <v>0.02578270925708843</v>
       </c>
       <c r="F66" t="n">
-        <v>0.479420016934732</v>
+        <v>0.8170621501679349</v>
       </c>
     </row>
     <row r="67">
@@ -1722,19 +2340,19 @@
         <v>70</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0974304174485963</v>
+        <v>-2.8103210121154665</v>
       </c>
       <c r="C67" t="n">
-        <v>3.769839358753501</v>
+        <v>-3.8608423588091876</v>
       </c>
       <c r="D67" t="n">
-        <v>2.194643674686213E-4</v>
+        <v>1.5607585825999434E-4</v>
       </c>
       <c r="E67" t="n">
-        <v>0.04488100393847775</v>
+        <v>0.027485904553877484</v>
       </c>
       <c r="F67" t="n">
-        <v>0.44701286125570583</v>
+        <v>0.7461342603275058</v>
       </c>
     </row>
     <row r="68">
@@ -1742,19 +2360,19 @@
         <v>71</v>
       </c>
       <c r="B68" t="n">
-        <v>-3.6918284393326815</v>
+        <v>-3.8185367696194947</v>
       </c>
       <c r="C68" t="n">
-        <v>-3.766601776722582</v>
+        <v>-3.8476888671112506</v>
       </c>
       <c r="D68" t="n">
-        <v>2.2212235244878416E-4</v>
+        <v>1.6403474545728197E-4</v>
       </c>
       <c r="E68" t="n">
-        <v>0.04488100393847775</v>
+        <v>0.028456355917164007</v>
       </c>
       <c r="F68" t="n">
-        <v>0.436297012680801</v>
+        <v>0.7016319407240879</v>
       </c>
     </row>
     <row r="69">
@@ -1762,19 +2380,19 @@
         <v>72</v>
       </c>
       <c r="B69" t="n">
-        <v>2.4627454346209086</v>
+        <v>1.3523485652149456</v>
       </c>
       <c r="C69" t="n">
-        <v>3.764917020610212</v>
+        <v>3.826593206576165</v>
       </c>
       <c r="D69" t="n">
-        <v>2.2351752364263127E-4</v>
+        <v>1.7760817426816795E-4</v>
       </c>
       <c r="E69" t="n">
-        <v>0.04488100393847775</v>
+        <v>0.03035793837527818</v>
       </c>
       <c r="F69" t="n">
-        <v>0.43072384855947554</v>
+        <v>0.6305264197919591</v>
       </c>
     </row>
     <row r="70">
@@ -1782,19 +2400,19 @@
         <v>73</v>
       </c>
       <c r="B70" t="n">
-        <v>1.0753307090651527</v>
+        <v>-2.5548725668165178</v>
       </c>
       <c r="C70" t="n">
-        <v>3.7531746596664224</v>
+        <v>-3.7977791835342485</v>
       </c>
       <c r="D70" t="n">
-        <v>2.3347434504594275E-4</v>
+        <v>1.9787576479218924E-4</v>
       </c>
       <c r="E70" t="n">
-        <v>0.046200850829815975</v>
+        <v>0.03333202919100892</v>
       </c>
       <c r="F70" t="n">
-        <v>0.39193903707336997</v>
+        <v>0.5339393140629962</v>
       </c>
     </row>
     <row r="71">
@@ -1802,19 +2420,19 @@
         <v>74</v>
       </c>
       <c r="B71" t="n">
-        <v>2.2936061947002226</v>
+        <v>-4.133972838672674</v>
       </c>
       <c r="C71" t="n">
-        <v>3.7420739116560773</v>
+        <v>-3.7828221143660716</v>
       </c>
       <c r="D71" t="n">
-        <v>2.4327173870628124E-4</v>
+        <v>2.0924176126832047E-4</v>
       </c>
       <c r="E71" t="n">
-        <v>0.04745189028993663</v>
+        <v>0.034743099874595555</v>
       </c>
       <c r="F71" t="n">
-        <v>0.35536821766678095</v>
+        <v>0.4840457501251949</v>
       </c>
     </row>
     <row r="72">
@@ -1822,19 +2440,239 @@
         <v>75</v>
       </c>
       <c r="B72" t="n">
-        <v>-2.5535787128405216</v>
+        <v>-2.1986294618904756</v>
       </c>
       <c r="C72" t="n">
-        <v>-3.73476208773484</v>
+        <v>-3.775135829154539</v>
       </c>
       <c r="D72" t="n">
-        <v>2.4993610019412174E-4</v>
+        <v>2.1532041368752168E-4</v>
       </c>
       <c r="E72" t="n">
-        <v>0.04806517622606392</v>
+        <v>0.03524886152521217</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3313301781788134</v>
+        <v>0.45847092016910906</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1.1852517391907538</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3.7664355827003306</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.2240255449390976E-4</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.03590256792892657</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.42957558938929985</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-4.196438354434217</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-3.7410832969725494</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.4431797582807744E-4</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.03890010730205129</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.34569861209268815</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-4.029608939660801</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-3.699514851437985</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.847273337495699E-4</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.04472142973204393</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.20921606059744668</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-4.638308693316341</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-3.694517263531691</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.899902216850898E-4</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.04494075128861064</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.19289505498460802</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-4.073586109580233</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-3.6845969366893754</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3.007105218569485E-4</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.04550470211433082</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.16055337339493914</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-4.109257812392009</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-3.683916521325249</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3.014593532481694E-4</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.04550470211433082</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.15833784795647254</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-3.786231887407058</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-3.678813848241665</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3.0713146718052087E-4</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.045766526192810186</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.14173400575652284</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2.8056136877979556</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.6697267771670288</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3.174828785596646E-4</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.04628426240512662</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.11221392238949868</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-5.043515555887981</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-3.6687885825810804</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3.185701619556164E-4</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.04628426240512662</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.10916968278044159</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-3.428164709677021</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-3.6500584984535585</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3.4102597055099077E-4</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.04893512167548353</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0485342350561595</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-2.1973092106250287</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-3.6424150523873955</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3.5061197341638685E-4</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.04969710935388615</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.023866385746029728</v>
       </c>
     </row>
   </sheetData>
@@ -1853,281 +2691,2725 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="L1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="M1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="N1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="O1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="D2" t="n">
-        <v>4.916895530980572E-5</v>
+        <v>9.353705575657461E-4</v>
       </c>
       <c r="E2" t="n">
+        <v>820.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G2" t="n">
         <v>22.0</v>
       </c>
-      <c r="F2" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6.0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.026829268292682926</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K2" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="L2" t="s">
-        <v>103</v>
+        <v>222</v>
       </c>
       <c r="M2" t="n">
-        <v>12925.0</v>
+        <v>11137.0</v>
       </c>
       <c r="N2" t="n">
-        <v>3523.0</v>
+        <v>2890.0</v>
       </c>
       <c r="O2" t="s">
-        <v>108</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="D3" t="n">
-        <v>0.006362487092166204</v>
+        <v>0.0010276502912545894</v>
       </c>
       <c r="E3" t="n">
-        <v>10.0</v>
+        <v>212.0</v>
       </c>
       <c r="F3" t="n">
-        <v>66.0</v>
+        <v>77.0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.15584415584415584</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="K3" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="L3" t="s">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c r="M3" t="n">
-        <v>12925.0</v>
+        <v>11137.0</v>
       </c>
       <c r="N3" t="n">
-        <v>2309.0</v>
+        <v>1089.0</v>
       </c>
       <c r="O3" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0068195588372735915</v>
+        <v>0.0036386893997235664</v>
       </c>
       <c r="E4" t="n">
-        <v>164.0</v>
+        <v>7.0</v>
       </c>
       <c r="F4" t="n">
-        <v>66.0</v>
+        <v>77.0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.13636363636363635</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="I4" t="n">
-        <v>0.054878048780487805</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="K4" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="L4" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="M4" t="n">
-        <v>12925.0</v>
+        <v>11137.0</v>
       </c>
       <c r="N4" t="n">
-        <v>425.0</v>
+        <v>22161.0</v>
       </c>
       <c r="O4" t="s">
-        <v>109</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009034227088063387</v>
+        <v>0.004016392514918138</v>
       </c>
       <c r="E5" t="n">
-        <v>224.0</v>
+        <v>17.0</v>
       </c>
       <c r="F5" t="n">
-        <v>66.0</v>
+        <v>77.0</v>
       </c>
       <c r="G5" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.15151515151515152</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="I5" t="n">
-        <v>0.044642857142857144</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="J5" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="K5" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="L5" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="M5" t="n">
-        <v>12925.0</v>
+        <v>11137.0</v>
       </c>
       <c r="N5" t="n">
-        <v>3027.0</v>
+        <v>1101.0</v>
       </c>
       <c r="O5" t="s">
-        <v>110</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="D6" t="n">
-        <v>0.012774369316828635</v>
+        <v>0.006194714797113494</v>
       </c>
       <c r="E6" t="n">
         <v>86.0</v>
       </c>
       <c r="F6" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1038961038961039</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.09302325581395349</v>
+      </c>
+      <c r="J6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" t="s">
+        <v>217</v>
+      </c>
+      <c r="L6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1346.0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00807425740702436</v>
+      </c>
+      <c r="E7" t="n">
+        <v>553.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.22077922077922077</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.03074141048824593</v>
+      </c>
+      <c r="J7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M7" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>22010.0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00899021676353098</v>
+      </c>
+      <c r="E8" t="n">
+        <v>851.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.024676850763807285</v>
+      </c>
+      <c r="J8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" t="s">
+        <v>217</v>
+      </c>
+      <c r="L8" t="s">
+        <v>228</v>
+      </c>
+      <c r="M8" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12795.0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.010308698235127518</v>
+      </c>
+      <c r="E9" t="n">
+        <v>432.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.19480519480519481</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.034722222222222224</v>
+      </c>
+      <c r="J9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" t="s">
+        <v>217</v>
+      </c>
+      <c r="L9" t="s">
+        <v>229</v>
+      </c>
+      <c r="M9" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13129.0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.012925594001751965</v>
+      </c>
+      <c r="E10" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.06493506493506493</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="J10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K10" t="s">
+        <v>217</v>
+      </c>
+      <c r="L10" t="s">
+        <v>230</v>
+      </c>
+      <c r="M10" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>16811.0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0129823691559178</v>
+      </c>
+      <c r="E11" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.16883116883116883</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.040498442367601244</v>
+      </c>
+      <c r="J11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" t="s">
+        <v>217</v>
+      </c>
+      <c r="L11" t="s">
+        <v>231</v>
+      </c>
+      <c r="M11" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>907.0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.016536592246160792</v>
+      </c>
+      <c r="E12" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.12987012987012986</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.056818181818181816</v>
+      </c>
+      <c r="J12" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" t="s">
+        <v>217</v>
+      </c>
+      <c r="L12" t="s">
+        <v>232</v>
+      </c>
+      <c r="M12" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1106.0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.017109915365875753</v>
+      </c>
+      <c r="E13" t="n">
+        <v>805.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.2597402597402597</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.024844720496894408</v>
+      </c>
+      <c r="J13" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" t="s">
+        <v>217</v>
+      </c>
+      <c r="L13" t="s">
+        <v>233</v>
+      </c>
+      <c r="M13" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2887.0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.018897696121850438</v>
+      </c>
+      <c r="E14" t="n">
+        <v>810.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2597402597402597</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.024691358024691357</v>
+      </c>
+      <c r="J14" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14" t="s">
+        <v>234</v>
+      </c>
+      <c r="M14" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1323.0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.026564732229127287</v>
+      </c>
+      <c r="E15" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.06493506493506493</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="J15" t="s">
+        <v>173</v>
+      </c>
+      <c r="K15" t="s">
+        <v>217</v>
+      </c>
+      <c r="L15" t="s">
+        <v>235</v>
+      </c>
+      <c r="M15" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>19449.0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.026564732229127287</v>
+      </c>
+      <c r="E16" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.06493506493506493</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="J16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" t="s">
+        <v>217</v>
+      </c>
+      <c r="L16" t="s">
+        <v>236</v>
+      </c>
+      <c r="M16" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>551.0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.02946472206649832</v>
+      </c>
+      <c r="E17" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.07792207792207792</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s">
+        <v>217</v>
+      </c>
+      <c r="L17" t="s">
+        <v>237</v>
+      </c>
+      <c r="M17" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>14497.0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.03097249046736977</v>
+      </c>
+      <c r="E18" t="n">
+        <v>757.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.24675324675324675</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.02509907529722589</v>
+      </c>
+      <c r="J18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" t="s">
+        <v>217</v>
+      </c>
+      <c r="L18" t="s">
+        <v>238</v>
+      </c>
+      <c r="M18" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>16071.0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.03097249046736977</v>
+      </c>
+      <c r="E19" t="n">
+        <v>757.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.24675324675324675</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.02509907529722589</v>
+      </c>
+      <c r="J19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
+        <v>217</v>
+      </c>
+      <c r="L19" t="s">
+        <v>239</v>
+      </c>
+      <c r="M19" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>12207.0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.033331909120884295</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1361.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.33766233766233766</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.019103600293901544</v>
+      </c>
+      <c r="J20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s">
+        <v>217</v>
+      </c>
+      <c r="L20" t="s">
+        <v>240</v>
+      </c>
+      <c r="M20" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3979.0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.03359388581802257</v>
+      </c>
+      <c r="E21" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>217</v>
+      </c>
+      <c r="L21" t="s">
+        <v>241</v>
+      </c>
+      <c r="M21" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2893.0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.035528563683974106</v>
+      </c>
+      <c r="E22" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0945945945945946</v>
+      </c>
+      <c r="J22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" t="s">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s">
+        <v>242</v>
+      </c>
+      <c r="M22" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1458.0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0396406678458247</v>
+      </c>
+      <c r="E23" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.19480519480519481</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="J23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" t="s">
+        <v>217</v>
+      </c>
+      <c r="L23" t="s">
+        <v>243</v>
+      </c>
+      <c r="M23" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>15328.0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.040445923260308284</v>
+      </c>
+      <c r="E24" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.15584415584415584</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.04040404040404041</v>
+      </c>
+      <c r="J24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" t="s">
+        <v>217</v>
+      </c>
+      <c r="L24" t="s">
+        <v>244</v>
+      </c>
+      <c r="M24" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15330.0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.04159711586605356</v>
+      </c>
+      <c r="E25" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.045081967213114756</v>
+      </c>
+      <c r="J25" t="s">
+        <v>183</v>
+      </c>
+      <c r="K25" t="s">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s">
+        <v>245</v>
+      </c>
+      <c r="M25" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>905.0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.048812189391741465</v>
+      </c>
+      <c r="E26" t="n">
+        <v>780.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.24675324675324675</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.02435897435897436</v>
+      </c>
+      <c r="J26" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" t="s">
+        <v>217</v>
+      </c>
+      <c r="L26" t="s">
+        <v>246</v>
+      </c>
+      <c r="M26" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3981.0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.197322784149194E-14</v>
+      </c>
+      <c r="E27" t="n">
+        <v>397.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.33766233766233766</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0654911838790932</v>
+      </c>
+      <c r="J27" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" t="s">
+        <v>247</v>
+      </c>
+      <c r="M27" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.623849584508327E-13</v>
+      </c>
+      <c r="E28" t="n">
+        <v>599.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.37662337662337664</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.048414023372287146</v>
+      </c>
+      <c r="J28" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" t="s">
+        <v>248</v>
+      </c>
+      <c r="M28" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9.725321682469129E-6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>353.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.22077922077922077</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.04815864022662889</v>
+      </c>
+      <c r="J29" t="s">
+        <v>187</v>
+      </c>
+      <c r="K29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29" t="s">
+        <v>249</v>
+      </c>
+      <c r="M29" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N29" t="n">
         <v>66.0</v>
       </c>
-      <c r="G6" t="n">
+      <c r="O29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9.725321682469129E-6</v>
+      </c>
+      <c r="E30" t="n">
+        <v>353.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.22077922077922077</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.04815864022662889</v>
+      </c>
+      <c r="J30" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" t="s">
+        <v>218</v>
+      </c>
+      <c r="L30" t="s">
+        <v>250</v>
+      </c>
+      <c r="M30" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>408.0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.8610828905162312E-4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>428.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.22077922077922077</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0397196261682243</v>
+      </c>
+      <c r="J31" t="s">
+        <v>189</v>
+      </c>
+      <c r="K31" t="s">
+        <v>218</v>
+      </c>
+      <c r="L31" t="s">
+        <v>251</v>
+      </c>
+      <c r="M31" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>416.0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0012559664538573053</v>
+      </c>
+      <c r="E32" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.19480519480519481</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.04076086956521739</v>
+      </c>
+      <c r="J32" t="s">
+        <v>190</v>
+      </c>
+      <c r="K32" t="s">
+        <v>218</v>
+      </c>
+      <c r="L32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M32" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>790.0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.015358230216647263</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1218.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.3246753246753247</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.020525451559934318</v>
+      </c>
+      <c r="J33" t="s">
+        <v>191</v>
+      </c>
+      <c r="K33" t="s">
+        <v>218</v>
+      </c>
+      <c r="L33" t="s">
+        <v>253</v>
+      </c>
+      <c r="M33" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1451.0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.006572746923706862</v>
+      </c>
+      <c r="E34" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.054187192118226604</v>
+      </c>
+      <c r="J34" t="s">
+        <v>192</v>
+      </c>
+      <c r="K34" t="s">
+        <v>219</v>
+      </c>
+      <c r="L34" t="s">
+        <v>254</v>
+      </c>
+      <c r="M34" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5459.0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.257093958297615E-4</v>
+      </c>
+      <c r="E35" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.06493506493506493</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="J35" t="s">
+        <v>193</v>
+      </c>
+      <c r="K35" t="s">
+        <v>220</v>
+      </c>
+      <c r="L35" t="s">
+        <v>255</v>
+      </c>
+      <c r="M35" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.2433327687639833E-4</v>
+      </c>
+      <c r="E36" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.07792207792207792</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J36" t="s">
+        <v>194</v>
+      </c>
+      <c r="K36" t="s">
+        <v>220</v>
+      </c>
+      <c r="L36" t="s">
+        <v>256</v>
+      </c>
+      <c r="M36" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="O36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.611563418413734E-4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>195</v>
+      </c>
+      <c r="K37" t="s">
+        <v>220</v>
+      </c>
+      <c r="L37" t="s">
+        <v>257</v>
+      </c>
+      <c r="M37" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3658.0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.001610877001451459</v>
+      </c>
+      <c r="E38" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.07792207792207792</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="J38" t="s">
+        <v>196</v>
+      </c>
+      <c r="K38" t="s">
+        <v>220</v>
+      </c>
+      <c r="L38" t="s">
+        <v>258</v>
+      </c>
+      <c r="M38" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="O38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0035756525068940752</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J39" t="s">
+        <v>197</v>
+      </c>
+      <c r="K39" t="s">
+        <v>220</v>
+      </c>
+      <c r="L39" t="s">
+        <v>259</v>
+      </c>
+      <c r="M39" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>8399.0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.006824163340809389</v>
+      </c>
+      <c r="E40" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="J40" t="s">
+        <v>198</v>
+      </c>
+      <c r="K40" t="s">
+        <v>220</v>
+      </c>
+      <c r="L40" t="s">
+        <v>260</v>
+      </c>
+      <c r="M40" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1613.0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.007115676392316484</v>
+      </c>
+      <c r="E41" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J41" t="s">
+        <v>199</v>
+      </c>
+      <c r="K41" t="s">
+        <v>220</v>
+      </c>
+      <c r="L41" t="s">
+        <v>261</v>
+      </c>
+      <c r="M41" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>618.0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.007576791802318386</v>
+      </c>
+      <c r="E42" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G42" t="n">
         <v>7.0</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.10606060606060606</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.08139534883720931</v>
-      </c>
-      <c r="J6" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" t="s">
-        <v>102</v>
-      </c>
-      <c r="L6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6" t="n">
-        <v>12925.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2308.0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>111</v>
+      <c r="H42" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.06796116504854369</v>
+      </c>
+      <c r="J42" t="s">
+        <v>200</v>
+      </c>
+      <c r="K42" t="s">
+        <v>220</v>
+      </c>
+      <c r="L42" t="s">
+        <v>262</v>
+      </c>
+      <c r="M42" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.007576791802318386</v>
+      </c>
+      <c r="E43" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.06796116504854369</v>
+      </c>
+      <c r="J43" t="s">
+        <v>201</v>
+      </c>
+      <c r="K43" t="s">
+        <v>220</v>
+      </c>
+      <c r="L43" t="s">
+        <v>263</v>
+      </c>
+      <c r="M43" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>11287.0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.01069210513839295</v>
+      </c>
+      <c r="E44" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J44" t="s">
+        <v>202</v>
+      </c>
+      <c r="K44" t="s">
+        <v>220</v>
+      </c>
+      <c r="L44" t="s">
+        <v>264</v>
+      </c>
+      <c r="M44" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>7484.0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.023068785293381036</v>
+      </c>
+      <c r="E45" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.05737704918032787</v>
+      </c>
+      <c r="J45" t="s">
+        <v>203</v>
+      </c>
+      <c r="K45" t="s">
+        <v>220</v>
+      </c>
+      <c r="L45" t="s">
+        <v>265</v>
+      </c>
+      <c r="M45" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7485.0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.029441611732908685</v>
+      </c>
+      <c r="E46" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J46" t="s">
+        <v>204</v>
+      </c>
+      <c r="K46" t="s">
+        <v>220</v>
+      </c>
+      <c r="L46" t="s">
+        <v>266</v>
+      </c>
+      <c r="M46" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>593.0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.033846170895574824</v>
+      </c>
+      <c r="E47" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.11688311688311688</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.03879310344827586</v>
+      </c>
+      <c r="J47" t="s">
+        <v>205</v>
+      </c>
+      <c r="K47" t="s">
+        <v>220</v>
+      </c>
+      <c r="L47" t="s">
+        <v>267</v>
+      </c>
+      <c r="M47" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>968.0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.037333825241665584</v>
+      </c>
+      <c r="E48" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="J48" t="s">
+        <v>206</v>
+      </c>
+      <c r="K48" t="s">
+        <v>220</v>
+      </c>
+      <c r="L48" t="s">
+        <v>268</v>
+      </c>
+      <c r="M48" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>7008.0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.04185012168613438</v>
+      </c>
+      <c r="E49" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J49" t="s">
+        <v>207</v>
+      </c>
+      <c r="K49" t="s">
+        <v>220</v>
+      </c>
+      <c r="L49" t="s">
+        <v>269</v>
+      </c>
+      <c r="M49" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>14764.0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.04653204435277217</v>
+      </c>
+      <c r="E50" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.051470588235294115</v>
+      </c>
+      <c r="J50" t="s">
+        <v>208</v>
+      </c>
+      <c r="K50" t="s">
+        <v>220</v>
+      </c>
+      <c r="L50" t="s">
+        <v>270</v>
+      </c>
+      <c r="M50" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>567.0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4.320001859282687E-6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.11688311688311688</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.08256880733944955</v>
+      </c>
+      <c r="J51" t="s">
+        <v>209</v>
+      </c>
+      <c r="K51" t="s">
+        <v>221</v>
+      </c>
+      <c r="L51" t="s">
+        <v>271</v>
+      </c>
+      <c r="M51" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" t="n">
+        <v>7.431577243978258E-6</v>
+      </c>
+      <c r="E52" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.11688311688311688</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.07758620689655173</v>
+      </c>
+      <c r="J52" t="s">
+        <v>210</v>
+      </c>
+      <c r="K52" t="s">
+        <v>221</v>
+      </c>
+      <c r="L52" t="s">
+        <v>272</v>
+      </c>
+      <c r="M52" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" t="n">
+        <v>6.425085266930409E-5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.06493506493506493</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="J53" t="s">
+        <v>211</v>
+      </c>
+      <c r="K53" t="s">
+        <v>221</v>
+      </c>
+      <c r="L53" t="s">
+        <v>273</v>
+      </c>
+      <c r="M53" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>418.0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.2841047602547032E-4</v>
+      </c>
+      <c r="E54" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.1038961038961039</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="J54" t="s">
+        <v>212</v>
+      </c>
+      <c r="K54" t="s">
+        <v>221</v>
+      </c>
+      <c r="L54" t="s">
+        <v>274</v>
+      </c>
+      <c r="M54" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>419.0</v>
+      </c>
+      <c r="O54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.0016453817978274831</v>
+      </c>
+      <c r="E55" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.06493506493506493</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.10204081632653061</v>
+      </c>
+      <c r="J55" t="s">
+        <v>213</v>
+      </c>
+      <c r="K55" t="s">
+        <v>221</v>
+      </c>
+      <c r="L55" t="s">
+        <v>275</v>
+      </c>
+      <c r="M55" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>302.0</v>
+      </c>
+      <c r="O55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.009970018289360859</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4291.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.5974025974025974</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.010720111862036821</v>
+      </c>
+      <c r="J56" t="s">
+        <v>214</v>
+      </c>
+      <c r="K56" t="s">
+        <v>221</v>
+      </c>
+      <c r="L56" t="s">
+        <v>276</v>
+      </c>
+      <c r="M56" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.030522451541373643</v>
+      </c>
+      <c r="E57" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J57" t="s">
+        <v>215</v>
+      </c>
+      <c r="K57" t="s">
+        <v>221</v>
+      </c>
+      <c r="L57" t="s">
+        <v>277</v>
+      </c>
+      <c r="M57" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="O57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.03904571327537669</v>
+      </c>
+      <c r="E58" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.06493506493506493</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="J58" t="s">
+        <v>216</v>
+      </c>
+      <c r="K58" t="s">
+        <v>221</v>
+      </c>
+      <c r="L58" t="s">
+        <v>278</v>
+      </c>
+      <c r="M58" t="n">
+        <v>11137.0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>289.0</v>
+      </c>
+      <c r="O58" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/docs/LMER_Microglia_0.xlsx
+++ b/docs/LMER_Microglia_0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="405">
   <si>
     <t>logFC</t>
   </si>
@@ -318,6 +318,12 @@
     <t>parents</t>
   </si>
   <si>
+    <t>evidence_codes</t>
+  </si>
+  <si>
+    <t>intersection</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -967,6 +973,261 @@
   </si>
   <si>
     <t>character(0)</t>
+  </si>
+  <si>
+    <t>IMP,IDA IMP IC,IDA IMP ISO IBA IEA,IMP ISO IEA,IEA,IMP IEA,IEA,IEA,IMP ISS ISO IEA,IBA IEA,IMP ISO IEA,IEA,ISS,IDA IEA,IMP ISS ISO IEA,IMP ISS ISO IBA IEA,IDA IMP IEA,ISS ISO IEA,IDA ISO,IDA ISS ISO IBA,IDA IEA,ISS IBA IEA</t>
+  </si>
+  <si>
+    <t>IMP,IDA IMP IBA,IMP ISO IEA,IEA,IMP IEA,IEA,IDA,IMP ISS ISO IEA,IMP IBA,IDA IMP,IDA,ISS</t>
+  </si>
+  <si>
+    <t>IMP ISS ISO IEA,IGI,IMP IGI,IGI</t>
+  </si>
+  <si>
+    <t>IMP,IEA,IMP IEA,IEA,ISS ISO IEA</t>
+  </si>
+  <si>
+    <t>IMP,IMP,IMP ISO IEA,IDA,IMP ISS ISO IEA,IMP IBA,IDA IMP,IDA</t>
+  </si>
+  <si>
+    <t>IMP,IMP IC,IMP IBA IEA,ISO,IEA,IEA,IDA IMP ISO IBA IEA,IEA,IMP ISS ISO IEA,IMP ISO IEA,IEA,ISS ISO IEA,IDA IMP IEA,ISS ISO IEA,IDA ISO,IDA,IBA</t>
+  </si>
+  <si>
+    <t>IMP ISO IEA,IDA IMP IC,IMP IBA IEA,IMP ISO,IEA,IEA,IDA IMP ISO IBA IEA,IMP,IEA,IMP ISS ISO IEA,IEP,IMP ISO IEA,ISO IEA,IEA,ISS ISO IEA,IEP,IDA IMP IBA IEA,ISS ISO IEA,IDA IMP ISO,IDA,ISS IBA</t>
+  </si>
+  <si>
+    <t>IMP,IMP IC,IMP IBA IEA,ISO,IEA,IEA,IEA,IMP ISS ISO IEA,IMP ISO IEA,IEA,ISS ISO IEA,IDA IMP IEA,ISS ISO IEA,IDA ISO,IBA</t>
+  </si>
+  <si>
+    <t>ISO IEA,ISO IEA,IDA,IDA,IDA</t>
+  </si>
+  <si>
+    <t>IMP,IDA IMP IBA,IMP ISO IEA,IEA,IMP IEA,IEA,IMP ISS ISO IEA,IDA,IMP ISS ISO IEA,IMP IBA,IDA IMP,IDA,ISS</t>
+  </si>
+  <si>
+    <t>IMP,IMP IBA,IMP ISO IEA,IEA,IMP IEA,IEA,IDA,IMP ISS ISO IEA,IMP,IDA</t>
+  </si>
+  <si>
+    <t>IMP IGI ISO IEA,IDA IMP ISO IBA IC IEA,IMP IBA IEA,ISO TAS,IEA,IEA,IDA IMP ISO IBA IEA,IEA,IMP IBA,IDA IMP ISS ISO IBA IEA,IGI,IMP ISO IEA,IMP IEA,IMP,ISS ISO IEA,IDA IMP IBA IEA,ISS ISO IEA,IDA ISO,IDA,IGI ISS IBA IEA</t>
+  </si>
+  <si>
+    <t>IMP,IDA IMP IGI ISS ISO IBA IEA,IDA IMP ISO IBA IEA,IMP ISO IBA IEA,IEA,IMP IEA,ISO IEA,IMP IBA,IMP ISS ISO IEA,ISO IEA,IGI ISO IEA,IDA,IDA IMP ISS ISO TAS IEA,IDA IMP ISS ISO IBA IEA,IDA IMP IBA IEA,IDA ISS ISO IBA IEA,ISO IEA,IDA,IDA,ISS ISO IEA</t>
+  </si>
+  <si>
+    <t>IDA IMP IGI ISO IBA IEA,IGI,IMP IBA,IMP,IMP IBA</t>
+  </si>
+  <si>
+    <t>ISO IEA,IMP IBA,IMP ISO IBA IEA,ISS ISO IEA,IDA IBA IEA,IDA IBA IEA</t>
+  </si>
+  <si>
+    <t>IMP,IDA IMP IC,IMP IBA IEA,IMP ISO,IEA,IEA,IDA IMP ISO IBA IEA,IEA,IMP ISS ISO IEA,IEP,IMP ISO IEA,ISO IEA,ISS ISO IEA,IEP,IDA IMP IBA IEA,ISS ISO IEA,IDA IMP ISO,IDA,ISS IBA</t>
+  </si>
+  <si>
+    <t>IMP IGI ISO IEA,IDA IMP IGI ISO IBA IC IEA,IMP IBA IEA,IMP ISO,IEA,IEA,IDA IMP ISO IBA IEA,IEA,IMP IBA,IDA IMP ISS ISO IBA IEA,IGI,IEP,IMP ISO IEA,IDA ISO IEA,IMP,ISS ISO IEA,IEP,IDA IMP IBA IEA,ISS ISO IEA,IDA IMP ISO,IMP IBA,ISO IEA,IMP IBA,ISS ISO IEA,IDA,IGI ISS ISO IBA IEA</t>
+  </si>
+  <si>
+    <t>IMP,IEA,IMP IEA,IEA</t>
+  </si>
+  <si>
+    <t>IMP,IMP,IMP ISO IEA,IDA,IMP ISS ISO IEA,IMP,IDA</t>
+  </si>
+  <si>
+    <t>IMP,IDA IMP,IDA IMP ISO IBA IEA,IMP ISO IEA,IEA,IMP IEA,IEA,IMP ISS ISO IEA,ISO IEA,IDA,IMP ISS ISO IEA,ISS ISO IEA,IDA IMP,IDA ISS ISO IBA,IDA</t>
+  </si>
+  <si>
+    <t>IMP,IDA IMP IBA,IMP ISO IEA,IEA,IMP IEA,IEA,IDA,IMP ISS ISO IEA,ISS ISO IEA,IDA IMP,IDA ISS ISO IBA,IDA</t>
+  </si>
+  <si>
+    <t>IMP,IMP IBA,IMP ISO IEA,IEA,IMP IEA,IEA,IEA,IDA,IMP ISS ISO IEA,IMP,IDA</t>
+  </si>
+  <si>
+    <t>IDA ISS ISO IBA IEA,HDA ISO IBA IEA,IDA,IDA IEA,HDA ISO,HDA ISO,ISO,HDA,ISO,ISS ISO IEA,HDA ISO IBA,IDA HDA ISO IBA IEA,HDA,IDA ISO IBA IEA,IDA HDA ISO IEA,ISS ISO IBA IEA,ISO IBA IEA,IDA IBA,ISO IEA,IBA,ISO IEA,IDA,ISO IEA,IDA ISO IEA,IBA,IDA ISO IBA IEA</t>
+  </si>
+  <si>
+    <t>IDA ISS ISO IBA TAS IEA,IEA,HDA ISO IBA IEA,IDA,IDA IEA,HDA ISO IEA,HDA ISO IEA,ISO,HDA IEA,ISO IEA,ISS ISO IEA,HDA ISO IBA IEA,IDA HDA ISO IBA IEA,HDA IEA,IDA ISO IBA IEA,IDA HDA ISO IBA IEA,ISS ISO IBA IEA,ISO IBA IEA,IDA IBA,ISO IEA,TAS,IBA,ISO IEA,IDA IBA TAS IEA,ISO IEA,ISO IEA,IDA ISO IEA,IBA,IDA ISO IBA IEA</t>
+  </si>
+  <si>
+    <t>ISO,IDA ISO IBA IEA,IDA ISO IBA IEA,ISO,IDA ISO IBA IEA,IMP ISO IBA IEA,IDA ISS ISO IEA,IDA ISO IBA IEA,ISO IBA IEA,IDA ISO IBA IEA,ISO IEA,ISO,ISO,IDA ISS ISO IBA IEA,IDA,IDA ISO IEA,ISO</t>
+  </si>
+  <si>
+    <t>ISO,IDA ISO IBA IEA,IDA ISO IBA IEA,ISO,IDA ISO IBA IEA,IMP ISO IBA IEA,IDA ISS ISO IEA,IDA ISO IBA IEA,ISO IBA IEA,IDA ISO IBA IEA,ISO IEA,ISO,ISO TAS IEA,IDA ISS ISO IBA IEA,IDA,IDA ISO IEA,ISO</t>
+  </si>
+  <si>
+    <t>ISO,IDA ISO IBA IEA,IDA,IDA ISO,ISO,ISO,ISO IEA,IDA ISO IBA,IDA ISS ISO IBA IEA,IBA IEA,IDA ISS ISO IBA IEA,IDA ISO,IDA ISO IEA,IEA,IDA ISO IBA</t>
+  </si>
+  <si>
+    <t>ISO,IDA ISO IEA,ISO IEA,TAS,ISO,ISS ISO IEA,ISO,IEA,IMP ISO IBA IEA,IDA ISS ISO IEA,ISS ISO TAS IEA,ISO IEA,ISO,IDA,TAS,ISO TAS IEA,ISO IEA,ISO,IDA IMP ISO IBA IEA,IEA,IDA,ISO IEA,IDA ISO IEA,ISO IEA,ISO TAS IEA</t>
+  </si>
+  <si>
+    <t>ISS ISO IBA IEA,ISO IEA,ISO,ISO IBA IEA,ISO,ISO,ISO,ISO IBA IEA,IEA,ISO IEA,IDA ISO</t>
+  </si>
+  <si>
+    <t>HP,HP,HP,HP,HP</t>
+  </si>
+  <si>
+    <t>HP,HP,HP,HP,HP,HP</t>
+  </si>
+  <si>
+    <t>HP,HP,HP</t>
+  </si>
+  <si>
+    <t>HP,HP,HP,HP</t>
+  </si>
+  <si>
+    <t>HP,HP,HP,HP,HP,HP,HP</t>
+  </si>
+  <si>
+    <t>HP,HP,HP,HP,HP,HP,HP,HP,HP</t>
+  </si>
+  <si>
+    <t>KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG</t>
+  </si>
+  <si>
+    <t>KEGG,KEGG,KEGG,KEGG,KEGG</t>
+  </si>
+  <si>
+    <t>KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG</t>
+  </si>
+  <si>
+    <t>KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG</t>
+  </si>
+  <si>
+    <t>KEGG,KEGG,KEGG</t>
+  </si>
+  <si>
+    <t>Apoe,Trem2,Fcer1g,B2m,C1qb,C1qa,C1qc,Cst7,Grn,Ctss,Cyba,Axl,Fth1,H2-D1,Cd81,Tyrobp,Clec7a,Serinc3,Rpl13a,Thy1,H2-K1,Ccl3</t>
+  </si>
+  <si>
+    <t>Trem2,Fcer1g,B2m,C1qb,C1qa,C1qc,H2-D1,Cd81,Tyrobp,Clec7a,H2-K1,Ccl3</t>
+  </si>
+  <si>
+    <t>Trem2,C1qb,C1qa,C1qc</t>
+  </si>
+  <si>
+    <t>Trem2,C1qb,C1qa,C1qc,Cd81</t>
+  </si>
+  <si>
+    <t>Trem2,Fcer1g,B2m,H2-D1,Cd81,Tyrobp,Clec7a,H2-K1</t>
+  </si>
+  <si>
+    <t>Apoe,Trem2,Fcer1g,B2m,C1qb,C1qa,Lyz2,C1qc,Grn,Cyba,Axl,Tyrobp,Clec7a,Serinc3,Rpl13a,H2-K1,Ccl3</t>
+  </si>
+  <si>
+    <t>Apoe,Trem2,Fcer1g,B2m,C1qb,C1qa,Lyz2,Ctsb,C1qc,Grn,Cd52,Cyba,Axl,Cd81,Tyrobp,Upk1b,Clec7a,Serinc3,Rpl13a,H2-K1,Ccl3</t>
+  </si>
+  <si>
+    <t>Apoe,Trem2,Fcer1g,B2m,C1qb,C1qa,C1qc,Grn,Cyba,Axl,Tyrobp,Clec7a,Serinc3,Rpl13a,Ccl3</t>
+  </si>
+  <si>
+    <t>Apoe,Trem2,Fcer1g,Cd81,Cd9</t>
+  </si>
+  <si>
+    <t>Trem2,Fcer1g,B2m,C1qb,C1qa,C1qc,Grn,H2-D1,Cd81,Tyrobp,Clec7a,H2-K1,Ccl3</t>
+  </si>
+  <si>
+    <t>Trem2,Fcer1g,B2m,C1qb,C1qa,C1qc,H2-D1,Cd81,Clec7a,H2-K1</t>
+  </si>
+  <si>
+    <t>Apoe,Trem2,Fcer1g,B2m,C1qb,C1qa,Lyz2,C1qc,Cst7,Grn,Ctss,Cyba,Axl,Cd81,Tyrobp,Clec7a,Serinc3,Rpl13a,H2-K1,Ccl3</t>
+  </si>
+  <si>
+    <t>Apoe,Trem2,Fcer1g,B2m,C1qb,C1qa,C1qc,Cst7,Grn,Cyba,Axl,H2-D1,Cd81,Tyrobp,Clec7a,Thy1,Lgmn,Cd9,H2-K1,Ccl3</t>
+  </si>
+  <si>
+    <t>Trem2,C1qa,Cst7,Grn,Tyrobp</t>
+  </si>
+  <si>
+    <t>Trem2,Fcer1g,B2m,Ctss,H2-D1,H2-K1</t>
+  </si>
+  <si>
+    <t>Apoe,Trem2,Fcer1g,B2m,C1qb,C1qa,Lyz2,C1qc,Grn,Cd52,Cyba,Axl,Tyrobp,Upk1b,Clec7a,Serinc3,Rpl13a,H2-K1,Ccl3</t>
+  </si>
+  <si>
+    <t>Apoe,Trem2,Fcer1g,B2m,C1qb,C1qa,Lyz2,C1qc,Cst7,Grn,Ctss,Cd52,Cyba,Axl,Cd81,Tyrobp,Upk1b,Clec7a,Serinc3,Rpl13a,Lamp2,Lgmn,Cry1,Cd9,H2-K1,Ccl3</t>
+  </si>
+  <si>
+    <t>Trem2,Fcer1g,B2m,H2-D1,Cd81,Clec7a,H2-K1</t>
+  </si>
+  <si>
+    <t>Apoe,Trem2,Fcer1g,B2m,C1qb,C1qa,C1qc,Grn,Cyba,H2-D1,Cd81,Tyrobp,Clec7a,Thy1,H2-K1</t>
+  </si>
+  <si>
+    <t>Trem2,Fcer1g,B2m,C1qb,C1qa,C1qc,H2-D1,Cd81,Tyrobp,Clec7a,Thy1,H2-K1</t>
+  </si>
+  <si>
+    <t>Trem2,Fcer1g,B2m,C1qb,C1qa,C1qc,Ctss,H2-D1,Cd81,Clec7a,H2-K1</t>
+  </si>
+  <si>
+    <t>Apoe,Lgals3bp,Hexb,Ctsd,B2m,C1qb,Lipe,C1qa,Lyz2,Itm2b,Cst3,Ctsb,C1qc,Cst7,Grn,Ctss,Ctsz,Col6a3,Axl,H2-D1,Cd81,Selenop,Lamp2,Cd9,H2-K1,Ccl3</t>
+  </si>
+  <si>
+    <t>Apoe,Trem2,Lgals3bp,Hexb,Ctsd,B2m,C1qb,Lipe,C1qa,Lyz2,Itm2b,Cst3,Ctsb,C1qc,Cst7,Grn,Ctss,Ctsz,Col6a3,Axl,Fth1,H2-D1,Cd81,Selenop,Lamp2,Lgmn,Cd9,H2-K1,Ccl3</t>
+  </si>
+  <si>
+    <t>Apoe,Hexb,Ctsd,Cst3,Ctsb,Cst7,Grn,Ctss,Ctsz,Hexa,Fth1,H2-D1,Atp6v0c,Lamp2,Mt1,Lgmn,H2-K1</t>
+  </si>
+  <si>
+    <t>Apoe,Fcer1g,B2m,Ctsb,Ctss,Ctsz,Axl,H2-D1,Tyrobp,Clec7a,Thy1,Cd9,Erp29,Itgb5,H2-K1</t>
+  </si>
+  <si>
+    <t>Apoe,Hexb,Ctsd,B2m,Lyz2,Itm2b,Cst3,Ctsb,Cst7,Grn,Ctss,Ctsz,Hexa,Cyba,Fth1,H2-D1,Cd81,Atp6v0c,Lamp2,Mpeg1,Lgmn,Bicd1,Cd9,Erp29,H2-K1</t>
+  </si>
+  <si>
+    <t>Apoe,Trem2,Ctsd,Itm2b,Cst3,Ctsb,H2-D1,Soat1,Acbd5,Rplp0,H2-K1</t>
+  </si>
+  <si>
+    <t>C1qb,C1qa,C1qc,Fcgr3,Fcgr2b</t>
+  </si>
+  <si>
+    <t>C1qb,C1qa,C1qc,Cd81,Fcgr3,Fcgr2b</t>
+  </si>
+  <si>
+    <t>C1qb,C1qa,C1qc</t>
+  </si>
+  <si>
+    <t>Apoe,Itm2b,Cst3</t>
+  </si>
+  <si>
+    <t>Apoe,Trem2,Itm2b,Grn</t>
+  </si>
+  <si>
+    <t>Apoe,C1qb,C1qa,C1qc,Cd81,Fcgr3,Fcgr2b</t>
+  </si>
+  <si>
+    <t>Apoe,B2m,Itm2b,Cst3</t>
+  </si>
+  <si>
+    <t>Trem2,Grn,Tyrobp</t>
+  </si>
+  <si>
+    <t>Apoe,Trem2,Hexb,Ctsd,Itm2b,Cst3,Grn,Hexa,Tyrobp</t>
+  </si>
+  <si>
+    <t>Apoe,Trem2,Grn,Tyrobp</t>
+  </si>
+  <si>
+    <t>Apoe,Trem2,Grn</t>
+  </si>
+  <si>
+    <t>Apoe,Trem2,Itm2b,Cst3,Grn,Hexa,Tyrobp</t>
+  </si>
+  <si>
+    <t>Ctss,Cyba,Atp6v0c,Clec7a,Fcgr3,Lamp2,Fcgr2b,Itgb5,H2-K1</t>
+  </si>
+  <si>
+    <t>Hexb,Ctsd,Ctsb,Ctss,Ctsz,Hexa,Atp6v0c,Lamp2,Lgmn</t>
+  </si>
+  <si>
+    <t>Fcer1g,Ctsd,Ctss,Atp6v0c,Clec7a,Fcgr3,Lamp2,Fcgr2b</t>
+  </si>
+  <si>
+    <t>B2m,Ctsb,Ctss,Lgmn,H2-K1</t>
+  </si>
+  <si>
+    <t>Apoe,Trem2,Hexb,Fcer1g,Ctsd,B2m,C1qb,Gnaz,Lipe,C1qa,Lyz2,Cst3,Ctsb,C1qc,Myl2,Ctss,Ctsz,Hexa,Pola2,Cyba,Col6a3,Axl,Fth1,Cd81,Tyrobp,Atp6v0c,Clec7a,Eef1a1,Fcgr3,Soat1,Ppp2r5a,Rpl13a,Lamp2,Fcgr2b,Mt1,Thy1,Lgmn,Cry1,Cd9,Rps14,Rplp0,Ssr4,Erp29,Itgb5,H2-K1,Ccl3</t>
+  </si>
+  <si>
+    <t>Trem2,Cyba,Tyrobp,Fcgr3,Fcgr2b</t>
   </si>
 </sst>
 </file>
@@ -2732,16 +2993,22 @@
       <c r="O1" t="s">
         <v>100</v>
       </c>
+      <c r="P1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D2" t="n">
         <v>9.353705575657461E-4</v>
@@ -2762,13 +3029,13 @@
         <v>0.026829268292682926</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M2" t="n">
         <v>11137.0</v>
@@ -2777,18 +3044,24 @@
         <v>2890.0</v>
       </c>
       <c r="O2" t="s">
-        <v>279</v>
+        <v>281</v>
+      </c>
+      <c r="P2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D3" t="n">
         <v>0.0010276502912545894</v>
@@ -2809,13 +3082,13 @@
         <v>0.05660377358490566</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M3" t="n">
         <v>11137.0</v>
@@ -2824,18 +3097,24 @@
         <v>1089.0</v>
       </c>
       <c r="O3" t="s">
-        <v>169</v>
+        <v>171</v>
+      </c>
+      <c r="P3" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D4" t="n">
         <v>0.0036386893997235664</v>
@@ -2856,13 +3135,13 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="J4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M4" t="n">
         <v>11137.0</v>
@@ -2871,18 +3150,24 @@
         <v>22161.0</v>
       </c>
       <c r="O4" t="s">
-        <v>280</v>
+        <v>282</v>
+      </c>
+      <c r="P4" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D5" t="n">
         <v>0.004016392514918138</v>
@@ -2903,13 +3188,13 @@
         <v>0.29411764705882354</v>
       </c>
       <c r="J5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M5" t="n">
         <v>11137.0</v>
@@ -2918,18 +3203,24 @@
         <v>1101.0</v>
       </c>
       <c r="O5" t="s">
-        <v>281</v>
+        <v>283</v>
+      </c>
+      <c r="P5" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D6" t="n">
         <v>0.006194714797113494</v>
@@ -2950,13 +3241,13 @@
         <v>0.09302325581395349</v>
       </c>
       <c r="J6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M6" t="n">
         <v>11137.0</v>
@@ -2965,18 +3256,24 @@
         <v>1346.0</v>
       </c>
       <c r="O6" t="s">
-        <v>282</v>
+        <v>284</v>
+      </c>
+      <c r="P6" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0.00807425740702436</v>
@@ -2997,13 +3294,13 @@
         <v>0.03074141048824593</v>
       </c>
       <c r="J7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M7" t="n">
         <v>11137.0</v>
@@ -3012,18 +3309,24 @@
         <v>22010.0</v>
       </c>
       <c r="O7" t="s">
-        <v>283</v>
+        <v>285</v>
+      </c>
+      <c r="P7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0.00899021676353098</v>
@@ -3044,13 +3347,13 @@
         <v>0.024676850763807285</v>
       </c>
       <c r="J8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M8" t="n">
         <v>11137.0</v>
@@ -3059,18 +3362,24 @@
         <v>12795.0</v>
       </c>
       <c r="O8" t="s">
-        <v>284</v>
+        <v>286</v>
+      </c>
+      <c r="P8" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D9" t="n">
         <v>0.010308698235127518</v>
@@ -3091,13 +3400,13 @@
         <v>0.034722222222222224</v>
       </c>
       <c r="J9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M9" t="n">
         <v>11137.0</v>
@@ -3106,18 +3415,24 @@
         <v>13129.0</v>
       </c>
       <c r="O9" t="s">
-        <v>285</v>
+        <v>287</v>
+      </c>
+      <c r="P9" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D10" t="n">
         <v>0.012925594001751965</v>
@@ -3138,13 +3453,13 @@
         <v>0.23809523809523808</v>
       </c>
       <c r="J10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M10" t="n">
         <v>11137.0</v>
@@ -3153,18 +3468,24 @@
         <v>16811.0</v>
       </c>
       <c r="O10" t="s">
-        <v>286</v>
+        <v>288</v>
+      </c>
+      <c r="P10" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D11" t="n">
         <v>0.0129823691559178</v>
@@ -3185,13 +3506,13 @@
         <v>0.040498442367601244</v>
       </c>
       <c r="J11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M11" t="n">
         <v>11137.0</v>
@@ -3200,18 +3521,24 @@
         <v>907.0</v>
       </c>
       <c r="O11" t="s">
-        <v>287</v>
+        <v>289</v>
+      </c>
+      <c r="P11" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D12" t="n">
         <v>0.016536592246160792</v>
@@ -3232,13 +3559,13 @@
         <v>0.056818181818181816</v>
       </c>
       <c r="J12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M12" t="n">
         <v>11137.0</v>
@@ -3247,18 +3574,24 @@
         <v>1106.0</v>
       </c>
       <c r="O12" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="P12" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D13" t="n">
         <v>0.017109915365875753</v>
@@ -3279,13 +3612,13 @@
         <v>0.024844720496894408</v>
       </c>
       <c r="J13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M13" t="n">
         <v>11137.0</v>
@@ -3294,18 +3627,24 @@
         <v>2887.0</v>
       </c>
       <c r="O13" t="s">
-        <v>288</v>
+        <v>290</v>
+      </c>
+      <c r="P13" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D14" t="n">
         <v>0.018897696121850438</v>
@@ -3326,13 +3665,13 @@
         <v>0.024691358024691357</v>
       </c>
       <c r="J14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L14" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M14" t="n">
         <v>11137.0</v>
@@ -3341,18 +3680,24 @@
         <v>1323.0</v>
       </c>
       <c r="O14" t="s">
-        <v>289</v>
+        <v>291</v>
+      </c>
+      <c r="P14" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D15" t="n">
         <v>0.026564732229127287</v>
@@ -3373,13 +3718,13 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="J15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M15" t="n">
         <v>11137.0</v>
@@ -3388,18 +3733,24 @@
         <v>19449.0</v>
       </c>
       <c r="O15" t="s">
-        <v>290</v>
+        <v>292</v>
+      </c>
+      <c r="P15" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D16" t="n">
         <v>0.026564732229127287</v>
@@ -3420,13 +3771,13 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="J16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M16" t="n">
         <v>11137.0</v>
@@ -3435,18 +3786,24 @@
         <v>551.0</v>
       </c>
       <c r="O16" t="s">
-        <v>291</v>
+        <v>293</v>
+      </c>
+      <c r="P16" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D17" t="n">
         <v>0.02946472206649832</v>
@@ -3467,13 +3824,13 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M17" t="n">
         <v>11137.0</v>
@@ -3482,18 +3839,24 @@
         <v>14497.0</v>
       </c>
       <c r="O17" t="s">
-        <v>292</v>
+        <v>294</v>
+      </c>
+      <c r="P17" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D18" t="n">
         <v>0.03097249046736977</v>
@@ -3514,13 +3877,13 @@
         <v>0.02509907529722589</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L18" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M18" t="n">
         <v>11137.0</v>
@@ -3529,18 +3892,24 @@
         <v>16071.0</v>
       </c>
       <c r="O18" t="s">
-        <v>293</v>
+        <v>295</v>
+      </c>
+      <c r="P18" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D19" t="n">
         <v>0.03097249046736977</v>
@@ -3561,13 +3930,13 @@
         <v>0.02509907529722589</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M19" t="n">
         <v>11137.0</v>
@@ -3576,18 +3945,24 @@
         <v>12207.0</v>
       </c>
       <c r="O19" t="s">
-        <v>294</v>
+        <v>296</v>
+      </c>
+      <c r="P19" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0.033331909120884295</v>
@@ -3608,13 +3983,13 @@
         <v>0.019103600293901544</v>
       </c>
       <c r="J20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M20" t="n">
         <v>11137.0</v>
@@ -3623,18 +3998,24 @@
         <v>3979.0</v>
       </c>
       <c r="O20" t="s">
-        <v>295</v>
+        <v>297</v>
+      </c>
+      <c r="P20" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D21" t="n">
         <v>0.03359388581802257</v>
@@ -3655,13 +4036,13 @@
         <v>0.36363636363636365</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M21" t="n">
         <v>11137.0</v>
@@ -3670,18 +4051,24 @@
         <v>2893.0</v>
       </c>
       <c r="O21" t="s">
-        <v>296</v>
+        <v>298</v>
+      </c>
+      <c r="P21" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D22" t="n">
         <v>0.035528563683974106</v>
@@ -3702,13 +4089,13 @@
         <v>0.0945945945945946</v>
       </c>
       <c r="J22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M22" t="n">
         <v>11137.0</v>
@@ -3717,18 +4104,24 @@
         <v>1458.0</v>
       </c>
       <c r="O22" t="s">
-        <v>297</v>
+        <v>299</v>
+      </c>
+      <c r="P22" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D23" t="n">
         <v>0.0396406678458247</v>
@@ -3749,13 +4142,13 @@
         <v>0.03125</v>
       </c>
       <c r="J23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K23" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M23" t="n">
         <v>11137.0</v>
@@ -3764,18 +4157,24 @@
         <v>15328.0</v>
       </c>
       <c r="O23" t="s">
-        <v>298</v>
+        <v>300</v>
+      </c>
+      <c r="P23" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D24" t="n">
         <v>0.040445923260308284</v>
@@ -3796,13 +4195,13 @@
         <v>0.04040404040404041</v>
       </c>
       <c r="J24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M24" t="n">
         <v>11137.0</v>
@@ -3811,18 +4210,24 @@
         <v>15330.0</v>
       </c>
       <c r="O24" t="s">
-        <v>299</v>
+        <v>301</v>
+      </c>
+      <c r="P24" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D25" t="n">
         <v>0.04159711586605356</v>
@@ -3843,13 +4248,13 @@
         <v>0.045081967213114756</v>
       </c>
       <c r="J25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K25" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M25" t="n">
         <v>11137.0</v>
@@ -3858,18 +4263,24 @@
         <v>905.0</v>
       </c>
       <c r="O25" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="P25" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D26" t="n">
         <v>0.048812189391741465</v>
@@ -3890,13 +4301,13 @@
         <v>0.02435897435897436</v>
       </c>
       <c r="J26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M26" t="n">
         <v>11137.0</v>
@@ -3905,18 +4316,24 @@
         <v>3981.0</v>
       </c>
       <c r="O26" t="s">
-        <v>295</v>
+        <v>297</v>
+      </c>
+      <c r="P26" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D27" t="n">
         <v>2.197322784149194E-14</v>
@@ -3937,13 +4354,13 @@
         <v>0.0654911838790932</v>
       </c>
       <c r="J27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K27" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M27" t="n">
         <v>11137.0</v>
@@ -3952,18 +4369,24 @@
         <v>277.0</v>
       </c>
       <c r="O27" t="s">
-        <v>300</v>
+        <v>302</v>
+      </c>
+      <c r="P27" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D28" t="n">
         <v>4.623849584508327E-13</v>
@@ -3984,13 +4407,13 @@
         <v>0.048414023372287146</v>
       </c>
       <c r="J28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M28" t="n">
         <v>11137.0</v>
@@ -3999,18 +4422,24 @@
         <v>240.0</v>
       </c>
       <c r="O28" t="s">
-        <v>301</v>
+        <v>303</v>
+      </c>
+      <c r="P28" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D29" t="n">
         <v>9.725321682469129E-6</v>
@@ -4031,13 +4460,13 @@
         <v>0.04815864022662889</v>
       </c>
       <c r="J29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K29" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M29" t="n">
         <v>11137.0</v>
@@ -4046,18 +4475,24 @@
         <v>66.0</v>
       </c>
       <c r="O29" t="s">
-        <v>189</v>
+        <v>191</v>
+      </c>
+      <c r="P29" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D30" t="n">
         <v>9.725321682469129E-6</v>
@@ -4078,13 +4513,13 @@
         <v>0.04815864022662889</v>
       </c>
       <c r="J30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K30" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M30" t="n">
         <v>11137.0</v>
@@ -4093,18 +4528,24 @@
         <v>408.0</v>
       </c>
       <c r="O30" t="s">
-        <v>187</v>
+        <v>189</v>
+      </c>
+      <c r="P30" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D31" t="n">
         <v>1.8610828905162312E-4</v>
@@ -4125,13 +4566,13 @@
         <v>0.0397196261682243</v>
       </c>
       <c r="J31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M31" t="n">
         <v>11137.0</v>
@@ -4140,18 +4581,24 @@
         <v>416.0</v>
       </c>
       <c r="O31" t="s">
-        <v>302</v>
+        <v>304</v>
+      </c>
+      <c r="P31" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D32" t="n">
         <v>0.0012559664538573053</v>
@@ -4172,13 +4619,13 @@
         <v>0.04076086956521739</v>
       </c>
       <c r="J32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K32" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L32" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M32" t="n">
         <v>11137.0</v>
@@ -4187,18 +4634,24 @@
         <v>790.0</v>
       </c>
       <c r="O32" t="s">
-        <v>301</v>
+        <v>303</v>
+      </c>
+      <c r="P32" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D33" t="n">
         <v>0.015358230216647263</v>
@@ -4219,13 +4672,13 @@
         <v>0.020525451559934318</v>
       </c>
       <c r="J33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K33" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L33" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M33" t="n">
         <v>11137.0</v>
@@ -4234,18 +4687,24 @@
         <v>1451.0</v>
       </c>
       <c r="O33" t="s">
-        <v>303</v>
+        <v>305</v>
+      </c>
+      <c r="P33" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D34" t="n">
         <v>0.006572746923706862</v>
@@ -4266,13 +4725,13 @@
         <v>0.054187192118226604</v>
       </c>
       <c r="J34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K34" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L34" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M34" t="n">
         <v>11137.0</v>
@@ -4281,18 +4740,24 @@
         <v>5459.0</v>
       </c>
       <c r="O34" t="s">
-        <v>304</v>
+        <v>306</v>
+      </c>
+      <c r="P34" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D35" t="n">
         <v>1.257093958297615E-4</v>
@@ -4313,13 +4778,13 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="J35" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K35" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L35" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M35" t="n">
         <v>11137.0</v>
@@ -4328,18 +4793,24 @@
         <v>1988.0</v>
       </c>
       <c r="O35" t="s">
-        <v>305</v>
+        <v>307</v>
+      </c>
+      <c r="P35" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D36" t="n">
         <v>3.2433327687639833E-4</v>
@@ -4360,13 +4831,13 @@
         <v>0.15</v>
       </c>
       <c r="J36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K36" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L36" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M36" t="n">
         <v>11137.0</v>
@@ -4375,18 +4846,24 @@
         <v>89.0</v>
       </c>
       <c r="O36" t="s">
-        <v>306</v>
+        <v>308</v>
+      </c>
+      <c r="P36" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D37" t="n">
         <v>3.611563418413734E-4</v>
@@ -4407,13 +4884,13 @@
         <v>1.0</v>
       </c>
       <c r="J37" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K37" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L37" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M37" t="n">
         <v>11137.0</v>
@@ -4422,18 +4899,24 @@
         <v>3658.0</v>
       </c>
       <c r="O37" t="s">
-        <v>307</v>
+        <v>309</v>
+      </c>
+      <c r="P37" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D38" t="n">
         <v>0.001610877001451459</v>
@@ -4454,13 +4937,13 @@
         <v>0.11538461538461539</v>
       </c>
       <c r="J38" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K38" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L38" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M38" t="n">
         <v>11137.0</v>
@@ -4469,18 +4952,24 @@
         <v>106.0</v>
       </c>
       <c r="O38" t="s">
-        <v>308</v>
+        <v>310</v>
+      </c>
+      <c r="P38" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D39" t="n">
         <v>0.0035756525068940752</v>
@@ -4501,13 +4990,13 @@
         <v>0.6</v>
       </c>
       <c r="J39" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K39" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L39" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M39" t="n">
         <v>11137.0</v>
@@ -4516,18 +5005,24 @@
         <v>8399.0</v>
       </c>
       <c r="O39" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="P39" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D40" t="n">
         <v>0.006824163340809389</v>
@@ -4548,13 +5043,13 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="J40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L40" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M40" t="n">
         <v>11137.0</v>
@@ -4563,18 +5058,24 @@
         <v>1613.0</v>
       </c>
       <c r="O40" t="s">
-        <v>309</v>
+        <v>311</v>
+      </c>
+      <c r="P40" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D41" t="n">
         <v>0.007115676392316484</v>
@@ -4595,13 +5096,13 @@
         <v>0.5</v>
       </c>
       <c r="J41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K41" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L41" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M41" t="n">
         <v>11137.0</v>
@@ -4610,18 +5111,24 @@
         <v>618.0</v>
       </c>
       <c r="O41" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+      <c r="P41" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D42" t="n">
         <v>0.007576791802318386</v>
@@ -4642,13 +5149,13 @@
         <v>0.06796116504854369</v>
       </c>
       <c r="J42" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K42" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L42" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M42" t="n">
         <v>11137.0</v>
@@ -4657,18 +5164,24 @@
         <v>85.0</v>
       </c>
       <c r="O42" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="P42" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D43" t="n">
         <v>0.007576791802318386</v>
@@ -4689,13 +5202,13 @@
         <v>0.06796116504854369</v>
       </c>
       <c r="J43" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K43" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L43" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M43" t="n">
         <v>11137.0</v>
@@ -4704,18 +5217,24 @@
         <v>11287.0</v>
       </c>
       <c r="O43" t="s">
-        <v>310</v>
+        <v>312</v>
+      </c>
+      <c r="P43" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D44" t="n">
         <v>0.01069210513839295</v>
@@ -4736,13 +5255,13 @@
         <v>0.2</v>
       </c>
       <c r="J44" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K44" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L44" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M44" t="n">
         <v>11137.0</v>
@@ -4751,18 +5270,24 @@
         <v>7484.0</v>
       </c>
       <c r="O44" t="s">
-        <v>311</v>
+        <v>313</v>
+      </c>
+      <c r="P44" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D45" t="n">
         <v>0.023068785293381036</v>
@@ -4783,13 +5308,13 @@
         <v>0.05737704918032787</v>
       </c>
       <c r="J45" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K45" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L45" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M45" t="n">
         <v>11137.0</v>
@@ -4798,18 +5323,24 @@
         <v>7485.0</v>
       </c>
       <c r="O45" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="P45" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D46" t="n">
         <v>0.029441611732908685</v>
@@ -4830,13 +5361,13 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J46" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K46" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L46" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M46" t="n">
         <v>11137.0</v>
@@ -4845,18 +5376,24 @@
         <v>593.0</v>
       </c>
       <c r="O46" t="s">
-        <v>313</v>
+        <v>315</v>
+      </c>
+      <c r="P46" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D47" t="n">
         <v>0.033846170895574824</v>
@@ -4877,13 +5414,13 @@
         <v>0.03879310344827586</v>
       </c>
       <c r="J47" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K47" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L47" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M47" t="n">
         <v>11137.0</v>
@@ -4892,18 +5429,24 @@
         <v>968.0</v>
       </c>
       <c r="O47" t="s">
-        <v>314</v>
+        <v>316</v>
+      </c>
+      <c r="P47" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D48" t="n">
         <v>0.037333825241665584</v>
@@ -4924,13 +5467,13 @@
         <v>0.14814814814814814</v>
       </c>
       <c r="J48" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K48" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L48" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M48" t="n">
         <v>11137.0</v>
@@ -4939,18 +5482,24 @@
         <v>7008.0</v>
       </c>
       <c r="O48" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="P48" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D49" t="n">
         <v>0.04185012168613438</v>
@@ -4971,13 +5520,13 @@
         <v>0.3</v>
       </c>
       <c r="J49" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K49" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L49" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M49" t="n">
         <v>11137.0</v>
@@ -4986,18 +5535,24 @@
         <v>14764.0</v>
       </c>
       <c r="O49" t="s">
-        <v>316</v>
+        <v>318</v>
+      </c>
+      <c r="P49" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D50" t="n">
         <v>0.04653204435277217</v>
@@ -5018,13 +5573,13 @@
         <v>0.051470588235294115</v>
       </c>
       <c r="J50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K50" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L50" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M50" t="n">
         <v>11137.0</v>
@@ -5033,18 +5588,24 @@
         <v>567.0</v>
       </c>
       <c r="O50" t="s">
-        <v>205</v>
+        <v>207</v>
+      </c>
+      <c r="P50" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D51" t="n">
         <v>4.320001859282687E-6</v>
@@ -5065,13 +5626,13 @@
         <v>0.08256880733944955</v>
       </c>
       <c r="J51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K51" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L51" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M51" t="n">
         <v>11137.0</v>
@@ -5080,18 +5641,24 @@
         <v>262.0</v>
       </c>
       <c r="O51" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="P51" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" t="n">
         <v>7.431577243978258E-6</v>
@@ -5112,13 +5679,13 @@
         <v>0.07758620689655173</v>
       </c>
       <c r="J52" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K52" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L52" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M52" t="n">
         <v>11137.0</v>
@@ -5127,18 +5694,24 @@
         <v>260.0</v>
       </c>
       <c r="O52" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="P52" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" t="n">
         <v>6.425085266930409E-5</v>
@@ -5159,13 +5732,13 @@
         <v>0.19230769230769232</v>
       </c>
       <c r="J53" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K53" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L53" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M53" t="n">
         <v>11137.0</v>
@@ -5174,18 +5747,24 @@
         <v>418.0</v>
       </c>
       <c r="O53" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="P53" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" t="n">
         <v>1.2841047602547032E-4</v>
@@ -5206,13 +5785,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="J54" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K54" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L54" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M54" t="n">
         <v>11137.0</v>
@@ -5221,18 +5800,24 @@
         <v>419.0</v>
       </c>
       <c r="O54" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="P54" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D55" t="n">
         <v>0.0016453817978274831</v>
@@ -5253,13 +5838,13 @@
         <v>0.10204081632653061</v>
       </c>
       <c r="J55" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L55" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M55" t="n">
         <v>11137.0</v>
@@ -5268,18 +5853,24 @@
         <v>302.0</v>
       </c>
       <c r="O55" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="P55" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D56" t="n">
         <v>0.009970018289360859</v>
@@ -5300,13 +5891,13 @@
         <v>0.010720111862036821</v>
       </c>
       <c r="J56" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K56" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L56" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M56" t="n">
         <v>11137.0</v>
@@ -5315,18 +5906,24 @@
         <v>1.0</v>
       </c>
       <c r="O56" t="s">
-        <v>317</v>
+        <v>319</v>
+      </c>
+      <c r="P56" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D57" t="n">
         <v>0.030522451541373643</v>
@@ -5347,13 +5944,13 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="J57" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K57" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L57" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M57" t="n">
         <v>11137.0</v>
@@ -5362,18 +5959,24 @@
         <v>300.0</v>
       </c>
       <c r="O57" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="P57" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D58" t="n">
         <v>0.03904571327537669</v>
@@ -5394,13 +5997,13 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="J58" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K58" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L58" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M58" t="n">
         <v>11137.0</v>
@@ -5409,7 +6012,13 @@
         <v>289.0</v>
       </c>
       <c r="O58" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="P58" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/docs/LMER_Microglia_0.xlsx
+++ b/docs/LMER_Microglia_0.xlsx
@@ -13,9 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="406">
   <si>
     <t>logFC</t>
+  </si>
+  <si>
+    <t>AveExpr</t>
   </si>
   <si>
     <t>t</t>
@@ -1295,1644 +1298,1893 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>3.5866162939985813</v>
       </c>
       <c r="C2" t="n">
+        <v>0.45423754537911476</v>
+      </c>
+      <c r="D2" t="n">
         <v>12.199870863536718</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>1.690299114031384E-25</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1.9646346602386775E-21</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>44.960956715894454</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>4.775572803269444</v>
       </c>
       <c r="C3" t="n">
+        <v>0.9320041674926198</v>
+      </c>
+      <c r="D3" t="n">
         <v>10.653950558797211</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>5.687951496446803E-21</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>3.3055530121600596E-17</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>35.46255498010578</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>-11.088504037059835</v>
       </c>
       <c r="C4" t="n">
+        <v>6.541098974142623</v>
+      </c>
+      <c r="D4" t="n">
         <v>-9.233209946166006</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>6.146774404716801E-17</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>2.3814652968674463E-13</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>26.944691651012675</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>3.6900650393701713</v>
       </c>
       <c r="C5" t="n">
+        <v>0.8211189658039846</v>
+      </c>
+      <c r="D5" t="n">
         <v>7.366754106897623</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>5.61014803534131E-12</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1.5037922444078152E-8</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>16.42715306770338</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>2.1819579232551396</v>
       </c>
       <c r="C6" t="n">
+        <v>0.34948685658984546</v>
+      </c>
+      <c r="D6" t="n">
         <v>7.3421558267865725</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>6.469036584392219E-12</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.5037922444078152E-8</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>16.295877316607232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>4.006370296235559</v>
       </c>
       <c r="C7" t="n">
+        <v>5.039020896844203</v>
+      </c>
+      <c r="D7" t="n">
         <v>6.151167956353297</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>4.6432411793083025E-9</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>8.994732037850067E-6</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>10.240987567692345</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
         <v>2.5838843482653435</v>
       </c>
       <c r="C8" t="n">
+        <v>0.44378671698988575</v>
+      </c>
+      <c r="D8" t="n">
         <v>6.0779387191958545</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>6.802454132019388E-9</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>1.1294989196637336E-5</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>9.890016120067243</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
         <v>-11.36525227188093</v>
       </c>
       <c r="C9" t="n">
+        <v>7.560734437969068</v>
+      </c>
+      <c r="D9" t="n">
         <v>-5.806670444723033</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>2.7298355830240054E-8</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.966109872686002E-5</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>8.613934281787962</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
         <v>-5.768863413476141</v>
       </c>
       <c r="C10" t="n">
+        <v>6.73323926447439</v>
+      </c>
+      <c r="D10" t="n">
         <v>-5.698100174836306</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>4.7068502299559776E-8</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>6.078635580308702E-5</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>8.11414988765812</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
         <v>-2.590303226953327</v>
       </c>
       <c r="C11" t="n">
+        <v>7.009061412051611</v>
+      </c>
+      <c r="D11" t="n">
         <v>-5.6328212243361016</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>6.510145594510943E-8</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>6.974820749925428E-5</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>7.81675158654757</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
         <v>-7.876730178670224</v>
       </c>
       <c r="C12" t="n">
+        <v>3.951623183776923</v>
+      </c>
+      <c r="D12" t="n">
         <v>-5.6300218974867215</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>6.60096603709711E-8</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>6.974820749925428E-5</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>7.804051085863003</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
         <v>-5.732485089741435</v>
       </c>
       <c r="C13" t="n">
+        <v>8.946684710211544</v>
+      </c>
+      <c r="D13" t="n">
         <v>-5.573787501525474</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>8.710864338851518E-8</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>8.437198017539267E-5</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>7.549841796275288</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
         <v>-5.673807110460237</v>
       </c>
       <c r="C14" t="n">
+        <v>6.858069171000785</v>
+      </c>
+      <c r="D14" t="n">
         <v>-5.5386148590210125</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>1.0351346633835234E-7</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>9.254900148082071E-5</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>7.391744288454824</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n">
         <v>-6.148410411480229</v>
       </c>
       <c r="C15" t="n">
+        <v>9.512576050251964</v>
+      </c>
+      <c r="D15" t="n">
         <v>-5.437009959429387</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>1.697077083016413E-7</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.4089376382785547E-4</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>6.93898512737851</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n">
         <v>-5.708527173136455</v>
       </c>
       <c r="C16" t="n">
+        <v>7.941609267046615</v>
+      </c>
+      <c r="D16" t="n">
         <v>-5.409149589682686</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>1.941385846043729E-7</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.5043151792377507E-4</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>6.815871628283656</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="n">
         <v>-4.525792394226887</v>
       </c>
       <c r="C17" t="n">
+        <v>3.604773175842532</v>
+      </c>
+      <c r="D17" t="n">
         <v>-5.346519641137995</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>2.622307610137796E-7</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.9049425845394752E-4</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>6.54075797611252</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="n">
         <v>-6.436835596109729</v>
       </c>
       <c r="C18" t="n">
+        <v>8.397480138656862</v>
+      </c>
+      <c r="D18" t="n">
         <v>-5.327541209352366</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>2.8710998017532297E-7</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.948519430946869E-4</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>6.457844210590602</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="n">
         <v>2.330736130543488</v>
       </c>
       <c r="C19" t="n">
+        <v>0.7801904318624306</v>
+      </c>
+      <c r="D19" t="n">
         <v>5.3171028912323814</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>3.01758149849812E-7</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.948519430946869E-4</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>6.4123310684457095</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="n">
         <v>2.8759246310448576</v>
       </c>
       <c r="C20" t="n">
+        <v>1.7886051570131756</v>
+      </c>
+      <c r="D20" t="n">
         <v>5.286735566239179</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>3.486313636243433E-7</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>2.1327064944240748E-4</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>6.280288893437598</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="n">
         <v>-4.636012529959719</v>
       </c>
       <c r="C21" t="n">
+        <v>10.637841563657895</v>
+      </c>
+      <c r="D21" t="n">
         <v>-5.2718855695036915</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>3.74061218729076E-7</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>2.1738567726440253E-4</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>6.215917309007521</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="n">
         <v>-6.025625873862706</v>
       </c>
       <c r="C22" t="n">
+        <v>8.093273252167927</v>
+      </c>
+      <c r="D22" t="n">
         <v>-5.196275933573566</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>5.342152533220295E-7</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>2.920720683376816E-4</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>5.890203926464666</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n">
         <v>-8.392948726429426</v>
       </c>
       <c r="C23" t="n">
+        <v>5.945182296338406</v>
+      </c>
+      <c r="D23" t="n">
         <v>-5.18896821826293</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>5.528336490948115E-7</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>2.920720683376816E-4</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>5.8589051738333495</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n">
         <v>-5.45517354070097</v>
       </c>
       <c r="C24" t="n">
+        <v>8.164722138304773</v>
+      </c>
+      <c r="D24" t="n">
         <v>-5.129603532013122</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>7.293345946551908E-7</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>3.6856765189901224E-4</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>5.605844239120906</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" t="n">
         <v>-5.530103949076794</v>
       </c>
       <c r="C25" t="n">
+        <v>10.467737624992703</v>
+      </c>
+      <c r="D25" t="n">
         <v>-5.119772582359572</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>7.634181044098575E-7</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>3.6971702614815725E-4</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>5.564143235627899</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" t="n">
         <v>2.61739823262187</v>
       </c>
       <c r="C26" t="n">
+        <v>1.6085122855804164</v>
+      </c>
+      <c r="D26" t="n">
         <v>5.097361703743847</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>8.469980315930986E-7</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>3.937863248482634E-4</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>5.469301166423188</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="n">
         <v>-5.783238136867946</v>
       </c>
       <c r="C27" t="n">
+        <v>8.219750194991663</v>
+      </c>
+      <c r="D27" t="n">
         <v>-5.015135496410435</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>1.2366779779226514E-6</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>5.528426206690375E-4</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>5.123966683013229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="n">
         <v>-5.531156300344081</v>
       </c>
       <c r="C28" t="n">
+        <v>8.304417661942347</v>
+      </c>
+      <c r="D28" t="n">
         <v>-4.926568172656836</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>1.8502313536195548E-6</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>7.964903341896327E-4</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>4.756700906693853</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" t="n">
         <v>1.631667524094971</v>
       </c>
       <c r="C29" t="n">
+        <v>0.20279624964973722</v>
+      </c>
+      <c r="D29" t="n">
         <v>4.885313338099066</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>2.2283457308380273E-6</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>9.250022296260854E-4</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>4.5873119909212505</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
         <v>-7.498958905521076</v>
       </c>
       <c r="C30" t="n">
+        <v>3.3386371238876107</v>
+      </c>
+      <c r="D30" t="n">
         <v>-4.843983572040622</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>2.681682302596214E-6</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>0.001074799772519855</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>4.418699032816409</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="n">
         <v>-5.0094595463254254</v>
       </c>
       <c r="C31" t="n">
+        <v>6.426828373841614</v>
+      </c>
+      <c r="D31" t="n">
         <v>-4.716098799957163</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>4.722780681596275E-6</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>0.001829762662073117</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>3.9039179684747705</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="n">
         <v>-4.872495073122785</v>
       </c>
       <c r="C32" t="n">
+        <v>9.413990993193083</v>
+      </c>
+      <c r="D32" t="n">
         <v>-4.6268483529769036</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>6.965573437934963E-6</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>0.0026116406473909058</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>3.5509653232008684</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="n">
         <v>-5.246683696797074</v>
       </c>
       <c r="C33" t="n">
+        <v>7.90709663968516</v>
+      </c>
+      <c r="D33" t="n">
         <v>-4.604355818638011</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>7.675782610528891E-6</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>0.0027879881650680408</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>3.462844709684317</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="n">
         <v>-5.510397768389689</v>
       </c>
       <c r="C34" t="n">
+        <v>6.097122758257684</v>
+      </c>
+      <c r="D34" t="n">
         <v>-4.580626492318685</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>8.500551786522549E-6</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>0.002900279383648764</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>3.37024300460798</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="n">
         <v>-2.568790532605811</v>
       </c>
       <c r="C35" t="n">
+        <v>2.2644694757892525</v>
+      </c>
+      <c r="D35" t="n">
         <v>-4.577561634049742</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>8.61311061984053E-6</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>0.002900279383648764</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>3.358310003954468</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="n">
         <v>-5.186231596943515</v>
       </c>
       <c r="C36" t="n">
+        <v>3.497176870608888</v>
+      </c>
+      <c r="D36" t="n">
         <v>-4.574325266957354</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>8.73352649296281E-6</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>0.002900279383648764</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>3.345716037950977</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="n">
         <v>-2.872406633292891</v>
       </c>
       <c r="C37" t="n">
+        <v>2.8892527033325535</v>
+      </c>
+      <c r="D37" t="n">
         <v>-4.532987623647585</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>1.0421612326675281E-5</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>0.003364733335359633</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>3.1854713302118682</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" t="n">
         <v>-4.78357113984107</v>
       </c>
       <c r="C38" t="n">
+        <v>5.244802324211332</v>
+      </c>
+      <c r="D38" t="n">
         <v>-4.507705216269747</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>1.1604466718190556E-5</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>0.003570692676640953</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>3.0880297657266915</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" t="n">
         <v>-3.426881228762002</v>
       </c>
       <c r="C39" t="n">
+        <v>6.505264525932285</v>
+      </c>
+      <c r="D39" t="n">
         <v>-4.506298321150865</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>1.1673950074193945E-5</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>0.003570692676640953</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>3.082620061732193</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" t="n">
         <v>1.9515950536610691</v>
       </c>
       <c r="C40" t="n">
+        <v>0.6071322379896419</v>
+      </c>
+      <c r="D40" t="n">
         <v>4.341905054415615</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>2.3233264655398504E-5</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>0.006918141024941621</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>2.4597744135744577</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" t="n">
         <v>2.1681842969054705</v>
       </c>
       <c r="C41" t="n">
+        <v>0.4204135267547167</v>
+      </c>
+      <c r="D41" t="n">
         <v>4.3242454562247925</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>2.4988273802916553E-5</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>0.006918141024941621</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>2.3939699156700733</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" t="n">
         <v>-5.290525566872536</v>
       </c>
       <c r="C42" t="n">
+        <v>2.16370624140571</v>
+      </c>
+      <c r="D42" t="n">
         <v>-4.32186809026756</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>2.5234029752544994E-5</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>0.006918141024941621</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>2.385127697053438</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" t="n">
         <v>-5.15244378078306</v>
       </c>
       <c r="C43" t="n">
+        <v>4.285061978627885</v>
+      </c>
+      <c r="D43" t="n">
         <v>-4.320260117398116</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>2.5401563188367262E-5</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>0.006918141024941621</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>2.379149330286067</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" t="n">
         <v>-4.819534950051663</v>
       </c>
       <c r="C44" t="n">
+        <v>7.5550024166513845</v>
+      </c>
+      <c r="D44" t="n">
         <v>-4.31842480630361</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>2.5594086214616683E-5</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>0.006918141024941621</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>2.3723279224134988</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" t="n">
         <v>-5.243991408170942</v>
       </c>
       <c r="C45" t="n">
+        <v>6.57843124470044</v>
+      </c>
+      <c r="D45" t="n">
         <v>-4.298622285282524</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>2.77623557277178E-5</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>0.007333678650528728</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>2.2988755046735445</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" t="n">
         <v>-3.698157448735208</v>
       </c>
       <c r="C46" t="n">
+        <v>2.85639883127718</v>
+      </c>
+      <c r="D46" t="n">
         <v>-4.28884241708876</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>2.889710370891631E-5</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>0.007463800809082984</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>2.2627001716358155</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" t="n">
         <v>-5.159414798773112</v>
       </c>
       <c r="C47" t="n">
+        <v>7.455793422383382</v>
+      </c>
+      <c r="D47" t="n">
         <v>-4.270726443524124</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>3.111753505682217E-5</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>0.007862589347074872</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>2.195866060791179</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" t="n">
         <v>-4.3507317595112</v>
       </c>
       <c r="C48" t="n">
+        <v>7.35829223437057</v>
+      </c>
+      <c r="D48" t="n">
         <v>-4.253162758711971</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>3.342570433382183E-5</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>0.00826610556323428</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>2.1312883694499547</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" t="n">
         <v>3.244035384588255</v>
       </c>
       <c r="C49" t="n">
+        <v>1.0149938604568476</v>
+      </c>
+      <c r="D49" t="n">
         <v>4.22204175032559</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>3.7923793897662985E-5</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>0.009085663671576953</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>2.01739440815075</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50" t="n">
         <v>-5.0796012012273755</v>
       </c>
       <c r="C50" t="n">
+        <v>4.998079489427877</v>
+      </c>
+      <c r="D50" t="n">
         <v>-4.21958109898142</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>3.830315064159603E-5</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>0.009085663671576953</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>2.0084181581338303</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" t="n">
         <v>-5.542569668720657</v>
       </c>
       <c r="C51" t="n">
+        <v>2.7619383474463612</v>
+      </c>
+      <c r="D51" t="n">
         <v>-4.184243617172287</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>4.4168077580500293E-5</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>0.0102673113143631</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>1.8799807414486116</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" t="n">
         <v>-3.5343288124145857</v>
       </c>
       <c r="C52" t="n">
+        <v>9.133915678053006</v>
+      </c>
+      <c r="D52" t="n">
         <v>-4.1752314968573785</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>4.579592715791081E-5</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>0.010436981595223478</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>1.8473665186524144</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" t="n">
         <v>-5.034194589292567</v>
       </c>
       <c r="C53" t="n">
+        <v>6.800932082574817</v>
+      </c>
+      <c r="D53" t="n">
         <v>-4.120010573962577</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>5.709431424647853E-5</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>0.012761677201669614</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>1.6487847339727804</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54" t="n">
         <v>-3.704688049516925</v>
       </c>
       <c r="C54" t="n">
+        <v>6.432572097258127</v>
+      </c>
+      <c r="D54" t="n">
         <v>-4.099065948626348</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>6.203960488346927E-5</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>0.013605402406803082</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>1.5740334862131151</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55" t="n">
         <v>-4.593494109818955</v>
       </c>
       <c r="C55" t="n">
+        <v>7.534868729509415</v>
+      </c>
+      <c r="D55" t="n">
         <v>-4.0912188919810815</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>6.39956074116813E-5</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>0.01377446194344392</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>1.5461082032989797</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56" t="n">
         <v>1.505791901204861</v>
       </c>
       <c r="C56" t="n">
+        <v>0.7651742004786756</v>
+      </c>
+      <c r="D56" t="n">
         <v>4.076899772327981</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>6.771749749229137E-5</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>0.014310554060961864</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>1.4952645846322143</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57" t="n">
         <v>-4.2532266017737905</v>
       </c>
       <c r="C57" t="n">
+        <v>7.279443520829554</v>
+      </c>
+      <c r="D57" t="n">
         <v>-4.051748009739511</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>7.476013769572423E-5</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>0.015516733579239333</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>1.406313563082902</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58" t="n">
         <v>-3.6942431437490675</v>
       </c>
       <c r="C58" t="n">
+        <v>2.003738262533463</v>
+      </c>
+      <c r="D58" t="n">
         <v>-4.033221838677574</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>8.038849264254517E-5</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>0.016392200876917586</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>1.3410858640393872</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59" t="n">
         <v>-2.843821512085075</v>
       </c>
       <c r="C59" t="n">
+        <v>2.263584762061462</v>
+      </c>
+      <c r="D59" t="n">
         <v>-4.0146587872738655</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>8.643164033979107E-5</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>0.017320602683955025</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>1.2759769916425263</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60" t="n">
         <v>-3.1520045887444827</v>
       </c>
       <c r="C60" t="n">
+        <v>4.1462796871206775</v>
+      </c>
+      <c r="D60" t="n">
         <v>-3.9833531973086624</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>9.761473915538194E-5</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>0.01923010361361024</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>1.1667400086191257</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61" t="n">
         <v>-3.1567202962719634</v>
       </c>
       <c r="C61" t="n">
+        <v>6.711181763745031</v>
+      </c>
+      <c r="D61" t="n">
         <v>-3.9531324831919266</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>1.0970701887326318E-4</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>0.02106482652233135</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>1.0619646865866663</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62" t="n">
         <v>-4.194943387446474</v>
       </c>
       <c r="C62" t="n">
+        <v>4.834590352139486</v>
+      </c>
+      <c r="D62" t="n">
         <v>-3.9471484990169987</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>1.1226466902235723E-4</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>0.02106482652233135</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>1.0412972113120027</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63" t="n">
         <v>-4.707336364880686</v>
       </c>
       <c r="C63" t="n">
+        <v>4.178383669818642</v>
+      </c>
+      <c r="D63" t="n">
         <v>-3.946916243227919</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>1.1236507307790964E-4</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>0.02106482652233135</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>1.0404955740727528</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64" t="n">
         <v>-4.092077781149355</v>
       </c>
       <c r="C64" t="n">
+        <v>6.400497352547793</v>
+      </c>
+      <c r="D64" t="n">
         <v>-3.938235577503037</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>1.1617955281471367E-4</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>0.02136082083924472</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>1.0105623020050585</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65" t="n">
         <v>-4.898316415695568</v>
       </c>
       <c r="C65" t="n">
+        <v>4.773004901122188</v>
+      </c>
+      <c r="D65" t="n">
         <v>-3.935028759021351</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>1.1761959336760407E-4</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>0.02136082083924472</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>0.9995182721325575</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" t="n">
         <v>-4.321080252683708</v>
       </c>
       <c r="C66" t="n">
+        <v>6.027545255956727</v>
+      </c>
+      <c r="D66" t="n">
         <v>-3.8817287751687752</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>1.4418619131986133E-4</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>0.02578270925708843</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>0.8170621501679349</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67" t="n">
         <v>-2.8103210121154665</v>
       </c>
       <c r="C67" t="n">
+        <v>3.206039947714101</v>
+      </c>
+      <c r="D67" t="n">
         <v>-3.8608423588091876</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>1.5607585825999434E-4</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>0.027485904553877484</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>0.7461342603275058</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68" t="n">
         <v>-3.8185367696194947</v>
       </c>
       <c r="C68" t="n">
+        <v>2.285569640313896</v>
+      </c>
+      <c r="D68" t="n">
         <v>-3.8476888671112506</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>1.6403474545728197E-4</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>0.028456355917164007</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>0.7016319407240879</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B69" t="n">
         <v>1.3523485652149456</v>
       </c>
       <c r="C69" t="n">
+        <v>0.3165608407387364</v>
+      </c>
+      <c r="D69" t="n">
         <v>3.826593206576165</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>1.7760817426816795E-4</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>0.03035793837527818</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>0.6305264197919591</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70" t="n">
         <v>-2.5548725668165178</v>
       </c>
       <c r="C70" t="n">
+        <v>1.9535238960655967</v>
+      </c>
+      <c r="D70" t="n">
         <v>-3.7977791835342485</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>1.9787576479218924E-4</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>0.03333202919100892</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>0.5339393140629962</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B71" t="n">
         <v>-4.133972838672674</v>
       </c>
       <c r="C71" t="n">
+        <v>7.603618654744359</v>
+      </c>
+      <c r="D71" t="n">
         <v>-3.7828221143660716</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>2.0924176126832047E-4</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>0.034743099874595555</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>0.4840457501251949</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B72" t="n">
         <v>-2.1986294618904756</v>
       </c>
       <c r="C72" t="n">
+        <v>2.660741255416903</v>
+      </c>
+      <c r="D72" t="n">
         <v>-3.775135829154539</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>2.1532041368752168E-4</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>0.03524886152521217</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>0.45847092016910906</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73" t="n">
         <v>1.1852517391907538</v>
       </c>
       <c r="C73" t="n">
+        <v>0.12093446770723251</v>
+      </c>
+      <c r="D73" t="n">
         <v>3.7664355827003306</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>2.2240255449390976E-4</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>0.03590256792892657</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>0.42957558938929985</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74" t="n">
         <v>-4.196438354434217</v>
       </c>
       <c r="C74" t="n">
+        <v>6.254894680423377</v>
+      </c>
+      <c r="D74" t="n">
         <v>-3.7410832969725494</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>2.4431797582807744E-4</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>0.03890010730205129</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>0.34569861209268815</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B75" t="n">
         <v>-4.029608939660801</v>
       </c>
       <c r="C75" t="n">
+        <v>4.7816402214683835</v>
+      </c>
+      <c r="D75" t="n">
         <v>-3.699514851437985</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>2.847273337495699E-4</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>0.04472142973204393</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>0.20921606059744668</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76" t="n">
         <v>-4.638308693316341</v>
       </c>
       <c r="C76" t="n">
+        <v>5.462415987565584</v>
+      </c>
+      <c r="D76" t="n">
         <v>-3.694517263531691</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>2.899902216850898E-4</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>0.04494075128861064</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>0.19289505498460802</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77" t="n">
         <v>-4.073586109580233</v>
       </c>
       <c r="C77" t="n">
+        <v>2.953406086973802</v>
+      </c>
+      <c r="D77" t="n">
         <v>-3.6845969366893754</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>3.007105218569485E-4</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>0.04550470211433082</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>0.16055337339493914</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78" t="n">
         <v>-4.109257812392009</v>
       </c>
       <c r="C78" t="n">
+        <v>3.530326951114646</v>
+      </c>
+      <c r="D78" t="n">
         <v>-3.683916521325249</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>3.014593532481694E-4</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>0.04550470211433082</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>0.15833784795647254</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79" t="n">
         <v>-3.786231887407058</v>
       </c>
       <c r="C79" t="n">
+        <v>5.576372915421731</v>
+      </c>
+      <c r="D79" t="n">
         <v>-3.678813848241665</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>3.0713146718052087E-4</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>0.045766526192810186</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>0.14173400575652284</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80" t="n">
         <v>2.8056136877979556</v>
       </c>
       <c r="C80" t="n">
+        <v>2.679986891393164</v>
+      </c>
+      <c r="D80" t="n">
         <v>3.6697267771670288</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>3.174828785596646E-4</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>0.04628426240512662</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>0.11221392238949868</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81" t="n">
         <v>-5.043515555887981</v>
       </c>
       <c r="C81" t="n">
+        <v>5.3153579088716425</v>
+      </c>
+      <c r="D81" t="n">
         <v>-3.6687885825810804</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>3.185701619556164E-4</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>0.04628426240512662</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>0.10916968278044159</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82" t="n">
         <v>-3.428164709677021</v>
       </c>
       <c r="C82" t="n">
+        <v>1.6068506276372279</v>
+      </c>
+      <c r="D82" t="n">
         <v>-3.6500584984535585</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>3.4102597055099077E-4</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>0.04893512167548353</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>0.0485342350561595</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" t="n">
         <v>-2.1973092106250287</v>
       </c>
       <c r="C83" t="n">
+        <v>3.6049249607402163</v>
+      </c>
+      <c r="D83" t="n">
         <v>-3.6424150523873955</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>3.5061197341638685E-4</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>0.04969710935388615</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>0.023866385746029728</v>
       </c>
     </row>
@@ -2952,63 +3204,63 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" t="n">
         <v>9.353705575657461E-4</v>
@@ -3029,13 +3281,13 @@
         <v>0.026829268292682926</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M2" t="n">
         <v>11137.0</v>
@@ -3044,24 +3296,24 @@
         <v>2890.0</v>
       </c>
       <c r="O2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D3" t="n">
         <v>0.0010276502912545894</v>
@@ -3082,13 +3334,13 @@
         <v>0.05660377358490566</v>
       </c>
       <c r="J3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M3" t="n">
         <v>11137.0</v>
@@ -3097,24 +3349,24 @@
         <v>1089.0</v>
       </c>
       <c r="O3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
         <v>0.0036386893997235664</v>
@@ -3135,13 +3387,13 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="J4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M4" t="n">
         <v>11137.0</v>
@@ -3150,24 +3402,24 @@
         <v>22161.0</v>
       </c>
       <c r="O4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D5" t="n">
         <v>0.004016392514918138</v>
@@ -3188,13 +3440,13 @@
         <v>0.29411764705882354</v>
       </c>
       <c r="J5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M5" t="n">
         <v>11137.0</v>
@@ -3203,24 +3455,24 @@
         <v>1101.0</v>
       </c>
       <c r="O5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D6" t="n">
         <v>0.006194714797113494</v>
@@ -3241,13 +3493,13 @@
         <v>0.09302325581395349</v>
       </c>
       <c r="J6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M6" t="n">
         <v>11137.0</v>
@@ -3256,24 +3508,24 @@
         <v>1346.0</v>
       </c>
       <c r="O6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D7" t="n">
         <v>0.00807425740702436</v>
@@ -3294,13 +3546,13 @@
         <v>0.03074141048824593</v>
       </c>
       <c r="J7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M7" t="n">
         <v>11137.0</v>
@@ -3309,24 +3561,24 @@
         <v>22010.0</v>
       </c>
       <c r="O7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D8" t="n">
         <v>0.00899021676353098</v>
@@ -3347,13 +3599,13 @@
         <v>0.024676850763807285</v>
       </c>
       <c r="J8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M8" t="n">
         <v>11137.0</v>
@@ -3362,24 +3614,24 @@
         <v>12795.0</v>
       </c>
       <c r="O8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D9" t="n">
         <v>0.010308698235127518</v>
@@ -3400,13 +3652,13 @@
         <v>0.034722222222222224</v>
       </c>
       <c r="J9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M9" t="n">
         <v>11137.0</v>
@@ -3415,24 +3667,24 @@
         <v>13129.0</v>
       </c>
       <c r="O9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
         <v>0.012925594001751965</v>
@@ -3453,13 +3705,13 @@
         <v>0.23809523809523808</v>
       </c>
       <c r="J10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M10" t="n">
         <v>11137.0</v>
@@ -3468,24 +3720,24 @@
         <v>16811.0</v>
       </c>
       <c r="O10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D11" t="n">
         <v>0.0129823691559178</v>
@@ -3506,13 +3758,13 @@
         <v>0.040498442367601244</v>
       </c>
       <c r="J11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M11" t="n">
         <v>11137.0</v>
@@ -3521,24 +3773,24 @@
         <v>907.0</v>
       </c>
       <c r="O11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D12" t="n">
         <v>0.016536592246160792</v>
@@ -3559,13 +3811,13 @@
         <v>0.056818181818181816</v>
       </c>
       <c r="J12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M12" t="n">
         <v>11137.0</v>
@@ -3574,24 +3826,24 @@
         <v>1106.0</v>
       </c>
       <c r="O12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P12" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D13" t="n">
         <v>0.017109915365875753</v>
@@ -3612,13 +3864,13 @@
         <v>0.024844720496894408</v>
       </c>
       <c r="J13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M13" t="n">
         <v>11137.0</v>
@@ -3627,24 +3879,24 @@
         <v>2887.0</v>
       </c>
       <c r="O13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D14" t="n">
         <v>0.018897696121850438</v>
@@ -3665,13 +3917,13 @@
         <v>0.024691358024691357</v>
       </c>
       <c r="J14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M14" t="n">
         <v>11137.0</v>
@@ -3680,24 +3932,24 @@
         <v>1323.0</v>
       </c>
       <c r="O14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D15" t="n">
         <v>0.026564732229127287</v>
@@ -3718,13 +3970,13 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="J15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M15" t="n">
         <v>11137.0</v>
@@ -3733,24 +3985,24 @@
         <v>19449.0</v>
       </c>
       <c r="O15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D16" t="n">
         <v>0.026564732229127287</v>
@@ -3771,13 +4023,13 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="J16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M16" t="n">
         <v>11137.0</v>
@@ -3786,24 +4038,24 @@
         <v>551.0</v>
       </c>
       <c r="O16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P16" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D17" t="n">
         <v>0.02946472206649832</v>
@@ -3824,13 +4076,13 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M17" t="n">
         <v>11137.0</v>
@@ -3839,24 +4091,24 @@
         <v>14497.0</v>
       </c>
       <c r="O17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q17" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D18" t="n">
         <v>0.03097249046736977</v>
@@ -3877,13 +4129,13 @@
         <v>0.02509907529722589</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M18" t="n">
         <v>11137.0</v>
@@ -3892,24 +4144,24 @@
         <v>16071.0</v>
       </c>
       <c r="O18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D19" t="n">
         <v>0.03097249046736977</v>
@@ -3930,13 +4182,13 @@
         <v>0.02509907529722589</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M19" t="n">
         <v>11137.0</v>
@@ -3945,24 +4197,24 @@
         <v>12207.0</v>
       </c>
       <c r="O19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q19" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D20" t="n">
         <v>0.033331909120884295</v>
@@ -3983,13 +4235,13 @@
         <v>0.019103600293901544</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M20" t="n">
         <v>11137.0</v>
@@ -3998,24 +4250,24 @@
         <v>3979.0</v>
       </c>
       <c r="O20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q20" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D21" t="n">
         <v>0.03359388581802257</v>
@@ -4036,13 +4288,13 @@
         <v>0.36363636363636365</v>
       </c>
       <c r="J21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M21" t="n">
         <v>11137.0</v>
@@ -4051,24 +4303,24 @@
         <v>2893.0</v>
       </c>
       <c r="O21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P21" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q21" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D22" t="n">
         <v>0.035528563683974106</v>
@@ -4089,13 +4341,13 @@
         <v>0.0945945945945946</v>
       </c>
       <c r="J22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M22" t="n">
         <v>11137.0</v>
@@ -4104,24 +4356,24 @@
         <v>1458.0</v>
       </c>
       <c r="O22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P22" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q22" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D23" t="n">
         <v>0.0396406678458247</v>
@@ -4142,13 +4394,13 @@
         <v>0.03125</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M23" t="n">
         <v>11137.0</v>
@@ -4157,24 +4409,24 @@
         <v>15328.0</v>
       </c>
       <c r="O23" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P23" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q23" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D24" t="n">
         <v>0.040445923260308284</v>
@@ -4195,13 +4447,13 @@
         <v>0.04040404040404041</v>
       </c>
       <c r="J24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M24" t="n">
         <v>11137.0</v>
@@ -4210,24 +4462,24 @@
         <v>15330.0</v>
       </c>
       <c r="O24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P24" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D25" t="n">
         <v>0.04159711586605356</v>
@@ -4248,13 +4500,13 @@
         <v>0.045081967213114756</v>
       </c>
       <c r="J25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M25" t="n">
         <v>11137.0</v>
@@ -4263,24 +4515,24 @@
         <v>905.0</v>
       </c>
       <c r="O25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P25" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q25" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D26" t="n">
         <v>0.048812189391741465</v>
@@ -4301,13 +4553,13 @@
         <v>0.02435897435897436</v>
       </c>
       <c r="J26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M26" t="n">
         <v>11137.0</v>
@@ -4316,24 +4568,24 @@
         <v>3981.0</v>
       </c>
       <c r="O26" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q26" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D27" t="n">
         <v>2.197322784149194E-14</v>
@@ -4354,13 +4606,13 @@
         <v>0.0654911838790932</v>
       </c>
       <c r="J27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M27" t="n">
         <v>11137.0</v>
@@ -4369,24 +4621,24 @@
         <v>277.0</v>
       </c>
       <c r="O27" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P27" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q27" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D28" t="n">
         <v>4.623849584508327E-13</v>
@@ -4407,13 +4659,13 @@
         <v>0.048414023372287146</v>
       </c>
       <c r="J28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M28" t="n">
         <v>11137.0</v>
@@ -4422,24 +4674,24 @@
         <v>240.0</v>
       </c>
       <c r="O28" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P28" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q28" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D29" t="n">
         <v>9.725321682469129E-6</v>
@@ -4460,13 +4712,13 @@
         <v>0.04815864022662889</v>
       </c>
       <c r="J29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M29" t="n">
         <v>11137.0</v>
@@ -4475,24 +4727,24 @@
         <v>66.0</v>
       </c>
       <c r="O29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P29" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q29" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D30" t="n">
         <v>9.725321682469129E-6</v>
@@ -4513,13 +4765,13 @@
         <v>0.04815864022662889</v>
       </c>
       <c r="J30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M30" t="n">
         <v>11137.0</v>
@@ -4528,24 +4780,24 @@
         <v>408.0</v>
       </c>
       <c r="O30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P30" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q30" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D31" t="n">
         <v>1.8610828905162312E-4</v>
@@ -4566,13 +4818,13 @@
         <v>0.0397196261682243</v>
       </c>
       <c r="J31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M31" t="n">
         <v>11137.0</v>
@@ -4581,24 +4833,24 @@
         <v>416.0</v>
       </c>
       <c r="O31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q31" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D32" t="n">
         <v>0.0012559664538573053</v>
@@ -4619,13 +4871,13 @@
         <v>0.04076086956521739</v>
       </c>
       <c r="J32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M32" t="n">
         <v>11137.0</v>
@@ -4634,24 +4886,24 @@
         <v>790.0</v>
       </c>
       <c r="O32" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P32" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q32" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D33" t="n">
         <v>0.015358230216647263</v>
@@ -4672,13 +4924,13 @@
         <v>0.020525451559934318</v>
       </c>
       <c r="J33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M33" t="n">
         <v>11137.0</v>
@@ -4687,24 +4939,24 @@
         <v>1451.0</v>
       </c>
       <c r="O33" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P33" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q33" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D34" t="n">
         <v>0.006572746923706862</v>
@@ -4725,13 +4977,13 @@
         <v>0.054187192118226604</v>
       </c>
       <c r="J34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L34" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M34" t="n">
         <v>11137.0</v>
@@ -4740,24 +4992,24 @@
         <v>5459.0</v>
       </c>
       <c r="O34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P34" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q34" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D35" t="n">
         <v>1.257093958297615E-4</v>
@@ -4778,13 +5030,13 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="J35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K35" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M35" t="n">
         <v>11137.0</v>
@@ -4793,24 +5045,24 @@
         <v>1988.0</v>
       </c>
       <c r="O35" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q35" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D36" t="n">
         <v>3.2433327687639833E-4</v>
@@ -4831,13 +5083,13 @@
         <v>0.15</v>
       </c>
       <c r="J36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K36" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L36" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M36" t="n">
         <v>11137.0</v>
@@ -4846,24 +5098,24 @@
         <v>89.0</v>
       </c>
       <c r="O36" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P36" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q36" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D37" t="n">
         <v>3.611563418413734E-4</v>
@@ -4884,13 +5136,13 @@
         <v>1.0</v>
       </c>
       <c r="J37" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M37" t="n">
         <v>11137.0</v>
@@ -4899,24 +5151,24 @@
         <v>3658.0</v>
       </c>
       <c r="O37" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P37" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q37" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D38" t="n">
         <v>0.001610877001451459</v>
@@ -4937,13 +5189,13 @@
         <v>0.11538461538461539</v>
       </c>
       <c r="J38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M38" t="n">
         <v>11137.0</v>
@@ -4952,24 +5204,24 @@
         <v>106.0</v>
       </c>
       <c r="O38" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P38" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D39" t="n">
         <v>0.0035756525068940752</v>
@@ -4990,13 +5242,13 @@
         <v>0.6</v>
       </c>
       <c r="J39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L39" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M39" t="n">
         <v>11137.0</v>
@@ -5005,24 +5257,24 @@
         <v>8399.0</v>
       </c>
       <c r="O39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P39" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q39" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D40" t="n">
         <v>0.006824163340809389</v>
@@ -5043,13 +5295,13 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="J40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K40" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L40" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M40" t="n">
         <v>11137.0</v>
@@ -5058,24 +5310,24 @@
         <v>1613.0</v>
       </c>
       <c r="O40" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P40" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q40" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D41" t="n">
         <v>0.007115676392316484</v>
@@ -5096,13 +5348,13 @@
         <v>0.5</v>
       </c>
       <c r="J41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K41" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L41" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M41" t="n">
         <v>11137.0</v>
@@ -5111,24 +5363,24 @@
         <v>618.0</v>
       </c>
       <c r="O41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P41" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D42" t="n">
         <v>0.007576791802318386</v>
@@ -5149,13 +5401,13 @@
         <v>0.06796116504854369</v>
       </c>
       <c r="J42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K42" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L42" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M42" t="n">
         <v>11137.0</v>
@@ -5164,24 +5416,24 @@
         <v>85.0</v>
       </c>
       <c r="O42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P42" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q42" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D43" t="n">
         <v>0.007576791802318386</v>
@@ -5202,13 +5454,13 @@
         <v>0.06796116504854369</v>
       </c>
       <c r="J43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K43" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L43" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M43" t="n">
         <v>11137.0</v>
@@ -5217,24 +5469,24 @@
         <v>11287.0</v>
       </c>
       <c r="O43" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P43" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q43" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D44" t="n">
         <v>0.01069210513839295</v>
@@ -5255,13 +5507,13 @@
         <v>0.2</v>
       </c>
       <c r="J44" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L44" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M44" t="n">
         <v>11137.0</v>
@@ -5270,24 +5522,24 @@
         <v>7484.0</v>
       </c>
       <c r="O44" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P44" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q44" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D45" t="n">
         <v>0.023068785293381036</v>
@@ -5308,13 +5560,13 @@
         <v>0.05737704918032787</v>
       </c>
       <c r="J45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L45" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M45" t="n">
         <v>11137.0</v>
@@ -5323,24 +5575,24 @@
         <v>7485.0</v>
       </c>
       <c r="O45" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P45" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q45" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D46" t="n">
         <v>0.029441611732908685</v>
@@ -5361,13 +5613,13 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K46" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L46" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M46" t="n">
         <v>11137.0</v>
@@ -5376,24 +5628,24 @@
         <v>593.0</v>
       </c>
       <c r="O46" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P46" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q46" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D47" t="n">
         <v>0.033846170895574824</v>
@@ -5414,13 +5666,13 @@
         <v>0.03879310344827586</v>
       </c>
       <c r="J47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K47" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L47" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M47" t="n">
         <v>11137.0</v>
@@ -5429,24 +5681,24 @@
         <v>968.0</v>
       </c>
       <c r="O47" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P47" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q47" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D48" t="n">
         <v>0.037333825241665584</v>
@@ -5467,13 +5719,13 @@
         <v>0.14814814814814814</v>
       </c>
       <c r="J48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K48" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L48" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M48" t="n">
         <v>11137.0</v>
@@ -5482,24 +5734,24 @@
         <v>7008.0</v>
       </c>
       <c r="O48" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P48" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q48" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D49" t="n">
         <v>0.04185012168613438</v>
@@ -5520,13 +5772,13 @@
         <v>0.3</v>
       </c>
       <c r="J49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K49" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L49" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M49" t="n">
         <v>11137.0</v>
@@ -5535,24 +5787,24 @@
         <v>14764.0</v>
       </c>
       <c r="O49" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P49" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q49" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D50" t="n">
         <v>0.04653204435277217</v>
@@ -5573,13 +5825,13 @@
         <v>0.051470588235294115</v>
       </c>
       <c r="J50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K50" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L50" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M50" t="n">
         <v>11137.0</v>
@@ -5588,24 +5840,24 @@
         <v>567.0</v>
       </c>
       <c r="O50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P50" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q50" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D51" t="n">
         <v>4.320001859282687E-6</v>
@@ -5626,13 +5878,13 @@
         <v>0.08256880733944955</v>
       </c>
       <c r="J51" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K51" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L51" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M51" t="n">
         <v>11137.0</v>
@@ -5641,24 +5893,24 @@
         <v>262.0</v>
       </c>
       <c r="O51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q51" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" t="n">
         <v>7.431577243978258E-6</v>
@@ -5679,13 +5931,13 @@
         <v>0.07758620689655173</v>
       </c>
       <c r="J52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K52" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L52" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M52" t="n">
         <v>11137.0</v>
@@ -5694,24 +5946,24 @@
         <v>260.0</v>
       </c>
       <c r="O52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P52" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q52" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" t="n">
         <v>6.425085266930409E-5</v>
@@ -5732,13 +5984,13 @@
         <v>0.19230769230769232</v>
       </c>
       <c r="J53" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K53" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L53" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M53" t="n">
         <v>11137.0</v>
@@ -5747,24 +5999,24 @@
         <v>418.0</v>
       </c>
       <c r="O53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P53" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q53" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" t="n">
         <v>1.2841047602547032E-4</v>
@@ -5785,13 +6037,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="J54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K54" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L54" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M54" t="n">
         <v>11137.0</v>
@@ -5800,24 +6052,24 @@
         <v>419.0</v>
       </c>
       <c r="O54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P54" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q54" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" t="n">
         <v>0.0016453817978274831</v>
@@ -5838,13 +6090,13 @@
         <v>0.10204081632653061</v>
       </c>
       <c r="J55" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L55" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M55" t="n">
         <v>11137.0</v>
@@ -5853,24 +6105,24 @@
         <v>302.0</v>
       </c>
       <c r="O55" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P55" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q55" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" t="n">
         <v>0.009970018289360859</v>
@@ -5891,13 +6143,13 @@
         <v>0.010720111862036821</v>
       </c>
       <c r="J56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L56" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M56" t="n">
         <v>11137.0</v>
@@ -5906,24 +6158,24 @@
         <v>1.0</v>
       </c>
       <c r="O56" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P56" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q56" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D57" t="n">
         <v>0.030522451541373643</v>
@@ -5944,13 +6196,13 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="J57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K57" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L57" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M57" t="n">
         <v>11137.0</v>
@@ -5959,24 +6211,24 @@
         <v>300.0</v>
       </c>
       <c r="O57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P57" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q57" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D58" t="n">
         <v>0.03904571327537669</v>
@@ -5997,13 +6249,13 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="J58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K58" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L58" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M58" t="n">
         <v>11137.0</v>
@@ -6012,13 +6264,13 @@
         <v>289.0</v>
       </c>
       <c r="O58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P58" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q58" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/docs/LMER_Microglia_0.xlsx
+++ b/docs/LMER_Microglia_0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="439">
   <si>
     <t>logFC</t>
   </si>
@@ -498,6 +498,24 @@
     <t>57</t>
   </si>
   <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
     <t>query_1</t>
   </si>
   <si>
@@ -519,39 +537,48 @@
     <t>GO:0002705</t>
   </si>
   <si>
+    <t>GO:0044419</t>
+  </si>
+  <si>
     <t>GO:0098542</t>
   </si>
   <si>
-    <t>GO:0044419</t>
+    <t>GO:0055094</t>
   </si>
   <si>
     <t>GO:0045087</t>
   </si>
   <si>
-    <t>GO:0055094</t>
-  </si>
-  <si>
     <t>GO:0002252</t>
   </si>
   <si>
     <t>GO:0002460</t>
   </si>
   <si>
+    <t>GO:0002682</t>
+  </si>
+  <si>
     <t>GO:0006952</t>
   </si>
   <si>
-    <t>GO:0002682</t>
-  </si>
-  <si>
     <t>GO:0071402</t>
   </si>
   <si>
     <t>GO:0001774</t>
   </si>
   <si>
+    <t>GO:0002269</t>
+  </si>
+  <si>
     <t>GO:0048002</t>
   </si>
   <si>
+    <t>GO:0006958</t>
+  </si>
+  <si>
+    <t>GO:0002824</t>
+  </si>
+  <si>
     <t>GO:0051707</t>
   </si>
   <si>
@@ -561,22 +588,16 @@
     <t>GO:0009605</t>
   </si>
   <si>
-    <t>GO:0006958</t>
-  </si>
-  <si>
-    <t>GO:0002824</t>
+    <t>GO:0002250</t>
+  </si>
+  <si>
+    <t>GO:0050778</t>
   </si>
   <si>
     <t>GO:0050776</t>
   </si>
   <si>
-    <t>GO:0050778</t>
-  </si>
-  <si>
-    <t>GO:0002250</t>
-  </si>
-  <si>
-    <t>GO:0009607</t>
+    <t>GO:0061900</t>
   </si>
   <si>
     <t>GO:0005615</t>
@@ -600,18 +621,30 @@
     <t>GO:0031982</t>
   </si>
   <si>
+    <t>GO:0062167</t>
+  </si>
+  <si>
     <t>GO:0033218</t>
   </si>
   <si>
+    <t>GO:0042277</t>
+  </si>
+  <si>
     <t>HP:0002725</t>
   </si>
   <si>
+    <t>HP:0011034</t>
+  </si>
+  <si>
     <t>HP:0000099</t>
   </si>
   <si>
     <t>HP:0005356</t>
   </si>
   <si>
+    <t>HP:0003216</t>
+  </si>
+  <si>
     <t>HP:0000123</t>
   </si>
   <si>
@@ -621,16 +654,16 @@
     <t>HP:0002185</t>
   </si>
   <si>
+    <t>HP:0000095</t>
+  </si>
+  <si>
+    <t>HP:0031263</t>
+  </si>
+  <si>
     <t>HP:0000793</t>
   </si>
   <si>
-    <t>HP:0000095</t>
-  </si>
-  <si>
-    <t>HP:0031263</t>
-  </si>
-  <si>
-    <t>HP:0011034</t>
+    <t>HP:0000988</t>
   </si>
   <si>
     <t>HP:0011035</t>
@@ -645,6 +678,12 @@
     <t>HP:0010524</t>
   </si>
   <si>
+    <t>HP:0002715</t>
+  </si>
+  <si>
+    <t>HP:0001648</t>
+  </si>
+  <si>
     <t>HP:0100256</t>
   </si>
   <si>
@@ -657,21 +696,18 @@
     <t>KEGG:04142</t>
   </si>
   <si>
+    <t>KEGG:05152</t>
+  </si>
+  <si>
+    <t>KEGG:04612</t>
+  </si>
+  <si>
     <t>KEGG:05150</t>
   </si>
   <si>
-    <t>KEGG:05152</t>
-  </si>
-  <si>
-    <t>KEGG:04612</t>
-  </si>
-  <si>
     <t>KEGG:00000</t>
   </si>
   <si>
-    <t>KEGG:04610</t>
-  </si>
-  <si>
     <t>KEGG:04380</t>
   </si>
   <si>
@@ -705,39 +741,48 @@
     <t>positive regulation of leukocyte mediated immunity</t>
   </si>
   <si>
+    <t>biological process involved in interspecies interaction between organisms</t>
+  </si>
+  <si>
     <t>defense response to other organism</t>
   </si>
   <si>
-    <t>biological process involved in interspecies interaction between organisms</t>
+    <t>response to lipoprotein particle</t>
   </si>
   <si>
     <t>innate immune response</t>
   </si>
   <si>
-    <t>response to lipoprotein particle</t>
-  </si>
-  <si>
     <t>immune effector process</t>
   </si>
   <si>
     <t>adaptive immune response based on somatic recombination of immune receptors built from immunoglobulin superfamily domains</t>
   </si>
   <si>
+    <t>regulation of immune system process</t>
+  </si>
+  <si>
     <t>defense response</t>
   </si>
   <si>
-    <t>regulation of immune system process</t>
-  </si>
-  <si>
     <t>cellular response to lipoprotein particle stimulus</t>
   </si>
   <si>
     <t>microglial cell activation</t>
   </si>
   <si>
+    <t>leukocyte activation involved in inflammatory response</t>
+  </si>
+  <si>
     <t>antigen processing and presentation of peptide antigen</t>
   </si>
   <si>
+    <t>complement activation, classical pathway</t>
+  </si>
+  <si>
+    <t>positive regulation of adaptive immune response based on somatic recombination of immune receptors built from immunoglobulin superfamily domains</t>
+  </si>
+  <si>
     <t>response to other organism</t>
   </si>
   <si>
@@ -747,22 +792,16 @@
     <t>response to external stimulus</t>
   </si>
   <si>
-    <t>complement activation, classical pathway</t>
-  </si>
-  <si>
-    <t>positive regulation of adaptive immune response based on somatic recombination of immune receptors built from immunoglobulin superfamily domains</t>
+    <t>adaptive immune response</t>
+  </si>
+  <si>
+    <t>positive regulation of immune response</t>
   </si>
   <si>
     <t>regulation of immune response</t>
   </si>
   <si>
-    <t>positive regulation of immune response</t>
-  </si>
-  <si>
-    <t>adaptive immune response</t>
-  </si>
-  <si>
-    <t>response to biotic stimulus</t>
+    <t>glial cell activation</t>
   </si>
   <si>
     <t>extracellular space</t>
@@ -786,18 +825,30 @@
     <t>vesicle</t>
   </si>
   <si>
+    <t>complement component C1q complex</t>
+  </si>
+  <si>
     <t>amide binding</t>
   </si>
   <si>
+    <t>peptide binding</t>
+  </si>
+  <si>
     <t>Systemic lupus erythematosus</t>
   </si>
   <si>
+    <t>Amyloidosis</t>
+  </si>
+  <si>
     <t>Glomerulonephritis</t>
   </si>
   <si>
     <t>Decreased serum complement factor I</t>
   </si>
   <si>
+    <t>Generalized amyloid deposition</t>
+  </si>
+  <si>
     <t>Nephritis</t>
   </si>
   <si>
@@ -807,16 +858,16 @@
     <t>Neurofibrillary tangles</t>
   </si>
   <si>
+    <t>Abnormal renal glomerulus morphology</t>
+  </si>
+  <si>
+    <t>Abnormal renal corpuscle morphology</t>
+  </si>
+  <si>
     <t>Membranoproliferative glomerulonephritis</t>
   </si>
   <si>
-    <t>Abnormal renal glomerulus morphology</t>
-  </si>
-  <si>
-    <t>Abnormal renal corpuscle morphology</t>
-  </si>
-  <si>
-    <t>Amyloidosis</t>
+    <t>Skin rash</t>
   </si>
   <si>
     <t>Abnormal renal cortex morphology</t>
@@ -831,6 +882,12 @@
     <t>Agnosia</t>
   </si>
   <si>
+    <t>Abnormality of the immune system</t>
+  </si>
+  <si>
+    <t>Cor pulmonale</t>
+  </si>
+  <si>
     <t>Senile plaques</t>
   </si>
   <si>
@@ -843,21 +900,18 @@
     <t>Lysosome</t>
   </si>
   <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>Antigen processing and presentation</t>
+  </si>
+  <si>
     <t>Staphylococcus aureus infection</t>
   </si>
   <si>
-    <t>Tuberculosis</t>
-  </si>
-  <si>
-    <t>Antigen processing and presentation</t>
-  </si>
-  <si>
     <t>KEGG root term</t>
   </si>
   <si>
-    <t>Complement and coagulation cascades</t>
-  </si>
-  <si>
     <t>Osteoclast differentiation</t>
   </si>
   <si>
@@ -873,36 +927,45 @@
     <t>c("GO:0002443", "GO:0002699", "GO:0002703")</t>
   </si>
   <si>
+    <t>GO:0008150</t>
+  </si>
+  <si>
     <t>c("GO:0006952", "GO:0051707")</t>
   </si>
   <si>
-    <t>GO:0008150</t>
+    <t>c("GO:0009719", "GO:0010243")</t>
   </si>
   <si>
     <t>c("GO:0006955", "GO:0098542")</t>
   </si>
   <si>
-    <t>c("GO:0009719", "GO:0010243")</t>
-  </si>
-  <si>
     <t>GO:0002376</t>
   </si>
   <si>
+    <t>c("GO:0002376", "GO:0050789")</t>
+  </si>
+  <si>
     <t>GO:0006950</t>
   </si>
   <si>
-    <t>c("GO:0002376", "GO:0050789")</t>
-  </si>
-  <si>
     <t>GO:0051716</t>
   </si>
   <si>
-    <t>GO:0042116</t>
+    <t>c("GO:0002269", "GO:0042116", "GO:0061900")</t>
+  </si>
+  <si>
+    <t>c("GO:0006954", "GO:0045321")</t>
   </si>
   <si>
     <t>GO:0019882</t>
   </si>
   <si>
+    <t>c("GO:0002455", "GO:0006956")</t>
+  </si>
+  <si>
+    <t>c("GO:0002460", "GO:0002821", "GO:0002822")</t>
+  </si>
+  <si>
     <t>c("GO:0043207", "GO:0044419")</t>
   </si>
   <si>
@@ -912,16 +975,13 @@
     <t>GO:0050896</t>
   </si>
   <si>
-    <t>c("GO:0002455", "GO:0006956")</t>
-  </si>
-  <si>
-    <t>c("GO:0002460", "GO:0002821", "GO:0002822")</t>
+    <t>c("GO:0002684", "GO:0006955", "GO:0048584", "GO:0050776")</t>
   </si>
   <si>
     <t>c("GO:0002682", "GO:0006955", "GO:0048583")</t>
   </si>
   <si>
-    <t>c("GO:0002684", "GO:0006955", "GO:0048584", "GO:0050776")</t>
+    <t>c("GO:0001775", "GO:0150076")</t>
   </si>
   <si>
     <t>c("GO:0005576", "GO:0110165")</t>
@@ -936,12 +996,18 @@
     <t>GO:0043227</t>
   </si>
   <si>
+    <t>c("GO:0005615", "GO:0032991")</t>
+  </si>
+  <si>
     <t>GO:0005488</t>
   </si>
   <si>
     <t>HP:0002960</t>
   </si>
   <si>
+    <t>HP:0001939</t>
+  </si>
+  <si>
     <t>c("HP:0000095", "HP:0000123")</t>
   </si>
   <si>
@@ -957,7 +1023,7 @@
     <t>c("HP:0011035", "HP:0012575")</t>
   </si>
   <si>
-    <t>HP:0001939</t>
+    <t>HP:0011123</t>
   </si>
   <si>
     <t>HP:0012210</t>
@@ -972,49 +1038,55 @@
     <t>HP:0011446</t>
   </si>
   <si>
+    <t>HP:0000118</t>
+  </si>
+  <si>
+    <t>HP:0001707</t>
+  </si>
+  <si>
     <t>HP:0007367</t>
   </si>
   <si>
     <t>character(0)</t>
   </si>
   <si>
-    <t>IMP,IDA IMP IC,IDA IMP ISO IBA IEA,IMP ISO IEA,IEA,IMP IEA,IEA,IEA,IMP ISS ISO IEA,IBA IEA,IMP ISO IEA,IEA,ISS,IDA IEA,IMP ISS ISO IEA,IMP ISS ISO IBA IEA,IDA IMP IEA,ISS ISO IEA,IDA ISO,IDA ISS ISO IBA,IDA IEA,ISS IBA IEA</t>
-  </si>
-  <si>
-    <t>IMP,IDA IMP IBA,IMP ISO IEA,IEA,IMP IEA,IEA,IDA,IMP ISS ISO IEA,IMP IBA,IDA IMP,IDA,ISS</t>
+    <t>IMP,IDA IMP IC,IDA IMP ISO IBA IEA,IMP ISO IEA,ISO IEA,IMP ISO IEA,ISO IEA,IEA,IMP ISS ISO IEA,IBA IEA,IMP ISO IEA,IEA,ISS,IDA IEA,IMP ISS ISO IEA,IMP ISS ISO IBA IEA,IDA IMP IEA,ISS ISO IEA,IDA ISO,IDA ISS ISO IBA,IDA IEA,ISS IBA IEA</t>
+  </si>
+  <si>
+    <t>IMP,IDA IMP IBA,IMP ISO IEA,ISO IEA,IMP ISO IEA,ISO IEA,IDA,IMP ISS ISO IEA,IMP IBA,IDA IMP,IDA,ISS</t>
   </si>
   <si>
     <t>IMP ISS ISO IEA,IGI,IMP IGI,IGI</t>
   </si>
   <si>
-    <t>IMP,IEA,IMP IEA,IEA,ISS ISO IEA</t>
+    <t>IMP,ISO IEA,IMP ISO IEA,ISO IEA,ISS ISO IEA</t>
   </si>
   <si>
     <t>IMP,IMP,IMP ISO IEA,IDA,IMP ISS ISO IEA,IMP IBA,IDA IMP,IDA</t>
   </si>
   <si>
+    <t>IMP ISO IEA,IDA IMP IC,IMP IBA IEA,IMP ISO,IEA,IEA,IDA IMP ISO IBA IEA,IMP,IEA,IMP ISS ISO IEA,IEP,IMP ISO IEA,ISO IEA,IEA,ISS ISO IEA,IEP,IDA IMP IBA IEA,ISS ISO IEA,IDA IMP ISO,IDA,ISS IBA</t>
+  </si>
+  <si>
     <t>IMP,IMP IC,IMP IBA IEA,ISO,IEA,IEA,IDA IMP ISO IBA IEA,IEA,IMP ISS ISO IEA,IMP ISO IEA,IEA,ISS ISO IEA,IDA IMP IEA,ISS ISO IEA,IDA ISO,IDA,IBA</t>
   </si>
   <si>
-    <t>IMP ISO IEA,IDA IMP IC,IMP IBA IEA,IMP ISO,IEA,IEA,IDA IMP ISO IBA IEA,IMP,IEA,IMP ISS ISO IEA,IEP,IMP ISO IEA,ISO IEA,IEA,ISS ISO IEA,IEP,IDA IMP IBA IEA,ISS ISO IEA,IDA IMP ISO,IDA,ISS IBA</t>
+    <t>ISO IEA,ISO IEA,IDA,IDA,IDA</t>
   </si>
   <si>
     <t>IMP,IMP IC,IMP IBA IEA,ISO,IEA,IEA,IEA,IMP ISS ISO IEA,IMP ISO IEA,IEA,ISS ISO IEA,IDA IMP IEA,ISS ISO IEA,IDA ISO,IBA</t>
   </si>
   <si>
-    <t>ISO IEA,ISO IEA,IDA,IDA,IDA</t>
-  </si>
-  <si>
-    <t>IMP,IDA IMP IBA,IMP ISO IEA,IEA,IMP IEA,IEA,IMP ISS ISO IEA,IDA,IMP ISS ISO IEA,IMP IBA,IDA IMP,IDA,ISS</t>
-  </si>
-  <si>
-    <t>IMP,IMP IBA,IMP ISO IEA,IEA,IMP IEA,IEA,IDA,IMP ISS ISO IEA,IMP,IDA</t>
-  </si>
-  <si>
-    <t>IMP IGI ISO IEA,IDA IMP ISO IBA IC IEA,IMP IBA IEA,ISO TAS,IEA,IEA,IDA IMP ISO IBA IEA,IEA,IMP IBA,IDA IMP ISS ISO IBA IEA,IGI,IMP ISO IEA,IMP IEA,IMP,ISS ISO IEA,IDA IMP IBA IEA,ISS ISO IEA,IDA ISO,IDA,IGI ISS IBA IEA</t>
-  </si>
-  <si>
-    <t>IMP,IDA IMP IGI ISS ISO IBA IEA,IDA IMP ISO IBA IEA,IMP ISO IBA IEA,IEA,IMP IEA,ISO IEA,IMP IBA,IMP ISS ISO IEA,ISO IEA,IGI ISO IEA,IDA,IDA IMP ISS ISO TAS IEA,IDA IMP ISS ISO IBA IEA,IDA IMP IBA IEA,IDA ISS ISO IBA IEA,ISO IEA,IDA,IDA,ISS ISO IEA</t>
+    <t>IMP,IDA IMP IBA,IMP ISO IEA,ISO IEA,IMP ISO IEA,ISO IEA,IMP ISS ISO IEA,IDA,IMP ISS ISO IEA,IMP IBA,IDA IMP,IDA,ISS</t>
+  </si>
+  <si>
+    <t>IMP,IMP IBA,IMP ISO IEA,ISO IEA,IMP ISO IEA,ISO IEA,IDA,IMP ISS ISO IEA,IMP,IDA</t>
+  </si>
+  <si>
+    <t>IMP,IDA IMP IGI ISS ISO IBA IEA,IDA IMP ISO IBA IEA,IMP ISO IBA IEA,ISO IEA,IMP ISO IEA,ISO IEA,IMP IBA,IMP ISS ISO IEA,ISO IEA,IGI ISO IEA,IDA,IDA IMP ISS ISO TAS IEA,IDA IMP ISS ISO IBA IEA,IDA IMP IBA IEA,IDA ISS ISO IBA IEA,ISO IEA,IDA,IDA,ISS ISO IEA</t>
+  </si>
+  <si>
+    <t>IMP IGI ISO IEA,IDA IMP IGI ISO IBA IC IEA,IMP IBA IEA,ISO TAS,IEA,IGI IEA,IDA IMP ISO IBA IEA,IEA,IMP IBA,IDA IMP ISS ISO IBA IEA,IGI,IMP ISO IEA,IMP IEA,IMP,IMP ISS ISO IBA IEA,IDA IMP IBA IEA,ISS ISO IEA,IDA ISO,IDA,IGI ISS IBA IEA</t>
   </si>
   <si>
     <t>IDA IMP IGI ISO IBA IEA,IGI,IMP IBA,IMP,IMP IBA</t>
@@ -1023,37 +1095,37 @@
     <t>ISO IEA,IMP IBA,IMP ISO IBA IEA,ISS ISO IEA,IDA IBA IEA,IDA IBA IEA</t>
   </si>
   <si>
+    <t>IMP,ISO IEA,IMP ISO IEA,ISO IEA</t>
+  </si>
+  <si>
+    <t>IMP,IMP,IMP ISO IEA,IDA,IMP ISS ISO IEA,IMP,IDA</t>
+  </si>
+  <si>
     <t>IMP,IDA IMP IC,IMP IBA IEA,IMP ISO,IEA,IEA,IDA IMP ISO IBA IEA,IEA,IMP ISS ISO IEA,IEP,IMP ISO IEA,ISO IEA,ISS ISO IEA,IEP,IDA IMP IBA IEA,ISS ISO IEA,IDA IMP ISO,IDA,ISS IBA</t>
   </si>
   <si>
     <t>IMP IGI ISO IEA,IDA IMP IGI ISO IBA IC IEA,IMP IBA IEA,IMP ISO,IEA,IEA,IDA IMP ISO IBA IEA,IEA,IMP IBA,IDA IMP ISS ISO IBA IEA,IGI,IEP,IMP ISO IEA,IDA ISO IEA,IMP,ISS ISO IEA,IEP,IDA IMP IBA IEA,ISS ISO IEA,IDA IMP ISO,IMP IBA,ISO IEA,IMP IBA,ISS ISO IEA,IDA,IGI ISS ISO IBA IEA</t>
   </si>
   <si>
-    <t>IMP,IEA,IMP IEA,IEA</t>
-  </si>
-  <si>
-    <t>IMP,IMP,IMP ISO IEA,IDA,IMP ISS ISO IEA,IMP,IDA</t>
-  </si>
-  <si>
-    <t>IMP,IDA IMP,IDA IMP ISO IBA IEA,IMP ISO IEA,IEA,IMP IEA,IEA,IMP ISS ISO IEA,ISO IEA,IDA,IMP ISS ISO IEA,ISS ISO IEA,IDA IMP,IDA ISS ISO IBA,IDA</t>
-  </si>
-  <si>
-    <t>IMP,IDA IMP IBA,IMP ISO IEA,IEA,IMP IEA,IEA,IDA,IMP ISS ISO IEA,ISS ISO IEA,IDA IMP,IDA ISS ISO IBA,IDA</t>
-  </si>
-  <si>
-    <t>IMP,IMP IBA,IMP ISO IEA,IEA,IMP IEA,IEA,IEA,IDA,IMP ISS ISO IEA,IMP,IDA</t>
-  </si>
-  <si>
-    <t>IDA ISS ISO IBA IEA,HDA ISO IBA IEA,IDA,IDA IEA,HDA ISO,HDA ISO,ISO,HDA,ISO,ISS ISO IEA,HDA ISO IBA,IDA HDA ISO IBA IEA,HDA,IDA ISO IBA IEA,IDA HDA ISO IEA,ISS ISO IBA IEA,ISO IBA IEA,IDA IBA,ISO IEA,IBA,ISO IEA,IDA,ISO IEA,IDA ISO IEA,IBA,IDA ISO IBA IEA</t>
-  </si>
-  <si>
-    <t>IDA ISS ISO IBA TAS IEA,IEA,HDA ISO IBA IEA,IDA,IDA IEA,HDA ISO IEA,HDA ISO IEA,ISO,HDA IEA,ISO IEA,ISS ISO IEA,HDA ISO IBA IEA,IDA HDA ISO IBA IEA,HDA IEA,IDA ISO IBA IEA,IDA HDA ISO IBA IEA,ISS ISO IBA IEA,ISO IBA IEA,IDA IBA,ISO IEA,TAS,IBA,ISO IEA,IDA IBA TAS IEA,ISO IEA,ISO IEA,IDA ISO IEA,IBA,IDA ISO IBA IEA</t>
+    <t>IMP,IMP IBA,IMP ISO IEA,ISO IEA,IMP ISO IEA,ISO IEA,IEA,IDA,IMP ISS ISO IEA,IMP,IDA</t>
+  </si>
+  <si>
+    <t>IMP,IDA IMP IBA,IMP ISO IEA,ISO IEA,IMP ISO IEA,ISO IEA,IDA,IMP ISS ISO IEA,ISS ISO IEA,IDA IMP,IDA ISS ISO IBA,IDA</t>
+  </si>
+  <si>
+    <t>IMP,IDA IMP,IDA IMP ISO IBA IEA,IMP ISO IEA,ISO IEA,IMP ISO IEA,ISO IEA,IMP ISS ISO IEA,ISO IEA,IDA,IMP ISS ISO IEA,ISS ISO IEA,IDA IMP,IDA ISS ISO IBA,IDA</t>
+  </si>
+  <si>
+    <t>IDA ISS ISO IBA IEA,HDA ISO IBA IEA,IDA,IDA IEA,HDA ISO,HDA ISO,ISO,HDA ISO,ISO,ISS ISO IEA,HDA ISO IBA,IDA HDA ISO IBA IEA,HDA ISO IEA,IDA ISO IBA IEA,IDA HDA ISO IEA,ISS ISO IBA IEA,ISO IBA IEA,IDA IBA,ISO IEA,IBA,ISO IEA,IDA,ISO IEA,IDA ISO IEA,IBA,IDA ISO IBA IEA</t>
+  </si>
+  <si>
+    <t>IDA ISS ISO IBA TAS IEA,IEA,HDA ISO IBA IEA,IDA,IDA IEA,HDA ISO IEA,HDA ISO IEA,ISO,HDA ISO IEA,ISO IEA,ISS ISO IEA,HDA ISO IBA IEA,IDA HDA ISO IBA IEA,HDA ISO IEA,IDA ISO IBA IEA,IDA HDA ISO IBA IEA,ISS ISO IBA IEA,ISO IBA IEA,IDA IBA,ISO IEA,TAS,IBA,ISO IEA,IDA IBA TAS IEA,ISO IEA,ISO IEA,IDA ISO IEA,IBA,IDA ISO IBA IEA</t>
   </si>
   <si>
     <t>ISO,IDA ISO IBA IEA,IDA ISO IBA IEA,ISO,IDA ISO IBA IEA,IMP ISO IBA IEA,IDA ISS ISO IEA,IDA ISO IBA IEA,ISO IBA IEA,IDA ISO IBA IEA,ISO IEA,ISO,ISO,IDA ISS ISO IBA IEA,IDA,IDA ISO IEA,ISO</t>
   </si>
   <si>
-    <t>ISO,IDA ISO IBA IEA,IDA ISO IBA IEA,ISO,IDA ISO IBA IEA,IMP ISO IBA IEA,IDA ISS ISO IEA,IDA ISO IBA IEA,ISO IBA IEA,IDA ISO IBA IEA,ISO IEA,ISO,ISO TAS IEA,IDA ISS ISO IBA IEA,IDA,IDA ISO IEA,ISO</t>
+    <t>ISO,IDA ISO IBA IEA,IDA ISO IBA IEA,ISO,IDA ISO IBA IEA,IMP ISO IBA IEA,IDA ISS ISO IEA,IDA ISO IBA IEA,ISO IBA IEA,IDA ISO IBA IEA,ISO IEA,ISO,ISS ISO TAS IEA,IDA ISS ISO IBA IEA,IDA,IDA ISO IEA,ISO</t>
   </si>
   <si>
     <t>ISO,IDA ISO IBA IEA,IDA,IDA ISO,ISO,ISO,ISO IEA,IDA ISO IBA,IDA ISS ISO IBA IEA,IBA IEA,IDA ISS ISO IBA IEA,IDA ISO,IDA ISO IEA,IEA,IDA ISO IBA</t>
@@ -1062,7 +1134,13 @@
     <t>ISO,IDA ISO IEA,ISO IEA,TAS,ISO,ISS ISO IEA,ISO,IEA,IMP ISO IBA IEA,IDA ISS ISO IEA,ISS ISO TAS IEA,ISO IEA,ISO,IDA,TAS,ISO TAS IEA,ISO IEA,ISO,IDA IMP ISO IBA IEA,IEA,IDA,ISO IEA,IDA ISO IEA,ISO IEA,ISO TAS IEA</t>
   </si>
   <si>
-    <t>ISS ISO IBA IEA,ISO IEA,ISO,ISO IBA IEA,ISO,ISO,ISO,ISO IBA IEA,IEA,ISO IEA,IDA ISO</t>
+    <t>ISO,ISO,ISO IEA</t>
+  </si>
+  <si>
+    <t>ISS ISO IBA IEA,ISO IEA,ISO,ISO IBA IEA,ISO,ISO,ISO,ISO IBA IEA,IBA IEA,ISO IEA,IDA ISO</t>
+  </si>
+  <si>
+    <t>ISS ISO IBA IEA,ISO IEA,ISO,ISO IBA IEA,ISO,ISO,ISO,ISO IEA,IDA ISO</t>
   </si>
   <si>
     <t>HP,HP,HP,HP,HP</t>
@@ -1083,19 +1161,22 @@
     <t>HP,HP,HP,HP,HP,HP,HP,HP,HP</t>
   </si>
   <si>
+    <t>HP,HP,HP,HP,HP,HP,HP,HP,HP,HP,HP,HP,HP,HP,HP,HP,HP,HP,HP,HP</t>
+  </si>
+  <si>
     <t>KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG</t>
   </si>
   <si>
+    <t>KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG</t>
+  </si>
+  <si>
     <t>KEGG,KEGG,KEGG,KEGG,KEGG</t>
   </si>
   <si>
-    <t>KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG</t>
-  </si>
-  <si>
-    <t>KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG</t>
-  </si>
-  <si>
-    <t>KEGG,KEGG,KEGG</t>
+    <t>KEGG,KEGG,KEGG,KEGG</t>
+  </si>
+  <si>
+    <t>KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG,KEGG</t>
   </si>
   <si>
     <t>Apoe,Trem2,Fcer1g,B2m,C1qb,C1qa,C1qc,Cst7,Grn,Ctss,Cyba,Axl,Fth1,H2-D1,Cd81,Tyrobp,Clec7a,Serinc3,Rpl13a,Thy1,H2-K1,Ccl3</t>
@@ -1113,54 +1194,54 @@
     <t>Trem2,Fcer1g,B2m,H2-D1,Cd81,Tyrobp,Clec7a,H2-K1</t>
   </si>
   <si>
+    <t>Apoe,Trem2,Fcer1g,B2m,C1qb,C1qa,Lyz2,Ctsb,C1qc,Grn,Cd52,Cyba,Axl,Cd81,Tyrobp,Upk1b,Clec7a,Serinc3,Rpl13a,H2-K1,Ccl3</t>
+  </si>
+  <si>
     <t>Apoe,Trem2,Fcer1g,B2m,C1qb,C1qa,Lyz2,C1qc,Grn,Cyba,Axl,Tyrobp,Clec7a,Serinc3,Rpl13a,H2-K1,Ccl3</t>
   </si>
   <si>
-    <t>Apoe,Trem2,Fcer1g,B2m,C1qb,C1qa,Lyz2,Ctsb,C1qc,Grn,Cd52,Cyba,Axl,Cd81,Tyrobp,Upk1b,Clec7a,Serinc3,Rpl13a,H2-K1,Ccl3</t>
+    <t>Apoe,Trem2,Fcer1g,Cd81,Cd9</t>
   </si>
   <si>
     <t>Apoe,Trem2,Fcer1g,B2m,C1qb,C1qa,C1qc,Grn,Cyba,Axl,Tyrobp,Clec7a,Serinc3,Rpl13a,Ccl3</t>
   </si>
   <si>
-    <t>Apoe,Trem2,Fcer1g,Cd81,Cd9</t>
-  </si>
-  <si>
     <t>Trem2,Fcer1g,B2m,C1qb,C1qa,C1qc,Grn,H2-D1,Cd81,Tyrobp,Clec7a,H2-K1,Ccl3</t>
   </si>
   <si>
     <t>Trem2,Fcer1g,B2m,C1qb,C1qa,C1qc,H2-D1,Cd81,Clec7a,H2-K1</t>
   </si>
   <si>
+    <t>Apoe,Trem2,Fcer1g,B2m,C1qb,C1qa,C1qc,Cst7,Grn,Cyba,Axl,H2-D1,Cd81,Tyrobp,Clec7a,Thy1,Lgmn,Cd9,H2-K1,Ccl3</t>
+  </si>
+  <si>
     <t>Apoe,Trem2,Fcer1g,B2m,C1qb,C1qa,Lyz2,C1qc,Cst7,Grn,Ctss,Cyba,Axl,Cd81,Tyrobp,Clec7a,Serinc3,Rpl13a,H2-K1,Ccl3</t>
   </si>
   <si>
-    <t>Apoe,Trem2,Fcer1g,B2m,C1qb,C1qa,C1qc,Cst7,Grn,Cyba,Axl,H2-D1,Cd81,Tyrobp,Clec7a,Thy1,Lgmn,Cd9,H2-K1,Ccl3</t>
-  </si>
-  <si>
     <t>Trem2,C1qa,Cst7,Grn,Tyrobp</t>
   </si>
   <si>
     <t>Trem2,Fcer1g,B2m,Ctss,H2-D1,H2-K1</t>
   </si>
   <si>
+    <t>Trem2,Fcer1g,B2m,H2-D1,Cd81,Clec7a,H2-K1</t>
+  </si>
+  <si>
     <t>Apoe,Trem2,Fcer1g,B2m,C1qb,C1qa,Lyz2,C1qc,Grn,Cd52,Cyba,Axl,Tyrobp,Upk1b,Clec7a,Serinc3,Rpl13a,H2-K1,Ccl3</t>
   </si>
   <si>
     <t>Apoe,Trem2,Fcer1g,B2m,C1qb,C1qa,Lyz2,C1qc,Cst7,Grn,Ctss,Cd52,Cyba,Axl,Cd81,Tyrobp,Upk1b,Clec7a,Serinc3,Rpl13a,Lamp2,Lgmn,Cry1,Cd9,H2-K1,Ccl3</t>
   </si>
   <si>
-    <t>Trem2,Fcer1g,B2m,H2-D1,Cd81,Clec7a,H2-K1</t>
+    <t>Trem2,Fcer1g,B2m,C1qb,C1qa,C1qc,Ctss,H2-D1,Cd81,Clec7a,H2-K1</t>
+  </si>
+  <si>
+    <t>Trem2,Fcer1g,B2m,C1qb,C1qa,C1qc,H2-D1,Cd81,Tyrobp,Clec7a,Thy1,H2-K1</t>
   </si>
   <si>
     <t>Apoe,Trem2,Fcer1g,B2m,C1qb,C1qa,C1qc,Grn,Cyba,H2-D1,Cd81,Tyrobp,Clec7a,Thy1,H2-K1</t>
   </si>
   <si>
-    <t>Trem2,Fcer1g,B2m,C1qb,C1qa,C1qc,H2-D1,Cd81,Tyrobp,Clec7a,Thy1,H2-K1</t>
-  </si>
-  <si>
-    <t>Trem2,Fcer1g,B2m,C1qb,C1qa,C1qc,Ctss,H2-D1,Cd81,Clec7a,H2-K1</t>
-  </si>
-  <si>
     <t>Apoe,Lgals3bp,Hexb,Ctsd,B2m,C1qb,Lipe,C1qa,Lyz2,Itm2b,Cst3,Ctsb,C1qc,Cst7,Grn,Ctss,Ctsz,Col6a3,Axl,H2-D1,Cd81,Selenop,Lamp2,Cd9,H2-K1,Ccl3</t>
   </si>
   <si>
@@ -1176,16 +1257,25 @@
     <t>Apoe,Hexb,Ctsd,B2m,Lyz2,Itm2b,Cst3,Ctsb,Cst7,Grn,Ctss,Ctsz,Hexa,Cyba,Fth1,H2-D1,Cd81,Atp6v0c,Lamp2,Mpeg1,Lgmn,Bicd1,Cd9,Erp29,H2-K1</t>
   </si>
   <si>
+    <t>C1qb,C1qa,C1qc</t>
+  </si>
+  <si>
     <t>Apoe,Trem2,Ctsd,Itm2b,Cst3,Ctsb,H2-D1,Soat1,Acbd5,Rplp0,H2-K1</t>
   </si>
   <si>
+    <t>Apoe,Trem2,Ctsd,Itm2b,Cst3,Ctsb,H2-D1,Rplp0,H2-K1</t>
+  </si>
+  <si>
     <t>C1qb,C1qa,C1qc,Fcgr3,Fcgr2b</t>
   </si>
   <si>
+    <t>Apoe,B2m,Lyz2,Itm2b,Cst3</t>
+  </si>
+  <si>
     <t>C1qb,C1qa,C1qc,Cd81,Fcgr3,Fcgr2b</t>
   </si>
   <si>
-    <t>C1qb,C1qa,C1qc</t>
+    <t>B2m,Lyz2,Cst3</t>
   </si>
   <si>
     <t>Apoe,Itm2b,Cst3</t>
@@ -1197,7 +1287,7 @@
     <t>Apoe,C1qb,C1qa,C1qc,Cd81,Fcgr3,Fcgr2b</t>
   </si>
   <si>
-    <t>Apoe,B2m,Itm2b,Cst3</t>
+    <t>B2m,Lyz2,Cyba,Clec7a,Fcgr3,Fcgr2b</t>
   </si>
   <si>
     <t>Trem2,Grn,Tyrobp</t>
@@ -1209,6 +1299,12 @@
     <t>Apoe,Trem2,Grn,Tyrobp</t>
   </si>
   <si>
+    <t>Mgmt,Apoe,Trem2,Hexb,B2m,C1qb,C1qa,Lyz2,Ctsb,C1qc,Myl2,Cyba,Col6a3,Cd81,Tyrobp,Clec7a,Fcgr3,Fcgr2b,Mpeg1,Rps14</t>
+  </si>
+  <si>
+    <t>Myl2,Fcgr3,Fcgr2b</t>
+  </si>
+  <si>
     <t>Apoe,Trem2,Grn</t>
   </si>
   <si>
@@ -1227,7 +1323,10 @@
     <t>B2m,Ctsb,Ctss,Lgmn,H2-K1</t>
   </si>
   <si>
-    <t>Apoe,Trem2,Hexb,Fcer1g,Ctsd,B2m,C1qb,Gnaz,Lipe,C1qa,Lyz2,Cst3,Ctsb,C1qc,Myl2,Ctss,Ctsz,Hexa,Pola2,Cyba,Col6a3,Axl,Fth1,Cd81,Tyrobp,Atp6v0c,Clec7a,Eef1a1,Fcgr3,Soat1,Ppp2r5a,Rpl13a,Lamp2,Fcgr2b,Mt1,Thy1,Lgmn,Cry1,Cd9,Rps14,Rplp0,Ssr4,Erp29,Itgb5,H2-K1,Ccl3</t>
+    <t>C1qa,C1qc,Fcgr3,Fcgr2b</t>
+  </si>
+  <si>
+    <t>Apoe,Trem2,Hexb,Fcer1g,Ctsd,B2m,Gnaz,Lipe,C1qa,Cst3,Ctsb,C1qc,Myl2,Ctss,Ctsz,Hexa,Pola2,Cyba,Col6a3,Axl,Fth1,Cd81,Tyrobp,Atp6v0c,Clec7a,Serinc3,Eef1a1,Fcgr3,Soat1,Rpl13a,Lamp2,Fcgr2b,Mt1,Thy1,Lgmn,Bicd1,Cry1,Rps14,Rplp0,Ssr4,Erp29,Itgb5,H2-K1,Ccl3</t>
   </si>
   <si>
     <t>Trem2,Cyba,Tyrobp,Fcgr3,Fcgr2b</t>
@@ -3257,52 +3356,52 @@
         <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D2" t="n">
-        <v>9.353705575657461E-4</v>
+        <v>0.0010779374506385887</v>
       </c>
       <c r="E2" t="n">
-        <v>820.0</v>
+        <v>838.0</v>
       </c>
       <c r="F2" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G2" t="n">
         <v>22.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="I2" t="n">
-        <v>0.026829268292682926</v>
+        <v>0.026252983293556086</v>
       </c>
       <c r="J2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K2" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="M2" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N2" t="n">
-        <v>2890.0</v>
+        <v>2888.0</v>
       </c>
       <c r="O2" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="P2" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="Q2" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3">
@@ -3310,52 +3409,52 @@
         <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0010276502912545894</v>
+        <v>0.00115336202852659</v>
       </c>
       <c r="E3" t="n">
-        <v>212.0</v>
+        <v>217.0</v>
       </c>
       <c r="F3" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G3" t="n">
         <v>12.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.15584415584415584</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05660377358490566</v>
+        <v>0.055299539170506916</v>
       </c>
       <c r="J3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K3" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L3" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="M3" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N3" t="n">
         <v>1089.0</v>
       </c>
       <c r="O3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="P3" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="Q3" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4">
@@ -3363,52 +3462,52 @@
         <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0036386893997235664</v>
+        <v>0.0034603083901881245</v>
       </c>
       <c r="E4" t="n">
         <v>7.0</v>
       </c>
       <c r="F4" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G4" t="n">
         <v>4.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05194805194805195</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="I4" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="J4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K4" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L4" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="M4" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N4" t="n">
-        <v>22161.0</v>
+        <v>22141.0</v>
       </c>
       <c r="O4" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="P4" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="Q4" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5">
@@ -3416,52 +3515,52 @@
         <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004016392514918138</v>
+        <v>0.0037723354373653093</v>
       </c>
       <c r="E5" t="n">
         <v>17.0</v>
       </c>
       <c r="F5" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G5" t="n">
         <v>5.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06493506493506493</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="I5" t="n">
         <v>0.29411764705882354</v>
       </c>
       <c r="J5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K5" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L5" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="M5" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N5" t="n">
         <v>1101.0</v>
       </c>
       <c r="O5" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="P5" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="Q5" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6">
@@ -3469,52 +3568,52 @@
         <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006194714797113494</v>
+        <v>0.005616397455497211</v>
       </c>
       <c r="E6" t="n">
         <v>86.0</v>
       </c>
       <c r="F6" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G6" t="n">
         <v>8.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="I6" t="n">
         <v>0.09302325581395349</v>
       </c>
       <c r="J6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K6" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L6" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="M6" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N6" t="n">
         <v>1346.0</v>
       </c>
       <c r="O6" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="P6" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="Q6" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7">
@@ -3522,52 +3621,52 @@
         <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00807425740702436</v>
+        <v>0.010547167856902575</v>
       </c>
       <c r="E7" t="n">
-        <v>553.0</v>
+        <v>871.0</v>
       </c>
       <c r="F7" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G7" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.22077922077922077</v>
+        <v>0.27631578947368424</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03074141048824593</v>
+        <v>0.024110218140068886</v>
       </c>
       <c r="J7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="M7" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N7" t="n">
-        <v>22010.0</v>
+        <v>12783.0</v>
       </c>
       <c r="O7" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="P7" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="Q7" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8">
@@ -3575,52 +3674,52 @@
         <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00899021676353098</v>
+        <v>0.011069314034338702</v>
       </c>
       <c r="E8" t="n">
-        <v>851.0</v>
+        <v>573.0</v>
       </c>
       <c r="F8" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G8" t="n">
-        <v>21.0</v>
+        <v>17.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="I8" t="n">
-        <v>0.024676850763807285</v>
+        <v>0.029668411867364748</v>
       </c>
       <c r="J8" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="K8" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L8" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="M8" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N8" t="n">
-        <v>12795.0</v>
+        <v>21990.0</v>
       </c>
       <c r="O8" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="P8" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="Q8" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9">
@@ -3628,52 +3727,52 @@
         <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D9" t="n">
-        <v>0.010308698235127518</v>
+        <v>0.012143624531135004</v>
       </c>
       <c r="E9" t="n">
-        <v>432.0</v>
+        <v>21.0</v>
       </c>
       <c r="F9" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G9" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.19480519480519481</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="I9" t="n">
-        <v>0.034722222222222224</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="J9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K9" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L9" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="M9" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N9" t="n">
-        <v>13129.0</v>
+        <v>16796.0</v>
       </c>
       <c r="O9" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="P9" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="Q9" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10">
@@ -3681,52 +3780,52 @@
         <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>0.012925594001751965</v>
+        <v>0.012733938206553327</v>
       </c>
       <c r="E10" t="n">
-        <v>21.0</v>
+        <v>445.0</v>
       </c>
       <c r="F10" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G10" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06493506493506493</v>
+        <v>0.19736842105263158</v>
       </c>
       <c r="I10" t="n">
-        <v>0.23809523809523808</v>
+        <v>0.033707865168539325</v>
       </c>
       <c r="J10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K10" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L10" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="M10" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N10" t="n">
-        <v>16811.0</v>
+        <v>13117.0</v>
       </c>
       <c r="O10" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="P10" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="Q10" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11">
@@ -3734,52 +3833,52 @@
         <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0129823691559178</v>
+        <v>0.013338998151358347</v>
       </c>
       <c r="E11" t="n">
-        <v>321.0</v>
+        <v>326.0</v>
       </c>
       <c r="F11" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G11" t="n">
         <v>13.0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.16883116883116883</v>
+        <v>0.17105263157894737</v>
       </c>
       <c r="I11" t="n">
-        <v>0.040498442367601244</v>
+        <v>0.03987730061349693</v>
       </c>
       <c r="J11" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K11" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L11" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="M11" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N11" t="n">
         <v>907.0</v>
       </c>
       <c r="O11" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="P11" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="Q11" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12">
@@ -3787,52 +3886,52 @@
         <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D12" t="n">
-        <v>0.016536592246160792</v>
+        <v>0.017180201267879395</v>
       </c>
       <c r="E12" t="n">
-        <v>176.0</v>
+        <v>179.0</v>
       </c>
       <c r="F12" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G12" t="n">
         <v>10.0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.12987012987012986</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="I12" t="n">
-        <v>0.056818181818181816</v>
+        <v>0.055865921787709494</v>
       </c>
       <c r="J12" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K12" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L12" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="M12" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N12" t="n">
         <v>1106.0</v>
       </c>
       <c r="O12" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="P12" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="Q12" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13">
@@ -3840,52 +3939,52 @@
         <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D13" t="n">
-        <v>0.017109915365875753</v>
+        <v>0.021590057865646543</v>
       </c>
       <c r="E13" t="n">
-        <v>805.0</v>
+        <v>828.0</v>
       </c>
       <c r="F13" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G13" t="n">
         <v>20.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="I13" t="n">
-        <v>0.024844720496894408</v>
+        <v>0.024154589371980676</v>
       </c>
       <c r="J13" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K13" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L13" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="M13" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N13" t="n">
-        <v>2887.0</v>
+        <v>1323.0</v>
       </c>
       <c r="O13" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="P13" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="Q13" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14">
@@ -3893,52 +3992,52 @@
         <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D14" t="n">
-        <v>0.018897696121850438</v>
+        <v>0.024699561144497693</v>
       </c>
       <c r="E14" t="n">
-        <v>810.0</v>
+        <v>835.0</v>
       </c>
       <c r="F14" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G14" t="n">
         <v>20.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="I14" t="n">
-        <v>0.024691358024691357</v>
+        <v>0.023952095808383235</v>
       </c>
       <c r="J14" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K14" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L14" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="M14" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N14" t="n">
-        <v>1323.0</v>
+        <v>2885.0</v>
       </c>
       <c r="O14" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="P14" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="Q14" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15">
@@ -3946,52 +4045,52 @@
         <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D15" t="n">
-        <v>0.026564732229127287</v>
+        <v>0.024962951481817503</v>
       </c>
       <c r="E15" t="n">
         <v>24.0</v>
       </c>
       <c r="F15" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G15" t="n">
         <v>5.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06493506493506493</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="I15" t="n">
         <v>0.20833333333333334</v>
       </c>
       <c r="J15" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K15" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L15" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="M15" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N15" t="n">
-        <v>19449.0</v>
+        <v>19431.0</v>
       </c>
       <c r="O15" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="P15" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="Q15" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16">
@@ -3999,52 +4098,52 @@
         <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D16" t="n">
-        <v>0.026564732229127287</v>
+        <v>0.024962951481817503</v>
       </c>
       <c r="E16" t="n">
         <v>24.0</v>
       </c>
       <c r="F16" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G16" t="n">
         <v>5.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06493506493506493</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="I16" t="n">
         <v>0.20833333333333334</v>
       </c>
       <c r="J16" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K16" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L16" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="M16" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N16" t="n">
         <v>551.0</v>
       </c>
       <c r="O16" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="P16" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="Q16" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17">
@@ -4052,52 +4151,52 @@
         <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02946472206649832</v>
+        <v>0.03103796735031196</v>
       </c>
       <c r="E17" t="n">
-        <v>45.0</v>
+        <v>25.0</v>
       </c>
       <c r="F17" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07792207792207792</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="I17" t="n">
-        <v>0.13333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L17" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="M17" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N17" t="n">
-        <v>14497.0</v>
+        <v>924.0</v>
       </c>
       <c r="O17" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="P17" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="Q17" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18">
@@ -4105,52 +4204,52 @@
         <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03097249046736977</v>
+        <v>0.031299449006795876</v>
       </c>
       <c r="E18" t="n">
-        <v>757.0</v>
+        <v>46.0</v>
       </c>
       <c r="F18" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G18" t="n">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.24675324675324675</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02509907529722589</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L18" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="M18" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N18" t="n">
-        <v>16071.0</v>
+        <v>14483.0</v>
       </c>
       <c r="O18" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="P18" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="Q18" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19">
@@ -4158,52 +4257,52 @@
         <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03097249046736977</v>
+        <v>0.031955738010243415</v>
       </c>
       <c r="E19" t="n">
-        <v>757.0</v>
+        <v>11.0</v>
       </c>
       <c r="F19" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G19" t="n">
-        <v>19.0</v>
+        <v>4.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.24675324675324675</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02509907529722589</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L19" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="M19" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N19" t="n">
-        <v>12207.0</v>
+        <v>2891.0</v>
       </c>
       <c r="O19" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="P19" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="Q19" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20">
@@ -4211,52 +4310,52 @@
         <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D20" t="n">
-        <v>0.033331909120884295</v>
+        <v>0.0326248403971978</v>
       </c>
       <c r="E20" t="n">
-        <v>1361.0</v>
+        <v>74.0</v>
       </c>
       <c r="F20" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G20" t="n">
-        <v>26.0</v>
+        <v>7.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.33766233766233766</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="I20" t="n">
-        <v>0.019103600293901544</v>
+        <v>0.0945945945945946</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L20" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="M20" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N20" t="n">
-        <v>3979.0</v>
+        <v>1458.0</v>
       </c>
       <c r="O20" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="P20" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="Q20" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21">
@@ -4264,52 +4363,52 @@
         <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03359388581802257</v>
+        <v>0.033298607510680214</v>
       </c>
       <c r="E21" t="n">
-        <v>11.0</v>
+        <v>771.0</v>
       </c>
       <c r="F21" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G21" t="n">
-        <v>4.0</v>
+        <v>19.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05194805194805195</v>
+        <v>0.25</v>
       </c>
       <c r="I21" t="n">
-        <v>0.36363636363636365</v>
+        <v>0.02464332036316472</v>
       </c>
       <c r="J21" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K21" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L21" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="M21" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N21" t="n">
-        <v>2893.0</v>
+        <v>16056.0</v>
       </c>
       <c r="O21" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="P21" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="Q21" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22">
@@ -4317,52 +4416,52 @@
         <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D22" t="n">
-        <v>0.035528563683974106</v>
+        <v>0.033298607510680214</v>
       </c>
       <c r="E22" t="n">
-        <v>74.0</v>
+        <v>771.0</v>
       </c>
       <c r="F22" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.25</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0945945945945946</v>
+        <v>0.02464332036316472</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="M22" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N22" t="n">
-        <v>1458.0</v>
+        <v>12195.0</v>
       </c>
       <c r="O22" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="P22" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="Q22" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23">
@@ -4370,52 +4469,52 @@
         <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0396406678458247</v>
+        <v>0.03662692796337798</v>
       </c>
       <c r="E23" t="n">
-        <v>480.0</v>
+        <v>1387.0</v>
       </c>
       <c r="F23" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G23" t="n">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.19480519480519481</v>
+        <v>0.34210526315789475</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03125</v>
+        <v>0.018745493871665464</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K23" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="M23" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N23" t="n">
-        <v>15328.0</v>
+        <v>3977.0</v>
       </c>
       <c r="O23" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="P23" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="Q23" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24">
@@ -4423,52 +4522,52 @@
         <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D24" t="n">
-        <v>0.040445923260308284</v>
+        <v>0.0413113200826739</v>
       </c>
       <c r="E24" t="n">
-        <v>297.0</v>
+        <v>247.0</v>
       </c>
       <c r="F24" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G24" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15584415584415584</v>
+        <v>0.14473684210526316</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04040404040404041</v>
+        <v>0.044534412955465584</v>
       </c>
       <c r="J24" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K24" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="M24" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N24" t="n">
-        <v>15330.0</v>
+        <v>905.0</v>
       </c>
       <c r="O24" t="s">
-        <v>302</v>
+        <v>169</v>
       </c>
       <c r="P24" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="Q24" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25">
@@ -4476,52 +4575,52 @@
         <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04159711586605356</v>
+        <v>0.04355344351618568</v>
       </c>
       <c r="E25" t="n">
-        <v>244.0</v>
+        <v>303.0</v>
       </c>
       <c r="F25" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G25" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.14285714285714285</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="I25" t="n">
-        <v>0.045081967213114756</v>
+        <v>0.039603960396039604</v>
       </c>
       <c r="J25" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="M25" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N25" t="n">
-        <v>905.0</v>
+        <v>15315.0</v>
       </c>
       <c r="O25" t="s">
-        <v>163</v>
+        <v>320</v>
       </c>
       <c r="P25" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="Q25" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26">
@@ -4529,52 +4628,52 @@
         <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D26" t="n">
-        <v>0.048812189391741465</v>
+        <v>0.04578874241939289</v>
       </c>
       <c r="E26" t="n">
-        <v>780.0</v>
+        <v>492.0</v>
       </c>
       <c r="F26" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G26" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.24675324675324675</v>
+        <v>0.19736842105263158</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02435897435897436</v>
+        <v>0.03048780487804878</v>
       </c>
       <c r="J26" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="K26" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="M26" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N26" t="n">
-        <v>3981.0</v>
+        <v>15313.0</v>
       </c>
       <c r="O26" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="P26" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="Q26" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27">
@@ -4582,52 +4681,52 @@
         <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D27" t="n">
-        <v>2.197322784149194E-14</v>
+        <v>0.04666202889535067</v>
       </c>
       <c r="E27" t="n">
-        <v>397.0</v>
+        <v>27.0</v>
       </c>
       <c r="F27" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G27" t="n">
-        <v>26.0</v>
+        <v>5.0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.33766233766233766</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0654911838790932</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="J27" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K27" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="M27" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N27" t="n">
-        <v>277.0</v>
+        <v>18426.0</v>
       </c>
       <c r="O27" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="P27" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="Q27" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28">
@@ -4635,52 +4734,52 @@
         <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D28" t="n">
-        <v>4.623849584508327E-13</v>
+        <v>1.8482147414938052E-14</v>
       </c>
       <c r="E28" t="n">
-        <v>599.0</v>
+        <v>400.0</v>
       </c>
       <c r="F28" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G28" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.37662337662337664</v>
+        <v>0.34210526315789475</v>
       </c>
       <c r="I28" t="n">
-        <v>0.048414023372287146</v>
+        <v>0.065</v>
       </c>
       <c r="J28" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K28" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="M28" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N28" t="n">
-        <v>240.0</v>
+        <v>277.0</v>
       </c>
       <c r="O28" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="P28" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="Q28" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29">
@@ -4688,52 +4787,52 @@
         <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D29" t="n">
-        <v>9.725321682469129E-6</v>
+        <v>4.429084535858828E-13</v>
       </c>
       <c r="E29" t="n">
-        <v>353.0</v>
+        <v>607.0</v>
       </c>
       <c r="F29" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G29" t="n">
-        <v>17.0</v>
+        <v>29.0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.22077922077922077</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04815864022662889</v>
+        <v>0.047775947281713346</v>
       </c>
       <c r="J29" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K29" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="M29" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N29" t="n">
-        <v>66.0</v>
+        <v>240.0</v>
       </c>
       <c r="O29" t="s">
-        <v>192</v>
+        <v>324</v>
       </c>
       <c r="P29" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="Q29" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30">
@@ -4741,52 +4840,52 @@
         <v>132</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C30" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D30" t="n">
-        <v>9.725321682469129E-6</v>
+        <v>1.3260442131130152E-5</v>
       </c>
       <c r="E30" t="n">
-        <v>353.0</v>
+        <v>365.0</v>
       </c>
       <c r="F30" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G30" t="n">
         <v>17.0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.22077922077922077</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="I30" t="n">
-        <v>0.04815864022662889</v>
+        <v>0.04657534246575343</v>
       </c>
       <c r="J30" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K30" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="L30" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="M30" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N30" t="n">
-        <v>408.0</v>
+        <v>66.0</v>
       </c>
       <c r="O30" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="P30" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="Q30" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31">
@@ -4794,52 +4893,52 @@
         <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D31" t="n">
-        <v>1.8610828905162312E-4</v>
+        <v>1.3260442131130152E-5</v>
       </c>
       <c r="E31" t="n">
-        <v>428.0</v>
+        <v>365.0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G31" t="n">
         <v>17.0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.22077922077922077</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0397196261682243</v>
+        <v>0.04657534246575343</v>
       </c>
       <c r="J31" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K31" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="M31" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N31" t="n">
-        <v>416.0</v>
+        <v>408.0</v>
       </c>
       <c r="O31" t="s">
-        <v>305</v>
+        <v>197</v>
       </c>
       <c r="P31" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="Q31" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32">
@@ -4847,52 +4946,52 @@
         <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0012559664538573053</v>
+        <v>2.3042009183614866E-4</v>
       </c>
       <c r="E32" t="n">
-        <v>368.0</v>
+        <v>440.0</v>
       </c>
       <c r="F32" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G32" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.19480519480519481</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04076086956521739</v>
+        <v>0.038636363636363635</v>
       </c>
       <c r="J32" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K32" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="M32" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N32" t="n">
-        <v>790.0</v>
+        <v>416.0</v>
       </c>
       <c r="O32" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="P32" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="Q32" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33">
@@ -4900,52 +4999,52 @@
         <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D33" t="n">
-        <v>0.015358230216647263</v>
+        <v>0.0014517142574031602</v>
       </c>
       <c r="E33" t="n">
-        <v>1218.0</v>
+        <v>377.0</v>
       </c>
       <c r="F33" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G33" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3246753246753247</v>
+        <v>0.19736842105263158</v>
       </c>
       <c r="I33" t="n">
-        <v>0.020525451559934318</v>
+        <v>0.03978779840848806</v>
       </c>
       <c r="J33" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K33" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="L33" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="M33" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N33" t="n">
-        <v>1451.0</v>
+        <v>790.0</v>
       </c>
       <c r="O33" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="P33" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="Q33" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34">
@@ -4953,52 +5052,52 @@
         <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D34" t="n">
-        <v>0.006572746923706862</v>
+        <v>0.013718267208994838</v>
       </c>
       <c r="E34" t="n">
-        <v>203.0</v>
+        <v>1228.0</v>
       </c>
       <c r="F34" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G34" t="n">
-        <v>11.0</v>
+        <v>25.0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.14285714285714285</v>
+        <v>0.32894736842105265</v>
       </c>
       <c r="I34" t="n">
-        <v>0.054187192118226604</v>
+        <v>0.02035830618892508</v>
       </c>
       <c r="J34" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K34" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="L34" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="M34" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N34" t="n">
-        <v>5459.0</v>
+        <v>1451.0</v>
       </c>
       <c r="O34" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="P34" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="Q34" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35">
@@ -5006,52 +5105,52 @@
         <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D35" t="n">
-        <v>1.257093958297615E-4</v>
+        <v>0.015304714492287487</v>
       </c>
       <c r="E35" t="n">
-        <v>18.0</v>
+        <v>3.0</v>
       </c>
       <c r="F35" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.06493506493506493</v>
+        <v>0.039473684210526314</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2777777777777778</v>
+        <v>1.0</v>
       </c>
       <c r="J35" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K35" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="L35" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="M35" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N35" t="n">
-        <v>1988.0</v>
+        <v>2703.0</v>
       </c>
       <c r="O35" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="P35" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="Q35" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36">
@@ -5059,52 +5158,52 @@
         <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D36" t="n">
-        <v>3.2433327687639833E-4</v>
+        <v>0.005765223802162935</v>
       </c>
       <c r="E36" t="n">
-        <v>40.0</v>
+        <v>203.0</v>
       </c>
       <c r="F36" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G36" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.07792207792207792</v>
+        <v>0.14473684210526316</v>
       </c>
       <c r="I36" t="n">
-        <v>0.15</v>
+        <v>0.054187192118226604</v>
       </c>
       <c r="J36" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K36" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="L36" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="M36" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N36" t="n">
-        <v>89.0</v>
+        <v>5462.0</v>
       </c>
       <c r="O36" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="P36" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="Q36" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="37">
@@ -5112,52 +5211,52 @@
         <v>139</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D37" t="n">
-        <v>3.611563418413734E-4</v>
+        <v>0.0475584317904365</v>
       </c>
       <c r="E37" t="n">
-        <v>3.0</v>
+        <v>154.0</v>
       </c>
       <c r="F37" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G37" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03896103896103896</v>
+        <v>0.11842105263157894</v>
       </c>
       <c r="I37" t="n">
-        <v>1.0</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="J37" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K37" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="L37" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="M37" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N37" t="n">
-        <v>3658.0</v>
+        <v>6607.0</v>
       </c>
       <c r="O37" t="s">
-        <v>310</v>
+        <v>203</v>
       </c>
       <c r="P37" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="Q37" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38">
@@ -5165,52 +5264,52 @@
         <v>140</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001610877001451459</v>
+        <v>1.180790421025E-4</v>
       </c>
       <c r="E38" t="n">
-        <v>52.0</v>
+        <v>18.0</v>
       </c>
       <c r="F38" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07792207792207792</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="I38" t="n">
-        <v>0.11538461538461539</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="J38" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K38" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="L38" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N38" t="n">
-        <v>106.0</v>
+        <v>1987.0</v>
       </c>
       <c r="O38" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="P38" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="Q38" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
     </row>
     <row r="39">
@@ -5218,52 +5317,52 @@
         <v>141</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0035756525068940752</v>
+        <v>2.7599146661670465E-4</v>
       </c>
       <c r="E39" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="G39" t="n">
         <v>5.0</v>
       </c>
-      <c r="F39" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>3.0</v>
-      </c>
       <c r="H39" t="n">
-        <v>0.03896103896103896</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="I39" t="n">
-        <v>0.6</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="J39" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K39" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="L39" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="M39" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N39" t="n">
-        <v>8399.0</v>
+        <v>7476.0</v>
       </c>
       <c r="O39" t="s">
-        <v>205</v>
+        <v>330</v>
       </c>
       <c r="P39" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="Q39" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40">
@@ -5271,52 +5370,52 @@
         <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D40" t="n">
-        <v>0.006824163340809389</v>
+        <v>3.0110286103917836E-4</v>
       </c>
       <c r="E40" t="n">
-        <v>18.0</v>
+        <v>40.0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G40" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.05194805194805195</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.15</v>
       </c>
       <c r="J40" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K40" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="L40" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="M40" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N40" t="n">
-        <v>1613.0</v>
+        <v>89.0</v>
       </c>
       <c r="O40" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="P40" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="Q40" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41">
@@ -5324,52 +5423,52 @@
         <v>143</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D41" t="n">
-        <v>0.007115676392316484</v>
+        <v>3.478344202792611E-4</v>
       </c>
       <c r="E41" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F41" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G41" t="n">
         <v>3.0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03896103896103896</v>
+        <v>0.039473684210526314</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="J41" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K41" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="L41" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="M41" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N41" t="n">
-        <v>618.0</v>
+        <v>3655.0</v>
       </c>
       <c r="O41" t="s">
-        <v>197</v>
+        <v>332</v>
       </c>
       <c r="P41" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="Q41" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42">
@@ -5377,52 +5476,52 @@
         <v>144</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D42" t="n">
-        <v>0.007576791802318386</v>
+        <v>0.001384491039193515</v>
       </c>
       <c r="E42" t="n">
-        <v>103.0</v>
+        <v>4.0</v>
       </c>
       <c r="F42" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G42" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.039473684210526314</v>
       </c>
       <c r="I42" t="n">
-        <v>0.06796116504854369</v>
+        <v>0.75</v>
       </c>
       <c r="J42" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K42" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="L42" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="M42" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N42" t="n">
-        <v>85.0</v>
+        <v>2332.0</v>
       </c>
       <c r="O42" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P42" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="Q42" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43">
@@ -5430,52 +5529,52 @@
         <v>145</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D43" t="n">
-        <v>0.007576791802318386</v>
+        <v>0.0018784829440974728</v>
       </c>
       <c r="E43" t="n">
-        <v>103.0</v>
+        <v>54.0</v>
       </c>
       <c r="F43" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G43" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="I43" t="n">
-        <v>0.06796116504854369</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J43" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K43" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="L43" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="M43" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N43" t="n">
-        <v>11287.0</v>
+        <v>106.0</v>
       </c>
       <c r="O43" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="P43" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="Q43" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44">
@@ -5483,52 +5582,52 @@
         <v>146</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01069210513839295</v>
+        <v>0.0034441996148771707</v>
       </c>
       <c r="E44" t="n">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="F44" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.05194805194805195</v>
+        <v>0.039473684210526314</v>
       </c>
       <c r="I44" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J44" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K44" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="L44" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M44" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N44" t="n">
-        <v>7484.0</v>
+        <v>8391.0</v>
       </c>
       <c r="O44" t="s">
-        <v>314</v>
+        <v>206</v>
       </c>
       <c r="P44" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="Q44" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45">
@@ -5536,52 +5635,52 @@
         <v>147</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D45" t="n">
-        <v>0.023068785293381036</v>
+        <v>0.006494496356711872</v>
       </c>
       <c r="E45" t="n">
-        <v>122.0</v>
+        <v>18.0</v>
       </c>
       <c r="F45" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G45" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="I45" t="n">
-        <v>0.05737704918032787</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="J45" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K45" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="L45" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M45" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N45" t="n">
-        <v>7485.0</v>
+        <v>1612.0</v>
       </c>
       <c r="O45" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="P45" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="Q45" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46">
@@ -5589,52 +5688,52 @@
         <v>148</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D46" t="n">
-        <v>0.029441611732908685</v>
+        <v>0.006972582128145326</v>
       </c>
       <c r="E46" t="n">
-        <v>9.0</v>
+        <v>103.0</v>
       </c>
       <c r="F46" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G46" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.03896103896103896</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="J46" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K46" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="L46" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="M46" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N46" t="n">
-        <v>593.0</v>
+        <v>85.0</v>
       </c>
       <c r="O46" t="s">
-        <v>316</v>
+        <v>214</v>
       </c>
       <c r="P46" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="Q46" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47">
@@ -5642,52 +5741,52 @@
         <v>149</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D47" t="n">
-        <v>0.033846170895574824</v>
+        <v>0.007435223371895057</v>
       </c>
       <c r="E47" t="n">
-        <v>232.0</v>
+        <v>104.0</v>
       </c>
       <c r="F47" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G47" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.11688311688311688</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="I47" t="n">
-        <v>0.03879310344827586</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="J47" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K47" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="L47" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="M47" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N47" t="n">
-        <v>968.0</v>
+        <v>11354.0</v>
       </c>
       <c r="O47" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="P47" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="Q47" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48">
@@ -5695,52 +5794,52 @@
         <v>150</v>
       </c>
       <c r="B48" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D48" t="n">
-        <v>0.037333825241665584</v>
+        <v>0.011936426708003217</v>
       </c>
       <c r="E48" t="n">
-        <v>27.0</v>
+        <v>7.0</v>
       </c>
       <c r="F48" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G48" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.05194805194805195</v>
+        <v>0.039473684210526314</v>
       </c>
       <c r="I48" t="n">
-        <v>0.14814814814814814</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J48" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K48" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="L48" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="M48" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N48" t="n">
-        <v>7008.0</v>
+        <v>618.0</v>
       </c>
       <c r="O48" t="s">
-        <v>318</v>
+        <v>207</v>
       </c>
       <c r="P48" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="Q48" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
     </row>
     <row r="49">
@@ -5748,52 +5847,52 @@
         <v>151</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C49" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D49" t="n">
-        <v>0.04185012168613438</v>
+        <v>0.01899525546507637</v>
       </c>
       <c r="E49" t="n">
-        <v>10.0</v>
+        <v>80.0</v>
       </c>
       <c r="F49" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G49" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.03896103896103896</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="I49" t="n">
-        <v>0.3</v>
+        <v>0.075</v>
       </c>
       <c r="J49" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K49" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="L49" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="M49" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N49" t="n">
-        <v>14764.0</v>
+        <v>774.0</v>
       </c>
       <c r="O49" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="P49" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="Q49" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50">
@@ -5801,52 +5900,52 @@
         <v>152</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D50" t="n">
-        <v>0.04653204435277217</v>
+        <v>0.024898620254583153</v>
       </c>
       <c r="E50" t="n">
-        <v>136.0</v>
+        <v>125.0</v>
       </c>
       <c r="F50" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G50" t="n">
         <v>7.0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="I50" t="n">
-        <v>0.051470588235294115</v>
+        <v>0.056</v>
       </c>
       <c r="J50" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K50" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="L50" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="M50" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N50" t="n">
-        <v>567.0</v>
+        <v>7477.0</v>
       </c>
       <c r="O50" t="s">
-        <v>208</v>
+        <v>337</v>
       </c>
       <c r="P50" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="Q50" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51">
@@ -5854,52 +5953,52 @@
         <v>153</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D51" t="n">
-        <v>4.320001859282687E-6</v>
+        <v>0.028366501886133585</v>
       </c>
       <c r="E51" t="n">
-        <v>109.0</v>
+        <v>9.0</v>
       </c>
       <c r="F51" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G51" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.11688311688311688</v>
+        <v>0.039473684210526314</v>
       </c>
       <c r="I51" t="n">
-        <v>0.08256880733944955</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J51" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K51" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="L51" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="M51" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N51" t="n">
-        <v>262.0</v>
+        <v>593.0</v>
       </c>
       <c r="O51" t="s">
-        <v>217</v>
+        <v>338</v>
       </c>
       <c r="P51" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="Q51" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52">
@@ -5907,52 +6006,52 @@
         <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D52" t="n">
-        <v>7.431577243978258E-6</v>
+        <v>0.028582180181925182</v>
       </c>
       <c r="E52" t="n">
-        <v>116.0</v>
+        <v>230.0</v>
       </c>
       <c r="F52" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G52" t="n">
         <v>9.0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.11688311688311688</v>
+        <v>0.11842105263157894</v>
       </c>
       <c r="I52" t="n">
-        <v>0.07758620689655173</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="J52" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K52" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="L52" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="M52" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N52" t="n">
-        <v>260.0</v>
+        <v>967.0</v>
       </c>
       <c r="O52" t="s">
-        <v>217</v>
+        <v>339</v>
       </c>
       <c r="P52" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="Q52" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53">
@@ -5960,52 +6059,52 @@
         <v>155</v>
       </c>
       <c r="B53" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D53" t="n">
-        <v>6.425085266930409E-5</v>
+        <v>0.030442178180701784</v>
       </c>
       <c r="E53" t="n">
         <v>26.0</v>
       </c>
       <c r="F53" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G53" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.06493506493506493</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="I53" t="n">
-        <v>0.19230769230769232</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="J53" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K53" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="L53" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="M53" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N53" t="n">
-        <v>418.0</v>
+        <v>7000.0</v>
       </c>
       <c r="O53" t="s">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="P53" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="Q53" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
     </row>
     <row r="54">
@@ -6013,52 +6112,52 @@
         <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D54" t="n">
-        <v>1.2841047602547032E-4</v>
+        <v>0.033264926486921385</v>
       </c>
       <c r="E54" t="n">
-        <v>120.0</v>
+        <v>1091.0</v>
       </c>
       <c r="F54" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G54" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="I54" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.01833180568285976</v>
       </c>
       <c r="J54" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K54" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="L54" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="M54" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N54" t="n">
-        <v>419.0</v>
+        <v>1977.0</v>
       </c>
       <c r="O54" t="s">
-        <v>217</v>
+        <v>341</v>
       </c>
       <c r="P54" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="Q54" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
     </row>
     <row r="55">
@@ -6066,52 +6165,52 @@
         <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0016453817978274831</v>
+        <v>0.04032447139017527</v>
       </c>
       <c r="E55" t="n">
-        <v>49.0</v>
+        <v>10.0</v>
       </c>
       <c r="F55" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G55" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.06493506493506493</v>
+        <v>0.039473684210526314</v>
       </c>
       <c r="I55" t="n">
-        <v>0.10204081632653061</v>
+        <v>0.3</v>
       </c>
       <c r="J55" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K55" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="L55" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="M55" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N55" t="n">
-        <v>302.0</v>
+        <v>1206.0</v>
       </c>
       <c r="O55" t="s">
-        <v>217</v>
+        <v>342</v>
       </c>
       <c r="P55" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="Q55" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
     </row>
     <row r="56">
@@ -6119,52 +6218,52 @@
         <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D56" t="n">
-        <v>0.009970018289360859</v>
+        <v>0.04032447139017527</v>
       </c>
       <c r="E56" t="n">
-        <v>4291.0</v>
+        <v>10.0</v>
       </c>
       <c r="F56" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G56" t="n">
-        <v>46.0</v>
+        <v>3.0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.5974025974025974</v>
+        <v>0.039473684210526314</v>
       </c>
       <c r="I56" t="n">
-        <v>0.010720111862036821</v>
+        <v>0.3</v>
       </c>
       <c r="J56" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K56" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="L56" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="M56" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N56" t="n">
-        <v>1.0</v>
+        <v>15036.0</v>
       </c>
       <c r="O56" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="P56" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="Q56" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57">
@@ -6172,52 +6271,52 @@
         <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D57" t="n">
-        <v>0.030522451541373643</v>
+        <v>0.04499252797651523</v>
       </c>
       <c r="E57" t="n">
-        <v>21.0</v>
+        <v>137.0</v>
       </c>
       <c r="F57" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="G57" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.03896103896103896</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="I57" t="n">
-        <v>0.14285714285714285</v>
+        <v>0.051094890510948905</v>
       </c>
       <c r="J57" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K57" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="L57" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="M57" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N57" t="n">
-        <v>300.0</v>
+        <v>567.0</v>
       </c>
       <c r="O57" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P57" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="Q57" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
     </row>
     <row r="58">
@@ -6225,52 +6324,370 @@
         <v>160</v>
       </c>
       <c r="B58" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.603706413042543E-6</v>
+      </c>
+      <c r="E58" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.11842105263157894</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.08653846153846154</v>
+      </c>
+      <c r="J58" t="s">
+        <v>225</v>
+      </c>
+      <c r="K58" t="s">
+        <v>236</v>
+      </c>
+      <c r="L58" t="s">
+        <v>293</v>
+      </c>
+      <c r="M58" t="n">
+        <v>11129.0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="O58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P58" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
         <v>161</v>
       </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5.816774151089139E-6</v>
+      </c>
+      <c r="E59" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.11842105263157894</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="J59" t="s">
+        <v>226</v>
+      </c>
+      <c r="K59" t="s">
+        <v>236</v>
+      </c>
+      <c r="L59" t="s">
+        <v>294</v>
+      </c>
+      <c r="M59" t="n">
+        <v>11129.0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>230</v>
+      </c>
+      <c r="P59" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
         <v>162</v>
       </c>
-      <c r="D58" t="n">
-        <v>0.03904571327537669</v>
-      </c>
-      <c r="E58" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="G58" t="n">
+      <c r="B60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.0438151920919054E-4</v>
+      </c>
+      <c r="E60" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.06779661016949153</v>
+      </c>
+      <c r="J60" t="s">
+        <v>227</v>
+      </c>
+      <c r="K60" t="s">
+        <v>236</v>
+      </c>
+      <c r="L60" t="s">
+        <v>295</v>
+      </c>
+      <c r="M60" t="n">
+        <v>11129.0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>422.0</v>
+      </c>
+      <c r="O60" t="s">
+        <v>230</v>
+      </c>
+      <c r="P60" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0011494826768591456</v>
+      </c>
+      <c r="E61" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="G61" t="n">
         <v>5.0</v>
       </c>
-      <c r="H58" t="n">
-        <v>0.06493506493506493</v>
-      </c>
-      <c r="I58" t="n">
+      <c r="H61" t="n">
+        <v>0.06578947368421052</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="J61" t="s">
+        <v>228</v>
+      </c>
+      <c r="K61" t="s">
+        <v>236</v>
+      </c>
+      <c r="L61" t="s">
+        <v>296</v>
+      </c>
+      <c r="M61" t="n">
+        <v>11129.0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="O61" t="s">
+        <v>230</v>
+      </c>
+      <c r="P61" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.0018286778628767008</v>
+      </c>
+      <c r="E62" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H62" t="n">
         <v>0.05263157894736842</v>
       </c>
-      <c r="J58" t="s">
-        <v>219</v>
-      </c>
-      <c r="K58" t="s">
-        <v>224</v>
-      </c>
-      <c r="L58" t="s">
-        <v>281</v>
-      </c>
-      <c r="M58" t="n">
-        <v>11137.0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>289.0</v>
-      </c>
-      <c r="O58" t="s">
-        <v>217</v>
-      </c>
-      <c r="P58" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>405</v>
+      <c r="I62" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>229</v>
+      </c>
+      <c r="K62" t="s">
+        <v>236</v>
+      </c>
+      <c r="L62" t="s">
+        <v>297</v>
+      </c>
+      <c r="M62" t="n">
+        <v>11129.0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>421.0</v>
+      </c>
+      <c r="O62" t="s">
+        <v>230</v>
+      </c>
+      <c r="P62" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.019952445177628765</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4184.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.010516252390057362</v>
+      </c>
+      <c r="J63" t="s">
+        <v>230</v>
+      </c>
+      <c r="K63" t="s">
+        <v>236</v>
+      </c>
+      <c r="L63" t="s">
+        <v>298</v>
+      </c>
+      <c r="M63" t="n">
+        <v>11129.0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O63" t="s">
+        <v>344</v>
+      </c>
+      <c r="P63" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>166</v>
+      </c>
+      <c r="B64" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.03230933905096279</v>
+      </c>
+      <c r="E64" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.06578947368421052</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.05434782608695652</v>
+      </c>
+      <c r="J64" t="s">
+        <v>231</v>
+      </c>
+      <c r="K64" t="s">
+        <v>236</v>
+      </c>
+      <c r="L64" t="s">
+        <v>299</v>
+      </c>
+      <c r="M64" t="n">
+        <v>11129.0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="O64" t="s">
+        <v>230</v>
+      </c>
+      <c r="P64" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
